--- a/MORPHE2US.xlsx
+++ b/MORPHE2US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Documents\MasterArbeit - Documents\MORPHE2US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F528239-6523-4497-9BC8-283073B7A951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5078E8A-8DB8-4B89-9313-2A66B366DAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57735" yWindow="-6420" windowWidth="29070" windowHeight="15750" tabRatio="713" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6450" windowWidth="29040" windowHeight="15720" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="709">
   <si>
     <t>Model</t>
   </si>
@@ -2334,6 +2334,12 @@
   </si>
   <si>
     <t xml:space="preserve"> How many alternative solutions will be generated</t>
+  </si>
+  <si>
+    <t>Building retrofits</t>
+  </si>
+  <si>
+    <t>NaM_building_retrofits</t>
   </si>
 </sst>
 </file>
@@ -4010,93 +4016,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4114,6 +4033,93 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4520,8 +4526,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4918,6 +4924,20 @@
         <v>306</v>
       </c>
     </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="141" t="s">
+        <v>708</v>
+      </c>
+      <c r="E32" s="152" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="72" t="s">
@@ -4961,7 +4981,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="339" t="s">
+      <c r="B39" s="310" t="s">
         <v>706</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -4970,13 +4990,13 @@
       <c r="D39" s="143" t="s">
         <v>702</v>
       </c>
-      <c r="E39" s="337">
+      <c r="E39" s="308">
         <v>15</v>
       </c>
       <c r="F39" s="94"/>
     </row>
     <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B40" s="340" t="s">
+      <c r="B40" s="311" t="s">
         <v>705</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -6269,7 +6289,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
@@ -10501,7 +10521,7 @@
       </c>
       <c r="D44" s="246"/>
       <c r="E44" s="246"/>
-      <c r="F44" s="338" t="b">
+      <c r="F44" s="309" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
@@ -18710,806 +18730,806 @@
       <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="328">
+      <c r="C1" s="312">
         <v>1</v>
       </c>
-      <c r="D1" s="329"/>
-      <c r="E1" s="329"/>
-      <c r="F1" s="329"/>
-      <c r="G1" s="329"/>
-      <c r="H1" s="329"/>
-      <c r="I1" s="329"/>
-      <c r="J1" s="329"/>
-      <c r="K1" s="329"/>
-      <c r="L1" s="329"/>
-      <c r="M1" s="329"/>
-      <c r="N1" s="329"/>
-      <c r="O1" s="329"/>
-      <c r="P1" s="329"/>
-      <c r="Q1" s="329"/>
-      <c r="R1" s="329"/>
-      <c r="S1" s="329"/>
-      <c r="T1" s="329"/>
-      <c r="U1" s="329"/>
-      <c r="V1" s="329"/>
-      <c r="W1" s="329"/>
-      <c r="X1" s="329"/>
-      <c r="Y1" s="329"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="329"/>
-      <c r="AB1" s="330"/>
-      <c r="AC1" s="331">
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="313"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="313"/>
+      <c r="P1" s="313"/>
+      <c r="Q1" s="313"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="313"/>
+      <c r="T1" s="313"/>
+      <c r="U1" s="313"/>
+      <c r="V1" s="313"/>
+      <c r="W1" s="313"/>
+      <c r="X1" s="313"/>
+      <c r="Y1" s="313"/>
+      <c r="Z1" s="313"/>
+      <c r="AA1" s="313"/>
+      <c r="AB1" s="314"/>
+      <c r="AC1" s="315">
         <v>2</v>
       </c>
-      <c r="AD1" s="329"/>
-      <c r="AE1" s="329"/>
-      <c r="AF1" s="329"/>
-      <c r="AG1" s="329"/>
-      <c r="AH1" s="329"/>
-      <c r="AI1" s="329"/>
-      <c r="AJ1" s="329"/>
-      <c r="AK1" s="329"/>
-      <c r="AL1" s="329"/>
-      <c r="AM1" s="329"/>
-      <c r="AN1" s="329"/>
-      <c r="AO1" s="329"/>
-      <c r="AP1" s="329"/>
-      <c r="AQ1" s="329"/>
-      <c r="AR1" s="329"/>
-      <c r="AS1" s="329"/>
-      <c r="AT1" s="329"/>
-      <c r="AU1" s="329"/>
-      <c r="AV1" s="329"/>
-      <c r="AW1" s="329"/>
-      <c r="AX1" s="329"/>
-      <c r="AY1" s="329"/>
-      <c r="AZ1" s="329"/>
-      <c r="BA1" s="329"/>
-      <c r="BB1" s="330"/>
-      <c r="BC1" s="331">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="313"/>
+      <c r="AG1" s="313"/>
+      <c r="AH1" s="313"/>
+      <c r="AI1" s="313"/>
+      <c r="AJ1" s="313"/>
+      <c r="AK1" s="313"/>
+      <c r="AL1" s="313"/>
+      <c r="AM1" s="313"/>
+      <c r="AN1" s="313"/>
+      <c r="AO1" s="313"/>
+      <c r="AP1" s="313"/>
+      <c r="AQ1" s="313"/>
+      <c r="AR1" s="313"/>
+      <c r="AS1" s="313"/>
+      <c r="AT1" s="313"/>
+      <c r="AU1" s="313"/>
+      <c r="AV1" s="313"/>
+      <c r="AW1" s="313"/>
+      <c r="AX1" s="313"/>
+      <c r="AY1" s="313"/>
+      <c r="AZ1" s="313"/>
+      <c r="BA1" s="313"/>
+      <c r="BB1" s="314"/>
+      <c r="BC1" s="315">
         <v>3</v>
       </c>
-      <c r="BD1" s="329"/>
-      <c r="BE1" s="329"/>
-      <c r="BF1" s="329"/>
-      <c r="BG1" s="329"/>
-      <c r="BH1" s="329"/>
-      <c r="BI1" s="329"/>
-      <c r="BJ1" s="329"/>
-      <c r="BK1" s="329"/>
-      <c r="BL1" s="329"/>
-      <c r="BM1" s="329"/>
-      <c r="BN1" s="329"/>
-      <c r="BO1" s="329"/>
-      <c r="BP1" s="329"/>
-      <c r="BQ1" s="329"/>
-      <c r="BR1" s="329"/>
-      <c r="BS1" s="329"/>
-      <c r="BT1" s="329"/>
-      <c r="BU1" s="329"/>
-      <c r="BV1" s="329"/>
-      <c r="BW1" s="329"/>
-      <c r="BX1" s="329"/>
-      <c r="BY1" s="329"/>
-      <c r="BZ1" s="329"/>
-      <c r="CA1" s="329"/>
-      <c r="CB1" s="330"/>
-      <c r="CC1" s="331">
+      <c r="BD1" s="313"/>
+      <c r="BE1" s="313"/>
+      <c r="BF1" s="313"/>
+      <c r="BG1" s="313"/>
+      <c r="BH1" s="313"/>
+      <c r="BI1" s="313"/>
+      <c r="BJ1" s="313"/>
+      <c r="BK1" s="313"/>
+      <c r="BL1" s="313"/>
+      <c r="BM1" s="313"/>
+      <c r="BN1" s="313"/>
+      <c r="BO1" s="313"/>
+      <c r="BP1" s="313"/>
+      <c r="BQ1" s="313"/>
+      <c r="BR1" s="313"/>
+      <c r="BS1" s="313"/>
+      <c r="BT1" s="313"/>
+      <c r="BU1" s="313"/>
+      <c r="BV1" s="313"/>
+      <c r="BW1" s="313"/>
+      <c r="BX1" s="313"/>
+      <c r="BY1" s="313"/>
+      <c r="BZ1" s="313"/>
+      <c r="CA1" s="313"/>
+      <c r="CB1" s="314"/>
+      <c r="CC1" s="315">
         <v>4</v>
       </c>
-      <c r="CD1" s="329"/>
-      <c r="CE1" s="329"/>
-      <c r="CF1" s="329"/>
-      <c r="CG1" s="329"/>
-      <c r="CH1" s="329"/>
-      <c r="CI1" s="329"/>
-      <c r="CJ1" s="329"/>
-      <c r="CK1" s="329"/>
-      <c r="CL1" s="329"/>
-      <c r="CM1" s="329"/>
-      <c r="CN1" s="329"/>
-      <c r="CO1" s="329"/>
-      <c r="CP1" s="329"/>
-      <c r="CQ1" s="329"/>
-      <c r="CR1" s="329"/>
-      <c r="CS1" s="329"/>
-      <c r="CT1" s="329"/>
-      <c r="CU1" s="329"/>
-      <c r="CV1" s="329"/>
-      <c r="CW1" s="329"/>
-      <c r="CX1" s="329"/>
-      <c r="CY1" s="329"/>
-      <c r="CZ1" s="329"/>
-      <c r="DA1" s="329"/>
-      <c r="DB1" s="330"/>
+      <c r="CD1" s="313"/>
+      <c r="CE1" s="313"/>
+      <c r="CF1" s="313"/>
+      <c r="CG1" s="313"/>
+      <c r="CH1" s="313"/>
+      <c r="CI1" s="313"/>
+      <c r="CJ1" s="313"/>
+      <c r="CK1" s="313"/>
+      <c r="CL1" s="313"/>
+      <c r="CM1" s="313"/>
+      <c r="CN1" s="313"/>
+      <c r="CO1" s="313"/>
+      <c r="CP1" s="313"/>
+      <c r="CQ1" s="313"/>
+      <c r="CR1" s="313"/>
+      <c r="CS1" s="313"/>
+      <c r="CT1" s="313"/>
+      <c r="CU1" s="313"/>
+      <c r="CV1" s="313"/>
+      <c r="CW1" s="313"/>
+      <c r="CX1" s="313"/>
+      <c r="CY1" s="313"/>
+      <c r="CZ1" s="313"/>
+      <c r="DA1" s="313"/>
+      <c r="DB1" s="314"/>
     </row>
     <row r="2" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="332" t="s">
+      <c r="C2" s="316" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308"/>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="308"/>
-      <c r="L2" s="308"/>
-      <c r="M2" s="308"/>
-      <c r="N2" s="308"/>
-      <c r="O2" s="308"/>
-      <c r="P2" s="308"/>
-      <c r="Q2" s="308"/>
-      <c r="R2" s="308"/>
-      <c r="S2" s="308"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="308"/>
-      <c r="W2" s="308"/>
-      <c r="X2" s="308"/>
-      <c r="Y2" s="308"/>
-      <c r="Z2" s="308"/>
-      <c r="AA2" s="308"/>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="333"/>
-      <c r="AD2" s="308"/>
-      <c r="AE2" s="308"/>
-      <c r="AF2" s="308"/>
-      <c r="AG2" s="308"/>
-      <c r="AH2" s="308"/>
-      <c r="AI2" s="308"/>
-      <c r="AJ2" s="308"/>
-      <c r="AK2" s="308"/>
-      <c r="AL2" s="308"/>
-      <c r="AM2" s="308"/>
-      <c r="AN2" s="308"/>
-      <c r="AO2" s="308"/>
-      <c r="AP2" s="308"/>
-      <c r="AQ2" s="308"/>
-      <c r="AR2" s="308"/>
-      <c r="AS2" s="308"/>
-      <c r="AT2" s="308"/>
-      <c r="AU2" s="308"/>
-      <c r="AV2" s="308"/>
-      <c r="AW2" s="308"/>
-      <c r="AX2" s="308"/>
-      <c r="AY2" s="308"/>
-      <c r="AZ2" s="308"/>
-      <c r="BA2" s="308"/>
-      <c r="BB2" s="310"/>
-      <c r="BC2" s="333"/>
-      <c r="BD2" s="308"/>
-      <c r="BE2" s="308"/>
-      <c r="BF2" s="308"/>
-      <c r="BG2" s="308"/>
-      <c r="BH2" s="308"/>
-      <c r="BI2" s="308"/>
-      <c r="BJ2" s="308"/>
-      <c r="BK2" s="308"/>
-      <c r="BL2" s="308"/>
-      <c r="BM2" s="308"/>
-      <c r="BN2" s="308"/>
-      <c r="BO2" s="308"/>
-      <c r="BP2" s="308"/>
-      <c r="BQ2" s="308"/>
-      <c r="BR2" s="308"/>
-      <c r="BS2" s="308"/>
-      <c r="BT2" s="308"/>
-      <c r="BU2" s="308"/>
-      <c r="BV2" s="308"/>
-      <c r="BW2" s="308"/>
-      <c r="BX2" s="308"/>
-      <c r="BY2" s="308"/>
-      <c r="BZ2" s="308"/>
-      <c r="CA2" s="308"/>
-      <c r="CB2" s="310"/>
-      <c r="CC2" s="333"/>
-      <c r="CD2" s="308"/>
-      <c r="CE2" s="308"/>
-      <c r="CF2" s="308"/>
-      <c r="CG2" s="308"/>
-      <c r="CH2" s="308"/>
-      <c r="CI2" s="308"/>
-      <c r="CJ2" s="308"/>
-      <c r="CK2" s="308"/>
-      <c r="CL2" s="308"/>
-      <c r="CM2" s="308"/>
-      <c r="CN2" s="308"/>
-      <c r="CO2" s="308"/>
-      <c r="CP2" s="308"/>
-      <c r="CQ2" s="308"/>
-      <c r="CR2" s="308"/>
-      <c r="CS2" s="308"/>
-      <c r="CT2" s="308"/>
-      <c r="CU2" s="308"/>
-      <c r="CV2" s="308"/>
-      <c r="CW2" s="308"/>
-      <c r="CX2" s="308"/>
-      <c r="CY2" s="308"/>
-      <c r="CZ2" s="308"/>
-      <c r="DA2" s="308"/>
-      <c r="DB2" s="310"/>
+      <c r="D2" s="317"/>
+      <c r="E2" s="317"/>
+      <c r="F2" s="317"/>
+      <c r="G2" s="317"/>
+      <c r="H2" s="317"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="317"/>
+      <c r="L2" s="317"/>
+      <c r="M2" s="317"/>
+      <c r="N2" s="317"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="317"/>
+      <c r="Q2" s="317"/>
+      <c r="R2" s="317"/>
+      <c r="S2" s="317"/>
+      <c r="T2" s="317"/>
+      <c r="U2" s="317"/>
+      <c r="V2" s="317"/>
+      <c r="W2" s="317"/>
+      <c r="X2" s="317"/>
+      <c r="Y2" s="317"/>
+      <c r="Z2" s="317"/>
+      <c r="AA2" s="317"/>
+      <c r="AB2" s="318"/>
+      <c r="AC2" s="319"/>
+      <c r="AD2" s="317"/>
+      <c r="AE2" s="317"/>
+      <c r="AF2" s="317"/>
+      <c r="AG2" s="317"/>
+      <c r="AH2" s="317"/>
+      <c r="AI2" s="317"/>
+      <c r="AJ2" s="317"/>
+      <c r="AK2" s="317"/>
+      <c r="AL2" s="317"/>
+      <c r="AM2" s="317"/>
+      <c r="AN2" s="317"/>
+      <c r="AO2" s="317"/>
+      <c r="AP2" s="317"/>
+      <c r="AQ2" s="317"/>
+      <c r="AR2" s="317"/>
+      <c r="AS2" s="317"/>
+      <c r="AT2" s="317"/>
+      <c r="AU2" s="317"/>
+      <c r="AV2" s="317"/>
+      <c r="AW2" s="317"/>
+      <c r="AX2" s="317"/>
+      <c r="AY2" s="317"/>
+      <c r="AZ2" s="317"/>
+      <c r="BA2" s="317"/>
+      <c r="BB2" s="318"/>
+      <c r="BC2" s="319"/>
+      <c r="BD2" s="317"/>
+      <c r="BE2" s="317"/>
+      <c r="BF2" s="317"/>
+      <c r="BG2" s="317"/>
+      <c r="BH2" s="317"/>
+      <c r="BI2" s="317"/>
+      <c r="BJ2" s="317"/>
+      <c r="BK2" s="317"/>
+      <c r="BL2" s="317"/>
+      <c r="BM2" s="317"/>
+      <c r="BN2" s="317"/>
+      <c r="BO2" s="317"/>
+      <c r="BP2" s="317"/>
+      <c r="BQ2" s="317"/>
+      <c r="BR2" s="317"/>
+      <c r="BS2" s="317"/>
+      <c r="BT2" s="317"/>
+      <c r="BU2" s="317"/>
+      <c r="BV2" s="317"/>
+      <c r="BW2" s="317"/>
+      <c r="BX2" s="317"/>
+      <c r="BY2" s="317"/>
+      <c r="BZ2" s="317"/>
+      <c r="CA2" s="317"/>
+      <c r="CB2" s="318"/>
+      <c r="CC2" s="319"/>
+      <c r="CD2" s="317"/>
+      <c r="CE2" s="317"/>
+      <c r="CF2" s="317"/>
+      <c r="CG2" s="317"/>
+      <c r="CH2" s="317"/>
+      <c r="CI2" s="317"/>
+      <c r="CJ2" s="317"/>
+      <c r="CK2" s="317"/>
+      <c r="CL2" s="317"/>
+      <c r="CM2" s="317"/>
+      <c r="CN2" s="317"/>
+      <c r="CO2" s="317"/>
+      <c r="CP2" s="317"/>
+      <c r="CQ2" s="317"/>
+      <c r="CR2" s="317"/>
+      <c r="CS2" s="317"/>
+      <c r="CT2" s="317"/>
+      <c r="CU2" s="317"/>
+      <c r="CV2" s="317"/>
+      <c r="CW2" s="317"/>
+      <c r="CX2" s="317"/>
+      <c r="CY2" s="317"/>
+      <c r="CZ2" s="317"/>
+      <c r="DA2" s="317"/>
+      <c r="DB2" s="318"/>
     </row>
     <row r="3" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11"/>
       <c r="C3" s="27"/>
       <c r="D3" s="48"/>
-      <c r="E3" s="325">
+      <c r="E3" s="320">
         <v>1</v>
       </c>
-      <c r="F3" s="325"/>
-      <c r="G3" s="325">
+      <c r="F3" s="320"/>
+      <c r="G3" s="320">
         <v>2</v>
       </c>
-      <c r="H3" s="326"/>
-      <c r="I3" s="325">
+      <c r="H3" s="321"/>
+      <c r="I3" s="320">
         <v>3</v>
       </c>
-      <c r="J3" s="326"/>
-      <c r="K3" s="325">
+      <c r="J3" s="321"/>
+      <c r="K3" s="320">
         <v>4</v>
       </c>
-      <c r="L3" s="326"/>
-      <c r="M3" s="325">
+      <c r="L3" s="321"/>
+      <c r="M3" s="320">
         <v>5</v>
       </c>
-      <c r="N3" s="326"/>
-      <c r="O3" s="325">
+      <c r="N3" s="321"/>
+      <c r="O3" s="320">
         <v>6</v>
       </c>
-      <c r="P3" s="326"/>
-      <c r="Q3" s="325">
+      <c r="P3" s="321"/>
+      <c r="Q3" s="320">
         <v>7</v>
       </c>
-      <c r="R3" s="326"/>
-      <c r="S3" s="325">
+      <c r="R3" s="321"/>
+      <c r="S3" s="320">
         <v>8</v>
       </c>
-      <c r="T3" s="326"/>
-      <c r="U3" s="325">
+      <c r="T3" s="321"/>
+      <c r="U3" s="320">
         <v>9</v>
       </c>
-      <c r="V3" s="326"/>
-      <c r="W3" s="325">
+      <c r="V3" s="321"/>
+      <c r="W3" s="320">
         <v>10</v>
       </c>
-      <c r="X3" s="326"/>
-      <c r="Y3" s="325">
+      <c r="X3" s="321"/>
+      <c r="Y3" s="320">
         <v>11</v>
       </c>
-      <c r="Z3" s="326"/>
-      <c r="AA3" s="325">
+      <c r="Z3" s="321"/>
+      <c r="AA3" s="320">
         <v>12</v>
       </c>
-      <c r="AB3" s="327"/>
+      <c r="AB3" s="322"/>
       <c r="AC3" s="111"/>
       <c r="AD3" s="48"/>
-      <c r="AE3" s="325">
+      <c r="AE3" s="320">
         <v>1</v>
       </c>
-      <c r="AF3" s="325"/>
-      <c r="AG3" s="325">
+      <c r="AF3" s="320"/>
+      <c r="AG3" s="320">
         <v>2</v>
       </c>
-      <c r="AH3" s="326"/>
-      <c r="AI3" s="325">
+      <c r="AH3" s="321"/>
+      <c r="AI3" s="320">
         <v>3</v>
       </c>
-      <c r="AJ3" s="326"/>
-      <c r="AK3" s="325">
+      <c r="AJ3" s="321"/>
+      <c r="AK3" s="320">
         <v>4</v>
       </c>
-      <c r="AL3" s="326"/>
-      <c r="AM3" s="325">
+      <c r="AL3" s="321"/>
+      <c r="AM3" s="320">
         <v>5</v>
       </c>
-      <c r="AN3" s="326"/>
-      <c r="AO3" s="325">
+      <c r="AN3" s="321"/>
+      <c r="AO3" s="320">
         <v>6</v>
       </c>
-      <c r="AP3" s="326"/>
-      <c r="AQ3" s="325">
+      <c r="AP3" s="321"/>
+      <c r="AQ3" s="320">
         <v>7</v>
       </c>
-      <c r="AR3" s="326"/>
-      <c r="AS3" s="325">
+      <c r="AR3" s="321"/>
+      <c r="AS3" s="320">
         <v>8</v>
       </c>
-      <c r="AT3" s="326"/>
-      <c r="AU3" s="325">
+      <c r="AT3" s="321"/>
+      <c r="AU3" s="320">
         <v>9</v>
       </c>
-      <c r="AV3" s="326"/>
-      <c r="AW3" s="325">
+      <c r="AV3" s="321"/>
+      <c r="AW3" s="320">
         <v>10</v>
       </c>
-      <c r="AX3" s="326"/>
-      <c r="AY3" s="325">
+      <c r="AX3" s="321"/>
+      <c r="AY3" s="320">
         <v>11</v>
       </c>
-      <c r="AZ3" s="326"/>
-      <c r="BA3" s="325">
+      <c r="AZ3" s="321"/>
+      <c r="BA3" s="320">
         <v>12</v>
       </c>
-      <c r="BB3" s="327"/>
+      <c r="BB3" s="322"/>
       <c r="BC3" s="111"/>
       <c r="BD3" s="48"/>
-      <c r="BE3" s="325">
+      <c r="BE3" s="320">
         <v>1</v>
       </c>
-      <c r="BF3" s="325"/>
-      <c r="BG3" s="325">
+      <c r="BF3" s="320"/>
+      <c r="BG3" s="320">
         <v>2</v>
       </c>
-      <c r="BH3" s="326"/>
-      <c r="BI3" s="325">
+      <c r="BH3" s="321"/>
+      <c r="BI3" s="320">
         <v>3</v>
       </c>
-      <c r="BJ3" s="326"/>
-      <c r="BK3" s="325">
+      <c r="BJ3" s="321"/>
+      <c r="BK3" s="320">
         <v>4</v>
       </c>
-      <c r="BL3" s="326"/>
-      <c r="BM3" s="325">
+      <c r="BL3" s="321"/>
+      <c r="BM3" s="320">
         <v>5</v>
       </c>
-      <c r="BN3" s="326"/>
-      <c r="BO3" s="325">
+      <c r="BN3" s="321"/>
+      <c r="BO3" s="320">
         <v>6</v>
       </c>
-      <c r="BP3" s="326"/>
-      <c r="BQ3" s="325">
+      <c r="BP3" s="321"/>
+      <c r="BQ3" s="320">
         <v>7</v>
       </c>
-      <c r="BR3" s="326"/>
-      <c r="BS3" s="325">
+      <c r="BR3" s="321"/>
+      <c r="BS3" s="320">
         <v>8</v>
       </c>
-      <c r="BT3" s="326"/>
-      <c r="BU3" s="325">
+      <c r="BT3" s="321"/>
+      <c r="BU3" s="320">
         <v>9</v>
       </c>
-      <c r="BV3" s="326"/>
-      <c r="BW3" s="325">
+      <c r="BV3" s="321"/>
+      <c r="BW3" s="320">
         <v>10</v>
       </c>
-      <c r="BX3" s="326"/>
-      <c r="BY3" s="325">
+      <c r="BX3" s="321"/>
+      <c r="BY3" s="320">
         <v>11</v>
       </c>
-      <c r="BZ3" s="326"/>
-      <c r="CA3" s="325">
+      <c r="BZ3" s="321"/>
+      <c r="CA3" s="320">
         <v>12</v>
       </c>
-      <c r="CB3" s="327"/>
+      <c r="CB3" s="322"/>
       <c r="CC3" s="111"/>
       <c r="CD3" s="48"/>
-      <c r="CE3" s="325">
+      <c r="CE3" s="320">
         <v>1</v>
       </c>
-      <c r="CF3" s="325"/>
-      <c r="CG3" s="325">
+      <c r="CF3" s="320"/>
+      <c r="CG3" s="320">
         <v>2</v>
       </c>
-      <c r="CH3" s="325"/>
-      <c r="CI3" s="325">
+      <c r="CH3" s="320"/>
+      <c r="CI3" s="320">
         <v>3</v>
       </c>
-      <c r="CJ3" s="325"/>
-      <c r="CK3" s="325">
+      <c r="CJ3" s="320"/>
+      <c r="CK3" s="320">
         <v>4</v>
       </c>
-      <c r="CL3" s="325"/>
-      <c r="CM3" s="325">
+      <c r="CL3" s="320"/>
+      <c r="CM3" s="320">
         <v>5</v>
       </c>
-      <c r="CN3" s="325"/>
-      <c r="CO3" s="325">
+      <c r="CN3" s="320"/>
+      <c r="CO3" s="320">
         <v>6</v>
       </c>
-      <c r="CP3" s="325"/>
-      <c r="CQ3" s="325">
+      <c r="CP3" s="320"/>
+      <c r="CQ3" s="320">
         <v>7</v>
       </c>
-      <c r="CR3" s="325"/>
-      <c r="CS3" s="325">
+      <c r="CR3" s="320"/>
+      <c r="CS3" s="320">
         <v>8</v>
       </c>
-      <c r="CT3" s="325"/>
-      <c r="CU3" s="325">
+      <c r="CT3" s="320"/>
+      <c r="CU3" s="320">
         <v>9</v>
       </c>
-      <c r="CV3" s="325"/>
-      <c r="CW3" s="325">
+      <c r="CV3" s="320"/>
+      <c r="CW3" s="320">
         <v>10</v>
       </c>
-      <c r="CX3" s="325"/>
-      <c r="CY3" s="325">
+      <c r="CX3" s="320"/>
+      <c r="CY3" s="320">
         <v>11</v>
       </c>
-      <c r="CZ3" s="325"/>
-      <c r="DA3" s="325">
+      <c r="CZ3" s="320"/>
+      <c r="DA3" s="320">
         <v>12</v>
       </c>
-      <c r="DB3" s="325"/>
+      <c r="DB3" s="320"/>
     </row>
     <row r="4" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="194" t="s">
         <v>576</v>
       </c>
-      <c r="C4" s="321" t="s">
+      <c r="C4" s="325" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="311" t="str" cm="1">
+      <c r="D4" s="326"/>
+      <c r="E4" s="329" t="str" cm="1">
         <f t="array" ref="E4">IF(COUNTA(INDEX(Buildings, E3))&gt;0,INDEX(Buildings, E3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="F4" s="312"/>
-      <c r="G4" s="323" t="str" cm="1">
+      <c r="F4" s="330"/>
+      <c r="G4" s="331" t="str" cm="1">
         <f t="array" ref="G4">IF(COUNTA(INDEX(Buildings, G3))&gt;0,INDEX(Buildings, G3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="H4" s="312"/>
-      <c r="I4" s="324" t="str" cm="1">
+      <c r="H4" s="330"/>
+      <c r="I4" s="332" t="str" cm="1">
         <f t="array" ref="I4">IF(COUNTA(INDEX(Buildings, I3))&gt;0,INDEX(Buildings, I3),"")</f>
         <v/>
       </c>
-      <c r="J4" s="320"/>
-      <c r="K4" s="318" t="str" cm="1">
+      <c r="J4" s="324"/>
+      <c r="K4" s="323" t="str" cm="1">
         <f t="array" ref="K4">IF(COUNTA(INDEX(Buildings, K3))&gt;0,INDEX(Buildings, K3),"")</f>
         <v/>
       </c>
-      <c r="L4" s="320"/>
-      <c r="M4" s="318" t="str" cm="1">
+      <c r="L4" s="324"/>
+      <c r="M4" s="323" t="str" cm="1">
         <f t="array" ref="M4">IF(COUNTA(INDEX(Buildings, M3))&gt;0,INDEX(Buildings, M3),"")</f>
         <v/>
       </c>
-      <c r="N4" s="320"/>
-      <c r="O4" s="318" t="str" cm="1">
+      <c r="N4" s="324"/>
+      <c r="O4" s="323" t="str" cm="1">
         <f t="array" ref="O4">IF(COUNTA(INDEX(Buildings, O3))&gt;0,INDEX(Buildings, O3),"")</f>
         <v/>
       </c>
-      <c r="P4" s="320"/>
-      <c r="Q4" s="318" t="str" cm="1">
+      <c r="P4" s="324"/>
+      <c r="Q4" s="323" t="str" cm="1">
         <f t="array" ref="Q4">IF(COUNTA(INDEX(Buildings, Q3))&gt;0,INDEX(Buildings, Q3),"")</f>
         <v/>
       </c>
-      <c r="R4" s="320"/>
-      <c r="S4" s="318" t="str" cm="1">
+      <c r="R4" s="324"/>
+      <c r="S4" s="323" t="str" cm="1">
         <f t="array" ref="S4">IF(COUNTA(INDEX(Buildings, S3))&gt;0,INDEX(Buildings, S3),"")</f>
         <v/>
       </c>
-      <c r="T4" s="320"/>
-      <c r="U4" s="318" t="str" cm="1">
+      <c r="T4" s="324"/>
+      <c r="U4" s="323" t="str" cm="1">
         <f t="array" ref="U4">IF(COUNTA(INDEX(Buildings, U3))&gt;0,INDEX(Buildings, U3),"")</f>
         <v/>
       </c>
-      <c r="V4" s="320"/>
-      <c r="W4" s="318" t="str" cm="1">
+      <c r="V4" s="324"/>
+      <c r="W4" s="323" t="str" cm="1">
         <f t="array" ref="W4">IF(COUNTA(INDEX(Buildings, W3))&gt;0,INDEX(Buildings, W3),"")</f>
         <v/>
       </c>
-      <c r="X4" s="320"/>
-      <c r="Y4" s="318" t="str" cm="1">
+      <c r="X4" s="324"/>
+      <c r="Y4" s="323" t="str" cm="1">
         <f t="array" ref="Y4">IF(COUNTA(INDEX(Buildings, Y3))&gt;0,INDEX(Buildings, Y3),"")</f>
         <v/>
       </c>
-      <c r="Z4" s="320"/>
-      <c r="AA4" s="318" t="str" cm="1">
+      <c r="Z4" s="324"/>
+      <c r="AA4" s="323" t="str" cm="1">
         <f t="array" ref="AA4">IF(COUNTA(INDEX(Buildings, AA3))&gt;0,INDEX(Buildings, AA3),"")</f>
         <v/>
       </c>
-      <c r="AB4" s="319"/>
-      <c r="AC4" s="314" t="s">
+      <c r="AB4" s="334"/>
+      <c r="AC4" s="335" t="s">
         <v>119</v>
       </c>
-      <c r="AD4" s="315"/>
-      <c r="AE4" s="311" t="str" cm="1">
+      <c r="AD4" s="326"/>
+      <c r="AE4" s="329" t="str" cm="1">
         <f t="array" ref="AE4">IF(COUNTA(INDEX(Buildings, AE3))&gt;0,INDEX(Buildings, AE3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="AF4" s="312"/>
-      <c r="AG4" s="311" t="str" cm="1">
+      <c r="AF4" s="330"/>
+      <c r="AG4" s="329" t="str" cm="1">
         <f t="array" ref="AG4">IF(COUNTA(INDEX(Buildings, AG3))&gt;0,INDEX(Buildings, AG3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="AH4" s="312"/>
-      <c r="AI4" s="311" t="str" cm="1">
+      <c r="AH4" s="330"/>
+      <c r="AI4" s="329" t="str" cm="1">
         <f t="array" ref="AI4">IF(COUNTA(INDEX(Buildings, AI3))&gt;0,INDEX(Buildings, AI3),"")</f>
         <v/>
       </c>
-      <c r="AJ4" s="312"/>
-      <c r="AK4" s="311" t="str" cm="1">
+      <c r="AJ4" s="330"/>
+      <c r="AK4" s="329" t="str" cm="1">
         <f t="array" ref="AK4">IF(COUNTA(INDEX(Buildings, AK3))&gt;0,INDEX(Buildings, AK3),"")</f>
         <v/>
       </c>
-      <c r="AL4" s="312"/>
-      <c r="AM4" s="311" t="str" cm="1">
+      <c r="AL4" s="330"/>
+      <c r="AM4" s="329" t="str" cm="1">
         <f t="array" ref="AM4">IF(COUNTA(INDEX(Buildings, AM3))&gt;0,INDEX(Buildings, AM3),"")</f>
         <v/>
       </c>
-      <c r="AN4" s="312"/>
-      <c r="AO4" s="311" t="str" cm="1">
+      <c r="AN4" s="330"/>
+      <c r="AO4" s="329" t="str" cm="1">
         <f t="array" ref="AO4">IF(COUNTA(INDEX(Buildings, AO3))&gt;0,INDEX(Buildings, AO3),"")</f>
         <v/>
       </c>
-      <c r="AP4" s="312"/>
-      <c r="AQ4" s="311" t="str" cm="1">
+      <c r="AP4" s="330"/>
+      <c r="AQ4" s="329" t="str" cm="1">
         <f t="array" ref="AQ4">IF(COUNTA(INDEX(Buildings, AQ3))&gt;0,INDEX(Buildings, AQ3),"")</f>
         <v/>
       </c>
-      <c r="AR4" s="312"/>
-      <c r="AS4" s="311" t="str" cm="1">
+      <c r="AR4" s="330"/>
+      <c r="AS4" s="329" t="str" cm="1">
         <f t="array" ref="AS4">IF(COUNTA(INDEX(Buildings, AS3))&gt;0,INDEX(Buildings, AS3),"")</f>
         <v/>
       </c>
-      <c r="AT4" s="312"/>
-      <c r="AU4" s="311" t="str" cm="1">
+      <c r="AT4" s="330"/>
+      <c r="AU4" s="329" t="str" cm="1">
         <f t="array" ref="AU4">IF(COUNTA(INDEX(Buildings, AU3))&gt;0,INDEX(Buildings, AU3),"")</f>
         <v/>
       </c>
-      <c r="AV4" s="312"/>
-      <c r="AW4" s="311" t="str" cm="1">
+      <c r="AV4" s="330"/>
+      <c r="AW4" s="329" t="str" cm="1">
         <f t="array" ref="AW4">IF(COUNTA(INDEX(Buildings, AW3))&gt;0,INDEX(Buildings, AW3),"")</f>
         <v/>
       </c>
-      <c r="AX4" s="312"/>
-      <c r="AY4" s="311" t="str" cm="1">
+      <c r="AX4" s="330"/>
+      <c r="AY4" s="329" t="str" cm="1">
         <f t="array" ref="AY4">IF(COUNTA(INDEX(Buildings, AY3))&gt;0,INDEX(Buildings, AY3),"")</f>
         <v/>
       </c>
-      <c r="AZ4" s="312"/>
-      <c r="BA4" s="311" t="str" cm="1">
+      <c r="AZ4" s="330"/>
+      <c r="BA4" s="329" t="str" cm="1">
         <f t="array" ref="BA4">IF(COUNTA(INDEX(Buildings, BA3))&gt;0,INDEX(Buildings, BA3),"")</f>
         <v/>
       </c>
-      <c r="BB4" s="313"/>
-      <c r="BC4" s="314" t="s">
+      <c r="BB4" s="337"/>
+      <c r="BC4" s="335" t="s">
         <v>119</v>
       </c>
-      <c r="BD4" s="315"/>
-      <c r="BE4" s="311" t="str" cm="1">
+      <c r="BD4" s="326"/>
+      <c r="BE4" s="329" t="str" cm="1">
         <f t="array" ref="BE4">IF(COUNTA(INDEX(Buildings, BE3))&gt;0,INDEX(Buildings, BE3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="BF4" s="312"/>
-      <c r="BG4" s="311" t="str" cm="1">
+      <c r="BF4" s="330"/>
+      <c r="BG4" s="329" t="str" cm="1">
         <f t="array" ref="BG4">IF(COUNTA(INDEX(Buildings, BG3))&gt;0,INDEX(Buildings, BG3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="BH4" s="312"/>
-      <c r="BI4" s="311" t="str" cm="1">
+      <c r="BH4" s="330"/>
+      <c r="BI4" s="329" t="str" cm="1">
         <f t="array" ref="BI4">IF(COUNTA(INDEX(Buildings, BI3))&gt;0,INDEX(Buildings, BI3),"")</f>
         <v/>
       </c>
-      <c r="BJ4" s="312"/>
-      <c r="BK4" s="311" t="str" cm="1">
+      <c r="BJ4" s="330"/>
+      <c r="BK4" s="329" t="str" cm="1">
         <f t="array" ref="BK4">IF(COUNTA(INDEX(Buildings, BK3))&gt;0,INDEX(Buildings, BK3),"")</f>
         <v/>
       </c>
-      <c r="BL4" s="312"/>
-      <c r="BM4" s="311" t="str" cm="1">
+      <c r="BL4" s="330"/>
+      <c r="BM4" s="329" t="str" cm="1">
         <f t="array" ref="BM4">IF(COUNTA(INDEX(Buildings, BM3))&gt;0,INDEX(Buildings, BM3),"")</f>
         <v/>
       </c>
-      <c r="BN4" s="312"/>
-      <c r="BO4" s="311" t="str" cm="1">
+      <c r="BN4" s="330"/>
+      <c r="BO4" s="329" t="str" cm="1">
         <f t="array" ref="BO4">IF(COUNTA(INDEX(Buildings, BO3))&gt;0,INDEX(Buildings, BO3),"")</f>
         <v/>
       </c>
-      <c r="BP4" s="312"/>
-      <c r="BQ4" s="311" t="str" cm="1">
+      <c r="BP4" s="330"/>
+      <c r="BQ4" s="329" t="str" cm="1">
         <f t="array" ref="BQ4">IF(COUNTA(INDEX(Buildings, BQ3))&gt;0,INDEX(Buildings, BQ3),"")</f>
         <v/>
       </c>
-      <c r="BR4" s="312"/>
-      <c r="BS4" s="311" t="str" cm="1">
+      <c r="BR4" s="330"/>
+      <c r="BS4" s="329" t="str" cm="1">
         <f t="array" ref="BS4">IF(COUNTA(INDEX(Buildings, BS3))&gt;0,INDEX(Buildings, BS3),"")</f>
         <v/>
       </c>
-      <c r="BT4" s="312"/>
-      <c r="BU4" s="311" t="str" cm="1">
+      <c r="BT4" s="330"/>
+      <c r="BU4" s="329" t="str" cm="1">
         <f t="array" ref="BU4">IF(COUNTA(INDEX(Buildings, BU3))&gt;0,INDEX(Buildings, BU3),"")</f>
         <v/>
       </c>
-      <c r="BV4" s="312"/>
-      <c r="BW4" s="311" t="str" cm="1">
+      <c r="BV4" s="330"/>
+      <c r="BW4" s="329" t="str" cm="1">
         <f t="array" ref="BW4">IF(COUNTA(INDEX(Buildings, BW3))&gt;0,INDEX(Buildings, BW3),"")</f>
         <v/>
       </c>
-      <c r="BX4" s="312"/>
-      <c r="BY4" s="311" t="str" cm="1">
+      <c r="BX4" s="330"/>
+      <c r="BY4" s="329" t="str" cm="1">
         <f t="array" ref="BY4">IF(COUNTA(INDEX(Buildings, BY3))&gt;0,INDEX(Buildings, BY3),"")</f>
         <v/>
       </c>
-      <c r="BZ4" s="312"/>
-      <c r="CA4" s="311" t="str" cm="1">
+      <c r="BZ4" s="330"/>
+      <c r="CA4" s="329" t="str" cm="1">
         <f t="array" ref="CA4">IF(COUNTA(INDEX(Buildings, CA3))&gt;0,INDEX(Buildings, CA3),"")</f>
         <v/>
       </c>
-      <c r="CB4" s="313"/>
-      <c r="CC4" s="314" t="s">
+      <c r="CB4" s="337"/>
+      <c r="CC4" s="335" t="s">
         <v>119</v>
       </c>
-      <c r="CD4" s="315"/>
-      <c r="CE4" s="311" t="str" cm="1">
+      <c r="CD4" s="326"/>
+      <c r="CE4" s="329" t="str" cm="1">
         <f t="array" ref="CE4">IF(COUNTA(INDEX(Buildings, CE3))&gt;0,INDEX(Buildings, CE3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="CF4" s="312"/>
-      <c r="CG4" s="311" t="str" cm="1">
+      <c r="CF4" s="330"/>
+      <c r="CG4" s="329" t="str" cm="1">
         <f t="array" ref="CG4">IF(COUNTA(INDEX(Buildings, CG3))&gt;0,INDEX(Buildings, CG3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="CH4" s="312"/>
-      <c r="CI4" s="311" t="str" cm="1">
+      <c r="CH4" s="330"/>
+      <c r="CI4" s="329" t="str" cm="1">
         <f t="array" ref="CI4">IF(COUNTA(INDEX(Buildings, CI3))&gt;0,INDEX(Buildings, CI3),"")</f>
         <v/>
       </c>
-      <c r="CJ4" s="312"/>
-      <c r="CK4" s="311" t="str" cm="1">
+      <c r="CJ4" s="330"/>
+      <c r="CK4" s="329" t="str" cm="1">
         <f t="array" ref="CK4">IF(COUNTA(INDEX(Buildings, CK3))&gt;0,INDEX(Buildings, CK3),"")</f>
         <v/>
       </c>
-      <c r="CL4" s="312"/>
-      <c r="CM4" s="311" t="str" cm="1">
+      <c r="CL4" s="330"/>
+      <c r="CM4" s="329" t="str" cm="1">
         <f t="array" ref="CM4">IF(COUNTA(INDEX(Buildings, CM3))&gt;0,INDEX(Buildings, CM3),"")</f>
         <v/>
       </c>
-      <c r="CN4" s="312"/>
-      <c r="CO4" s="311" t="str" cm="1">
+      <c r="CN4" s="330"/>
+      <c r="CO4" s="329" t="str" cm="1">
         <f t="array" ref="CO4">IF(COUNTA(INDEX(Buildings, CO3))&gt;0,INDEX(Buildings, CO3),"")</f>
         <v/>
       </c>
-      <c r="CP4" s="312"/>
-      <c r="CQ4" s="311" t="str" cm="1">
+      <c r="CP4" s="330"/>
+      <c r="CQ4" s="329" t="str" cm="1">
         <f t="array" ref="CQ4">IF(COUNTA(INDEX(Buildings, CQ3))&gt;0,INDEX(Buildings, CQ3),"")</f>
         <v/>
       </c>
-      <c r="CR4" s="312"/>
-      <c r="CS4" s="311" t="str" cm="1">
+      <c r="CR4" s="330"/>
+      <c r="CS4" s="329" t="str" cm="1">
         <f t="array" ref="CS4">IF(COUNTA(INDEX(Buildings, CS3))&gt;0,INDEX(Buildings, CS3),"")</f>
         <v/>
       </c>
-      <c r="CT4" s="312"/>
-      <c r="CU4" s="311" t="str" cm="1">
+      <c r="CT4" s="330"/>
+      <c r="CU4" s="329" t="str" cm="1">
         <f t="array" ref="CU4">IF(COUNTA(INDEX(Buildings, CU3))&gt;0,INDEX(Buildings, CU3),"")</f>
         <v/>
       </c>
-      <c r="CV4" s="312"/>
-      <c r="CW4" s="311" t="str" cm="1">
+      <c r="CV4" s="330"/>
+      <c r="CW4" s="329" t="str" cm="1">
         <f t="array" ref="CW4">IF(COUNTA(INDEX(Buildings, CW3))&gt;0,INDEX(Buildings, CW3),"")</f>
         <v/>
       </c>
-      <c r="CX4" s="312"/>
-      <c r="CY4" s="311" t="str" cm="1">
+      <c r="CX4" s="330"/>
+      <c r="CY4" s="329" t="str" cm="1">
         <f t="array" ref="CY4">IF(COUNTA(INDEX(Buildings, CY3))&gt;0,INDEX(Buildings, CY3),"")</f>
         <v/>
       </c>
-      <c r="CZ4" s="312"/>
-      <c r="DA4" s="311" t="str" cm="1">
+      <c r="CZ4" s="330"/>
+      <c r="DA4" s="329" t="str" cm="1">
         <f t="array" ref="DA4">IF(COUNTA(INDEX(Buildings, DA3))&gt;0,INDEX(Buildings, DA3),"")</f>
         <v/>
       </c>
-      <c r="DB4" s="313"/>
+      <c r="DB4" s="337"/>
     </row>
     <row r="5" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="194" t="s">
         <v>577</v>
       </c>
-      <c r="C5" s="322"/>
-      <c r="D5" s="317"/>
-      <c r="E5" s="308">
+      <c r="C5" s="327"/>
+      <c r="D5" s="328"/>
+      <c r="E5" s="317">
         <v>594</v>
       </c>
-      <c r="F5" s="309"/>
-      <c r="G5" s="308">
+      <c r="F5" s="333"/>
+      <c r="G5" s="317">
         <v>212</v>
       </c>
-      <c r="H5" s="309"/>
-      <c r="I5" s="308"/>
-      <c r="J5" s="309"/>
-      <c r="K5" s="308"/>
-      <c r="L5" s="309"/>
-      <c r="M5" s="308"/>
-      <c r="N5" s="309"/>
-      <c r="O5" s="308"/>
-      <c r="P5" s="309"/>
-      <c r="Q5" s="308"/>
-      <c r="R5" s="309"/>
-      <c r="S5" s="308"/>
-      <c r="T5" s="309"/>
-      <c r="U5" s="308"/>
-      <c r="V5" s="309"/>
-      <c r="W5" s="308"/>
-      <c r="X5" s="309"/>
-      <c r="Y5" s="308"/>
-      <c r="Z5" s="309"/>
-      <c r="AA5" s="308"/>
-      <c r="AB5" s="310"/>
-      <c r="AC5" s="316"/>
-      <c r="AD5" s="317"/>
-      <c r="AE5" s="308"/>
-      <c r="AF5" s="309"/>
-      <c r="AG5" s="308"/>
-      <c r="AH5" s="309"/>
-      <c r="AI5" s="308"/>
-      <c r="AJ5" s="309"/>
-      <c r="AK5" s="308"/>
-      <c r="AL5" s="309"/>
-      <c r="AM5" s="308"/>
-      <c r="AN5" s="309"/>
-      <c r="AO5" s="308"/>
-      <c r="AP5" s="309"/>
-      <c r="AQ5" s="308"/>
-      <c r="AR5" s="309"/>
-      <c r="AS5" s="308"/>
-      <c r="AT5" s="309"/>
-      <c r="AU5" s="308"/>
-      <c r="AV5" s="309"/>
-      <c r="AW5" s="308"/>
-      <c r="AX5" s="309"/>
-      <c r="AY5" s="308"/>
-      <c r="AZ5" s="309"/>
-      <c r="BA5" s="308"/>
-      <c r="BB5" s="310"/>
-      <c r="BC5" s="316"/>
-      <c r="BD5" s="317"/>
-      <c r="BE5" s="308"/>
-      <c r="BF5" s="309"/>
-      <c r="BG5" s="308"/>
-      <c r="BH5" s="309"/>
-      <c r="BI5" s="308"/>
-      <c r="BJ5" s="309"/>
-      <c r="BK5" s="308"/>
-      <c r="BL5" s="309"/>
-      <c r="BM5" s="308"/>
-      <c r="BN5" s="309"/>
-      <c r="BO5" s="308"/>
-      <c r="BP5" s="309"/>
-      <c r="BQ5" s="308"/>
-      <c r="BR5" s="309"/>
-      <c r="BS5" s="308"/>
-      <c r="BT5" s="309"/>
-      <c r="BU5" s="308"/>
-      <c r="BV5" s="309"/>
-      <c r="BW5" s="308"/>
-      <c r="BX5" s="309"/>
-      <c r="BY5" s="308"/>
-      <c r="BZ5" s="309"/>
-      <c r="CA5" s="308"/>
-      <c r="CB5" s="310"/>
-      <c r="CC5" s="316"/>
-      <c r="CD5" s="317"/>
-      <c r="CE5" s="308"/>
-      <c r="CF5" s="309"/>
-      <c r="CG5" s="308"/>
-      <c r="CH5" s="309"/>
-      <c r="CI5" s="308"/>
-      <c r="CJ5" s="309"/>
-      <c r="CK5" s="308"/>
-      <c r="CL5" s="309"/>
-      <c r="CM5" s="308"/>
-      <c r="CN5" s="309"/>
-      <c r="CO5" s="308"/>
-      <c r="CP5" s="309"/>
-      <c r="CQ5" s="308"/>
-      <c r="CR5" s="309"/>
-      <c r="CS5" s="308"/>
-      <c r="CT5" s="309"/>
-      <c r="CU5" s="308"/>
-      <c r="CV5" s="309"/>
-      <c r="CW5" s="308"/>
-      <c r="CX5" s="309"/>
-      <c r="CY5" s="308"/>
-      <c r="CZ5" s="309"/>
-      <c r="DA5" s="308"/>
-      <c r="DB5" s="310"/>
+      <c r="H5" s="333"/>
+      <c r="I5" s="317"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="333"/>
+      <c r="M5" s="317"/>
+      <c r="N5" s="333"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="333"/>
+      <c r="Q5" s="317"/>
+      <c r="R5" s="333"/>
+      <c r="S5" s="317"/>
+      <c r="T5" s="333"/>
+      <c r="U5" s="317"/>
+      <c r="V5" s="333"/>
+      <c r="W5" s="317"/>
+      <c r="X5" s="333"/>
+      <c r="Y5" s="317"/>
+      <c r="Z5" s="333"/>
+      <c r="AA5" s="317"/>
+      <c r="AB5" s="318"/>
+      <c r="AC5" s="336"/>
+      <c r="AD5" s="328"/>
+      <c r="AE5" s="317"/>
+      <c r="AF5" s="333"/>
+      <c r="AG5" s="317"/>
+      <c r="AH5" s="333"/>
+      <c r="AI5" s="317"/>
+      <c r="AJ5" s="333"/>
+      <c r="AK5" s="317"/>
+      <c r="AL5" s="333"/>
+      <c r="AM5" s="317"/>
+      <c r="AN5" s="333"/>
+      <c r="AO5" s="317"/>
+      <c r="AP5" s="333"/>
+      <c r="AQ5" s="317"/>
+      <c r="AR5" s="333"/>
+      <c r="AS5" s="317"/>
+      <c r="AT5" s="333"/>
+      <c r="AU5" s="317"/>
+      <c r="AV5" s="333"/>
+      <c r="AW5" s="317"/>
+      <c r="AX5" s="333"/>
+      <c r="AY5" s="317"/>
+      <c r="AZ5" s="333"/>
+      <c r="BA5" s="317"/>
+      <c r="BB5" s="318"/>
+      <c r="BC5" s="336"/>
+      <c r="BD5" s="328"/>
+      <c r="BE5" s="317"/>
+      <c r="BF5" s="333"/>
+      <c r="BG5" s="317"/>
+      <c r="BH5" s="333"/>
+      <c r="BI5" s="317"/>
+      <c r="BJ5" s="333"/>
+      <c r="BK5" s="317"/>
+      <c r="BL5" s="333"/>
+      <c r="BM5" s="317"/>
+      <c r="BN5" s="333"/>
+      <c r="BO5" s="317"/>
+      <c r="BP5" s="333"/>
+      <c r="BQ5" s="317"/>
+      <c r="BR5" s="333"/>
+      <c r="BS5" s="317"/>
+      <c r="BT5" s="333"/>
+      <c r="BU5" s="317"/>
+      <c r="BV5" s="333"/>
+      <c r="BW5" s="317"/>
+      <c r="BX5" s="333"/>
+      <c r="BY5" s="317"/>
+      <c r="BZ5" s="333"/>
+      <c r="CA5" s="317"/>
+      <c r="CB5" s="318"/>
+      <c r="CC5" s="336"/>
+      <c r="CD5" s="328"/>
+      <c r="CE5" s="317"/>
+      <c r="CF5" s="333"/>
+      <c r="CG5" s="317"/>
+      <c r="CH5" s="333"/>
+      <c r="CI5" s="317"/>
+      <c r="CJ5" s="333"/>
+      <c r="CK5" s="317"/>
+      <c r="CL5" s="333"/>
+      <c r="CM5" s="317"/>
+      <c r="CN5" s="333"/>
+      <c r="CO5" s="317"/>
+      <c r="CP5" s="333"/>
+      <c r="CQ5" s="317"/>
+      <c r="CR5" s="333"/>
+      <c r="CS5" s="317"/>
+      <c r="CT5" s="333"/>
+      <c r="CU5" s="317"/>
+      <c r="CV5" s="333"/>
+      <c r="CW5" s="317"/>
+      <c r="CX5" s="333"/>
+      <c r="CY5" s="317"/>
+      <c r="CZ5" s="333"/>
+      <c r="DA5" s="317"/>
+      <c r="DB5" s="318"/>
     </row>
     <row r="6" spans="1:106" s="122" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="117"/>
@@ -48136,6 +48156,138 @@
     </row>
   </sheetData>
   <mergeCells count="156">
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CW5:CX5"/>
+    <mergeCell ref="CY5:CZ5"/>
+    <mergeCell ref="DA5:DB5"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CK5:CL5"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CQ5:CR5"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="CU4:CV4"/>
+    <mergeCell ref="CW4:CX4"/>
+    <mergeCell ref="CY4:CZ4"/>
+    <mergeCell ref="DA4:DB4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="CI4:CJ4"/>
+    <mergeCell ref="CK4:CL4"/>
+    <mergeCell ref="CM4:CN4"/>
+    <mergeCell ref="CO4:CP4"/>
+    <mergeCell ref="CQ4:CR4"/>
+    <mergeCell ref="CS4:CT4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CC4:CD5"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CG4:CH4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD5"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD5"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CS3:CT3"/>
+    <mergeCell ref="CU3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DA3:DB3"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CK3:CL3"/>
+    <mergeCell ref="CM3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="C1:AB1"/>
     <mergeCell ref="AC1:BB1"/>
     <mergeCell ref="BC1:CB1"/>
@@ -48160,138 +48312,6 @@
     <mergeCell ref="AS3:AT3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BW3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CS3:CT3"/>
-    <mergeCell ref="CU3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DA3:DB3"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CK3:CL3"/>
-    <mergeCell ref="CM3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD5"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD5"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="CU4:CV4"/>
-    <mergeCell ref="CW4:CX4"/>
-    <mergeCell ref="CY4:CZ4"/>
-    <mergeCell ref="DA4:DB4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="CI4:CJ4"/>
-    <mergeCell ref="CK4:CL4"/>
-    <mergeCell ref="CM4:CN4"/>
-    <mergeCell ref="CO4:CP4"/>
-    <mergeCell ref="CQ4:CR4"/>
-    <mergeCell ref="CS4:CT4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CC4:CD5"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CG4:CH4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CW5:CX5"/>
-    <mergeCell ref="CY5:CZ5"/>
-    <mergeCell ref="DA5:DB5"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CK5:CL5"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CQ5:CR5"/>
-    <mergeCell ref="CS5:CT5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -48343,13 +48363,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="334" t="s">
+      <c r="A3" s="338" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="335"/>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="336"/>
+      <c r="B3" s="339"/>
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="340"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
@@ -48428,13 +48448,13 @@
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="334" t="s">
+      <c r="A10" s="338" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="335"/>
-      <c r="C10" s="335"/>
-      <c r="D10" s="335"/>
-      <c r="E10" s="336"/>
+      <c r="B10" s="339"/>
+      <c r="C10" s="339"/>
+      <c r="D10" s="339"/>
+      <c r="E10" s="340"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="62"/>
@@ -48513,13 +48533,13 @@
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="334" t="s">
+      <c r="A17" s="338" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="335"/>
-      <c r="C17" s="335"/>
-      <c r="D17" s="335"/>
-      <c r="E17" s="336"/>
+      <c r="B17" s="339"/>
+      <c r="C17" s="339"/>
+      <c r="D17" s="339"/>
+      <c r="E17" s="340"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="62"/>
@@ -48596,13 +48616,13 @@
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="334" t="s">
+      <c r="A24" s="338" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="335"/>
-      <c r="C24" s="335"/>
-      <c r="D24" s="335"/>
-      <c r="E24" s="336"/>
+      <c r="B24" s="339"/>
+      <c r="C24" s="339"/>
+      <c r="D24" s="339"/>
+      <c r="E24" s="340"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="62"/>
@@ -48671,13 +48691,13 @@
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="334" t="s">
+      <c r="A31" s="338" t="s">
         <v>239</v>
       </c>
-      <c r="B31" s="335"/>
-      <c r="C31" s="335"/>
-      <c r="D31" s="335"/>
-      <c r="E31" s="336"/>
+      <c r="B31" s="339"/>
+      <c r="C31" s="339"/>
+      <c r="D31" s="339"/>
+      <c r="E31" s="340"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="62"/>
@@ -48746,13 +48766,13 @@
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="334" t="s">
+      <c r="A38" s="338" t="s">
         <v>240</v>
       </c>
-      <c r="B38" s="335"/>
-      <c r="C38" s="335"/>
-      <c r="D38" s="335"/>
-      <c r="E38" s="336"/>
+      <c r="B38" s="339"/>
+      <c r="C38" s="339"/>
+      <c r="D38" s="339"/>
+      <c r="E38" s="340"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="62"/>
@@ -48821,13 +48841,13 @@
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="334" t="s">
+      <c r="A45" s="338" t="s">
         <v>243</v>
       </c>
-      <c r="B45" s="335"/>
-      <c r="C45" s="335"/>
-      <c r="D45" s="335"/>
-      <c r="E45" s="336"/>
+      <c r="B45" s="339"/>
+      <c r="C45" s="339"/>
+      <c r="D45" s="339"/>
+      <c r="E45" s="340"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="62"/>
@@ -48896,13 +48916,13 @@
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="334" t="s">
+      <c r="A52" s="338" t="s">
         <v>244</v>
       </c>
-      <c r="B52" s="335"/>
-      <c r="C52" s="335"/>
-      <c r="D52" s="335"/>
-      <c r="E52" s="336"/>
+      <c r="B52" s="339"/>
+      <c r="C52" s="339"/>
+      <c r="D52" s="339"/>
+      <c r="E52" s="340"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="62"/>
@@ -48971,13 +48991,13 @@
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="59" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="334" t="s">
+      <c r="A59" s="338" t="s">
         <v>245</v>
       </c>
-      <c r="B59" s="335"/>
-      <c r="C59" s="335"/>
-      <c r="D59" s="335"/>
-      <c r="E59" s="336"/>
+      <c r="B59" s="339"/>
+      <c r="C59" s="339"/>
+      <c r="D59" s="339"/>
+      <c r="E59" s="340"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="62"/>
@@ -49046,13 +49066,13 @@
     </row>
     <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="334" t="s">
+      <c r="A66" s="338" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="335"/>
-      <c r="C66" s="335"/>
-      <c r="D66" s="335"/>
-      <c r="E66" s="336"/>
+      <c r="B66" s="339"/>
+      <c r="C66" s="339"/>
+      <c r="D66" s="339"/>
+      <c r="E66" s="340"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="62"/>
@@ -49121,13 +49141,13 @@
     </row>
     <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="334" t="s">
+      <c r="A73" s="338" t="s">
         <v>247</v>
       </c>
-      <c r="B73" s="335"/>
-      <c r="C73" s="335"/>
-      <c r="D73" s="335"/>
-      <c r="E73" s="336"/>
+      <c r="B73" s="339"/>
+      <c r="C73" s="339"/>
+      <c r="D73" s="339"/>
+      <c r="E73" s="340"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="62"/>
@@ -49196,13 +49216,13 @@
     </row>
     <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="80" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="334" t="s">
+      <c r="A80" s="338" t="s">
         <v>248</v>
       </c>
-      <c r="B80" s="335"/>
-      <c r="C80" s="335"/>
-      <c r="D80" s="335"/>
-      <c r="E80" s="336"/>
+      <c r="B80" s="339"/>
+      <c r="C80" s="339"/>
+      <c r="D80" s="339"/>
+      <c r="E80" s="340"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="62"/>
@@ -49271,13 +49291,13 @@
     </row>
     <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="87" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="334" t="s">
+      <c r="A87" s="338" t="s">
         <v>249</v>
       </c>
-      <c r="B87" s="335"/>
-      <c r="C87" s="335"/>
-      <c r="D87" s="335"/>
-      <c r="E87" s="336"/>
+      <c r="B87" s="339"/>
+      <c r="C87" s="339"/>
+      <c r="D87" s="339"/>
+      <c r="E87" s="340"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="62"/>
@@ -49346,13 +49366,13 @@
     </row>
     <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="94" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="334" t="s">
+      <c r="A94" s="338" t="s">
         <v>250</v>
       </c>
-      <c r="B94" s="335"/>
-      <c r="C94" s="335"/>
-      <c r="D94" s="335"/>
-      <c r="E94" s="336"/>
+      <c r="B94" s="339"/>
+      <c r="C94" s="339"/>
+      <c r="D94" s="339"/>
+      <c r="E94" s="340"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="62"/>
@@ -49421,13 +49441,13 @@
     </row>
     <row r="100" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="101" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="334" t="s">
+      <c r="A101" s="338" t="s">
         <v>251</v>
       </c>
-      <c r="B101" s="335"/>
-      <c r="C101" s="335"/>
-      <c r="D101" s="335"/>
-      <c r="E101" s="336"/>
+      <c r="B101" s="339"/>
+      <c r="C101" s="339"/>
+      <c r="D101" s="339"/>
+      <c r="E101" s="340"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="62"/>
@@ -49496,13 +49516,13 @@
     </row>
     <row r="107" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="108" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="334" t="s">
+      <c r="A108" s="338" t="s">
         <v>252</v>
       </c>
-      <c r="B108" s="335"/>
-      <c r="C108" s="335"/>
-      <c r="D108" s="335"/>
-      <c r="E108" s="336"/>
+      <c r="B108" s="339"/>
+      <c r="C108" s="339"/>
+      <c r="D108" s="339"/>
+      <c r="E108" s="340"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="62"/>
@@ -49571,13 +49591,13 @@
     </row>
     <row r="114" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="115" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="334" t="s">
+      <c r="A115" s="338" t="s">
         <v>253</v>
       </c>
-      <c r="B115" s="335"/>
-      <c r="C115" s="335"/>
-      <c r="D115" s="335"/>
-      <c r="E115" s="336"/>
+      <c r="B115" s="339"/>
+      <c r="C115" s="339"/>
+      <c r="D115" s="339"/>
+      <c r="E115" s="340"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="62"/>
@@ -49646,13 +49666,13 @@
     </row>
     <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="122" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="334" t="s">
+      <c r="A122" s="338" t="s">
         <v>254</v>
       </c>
-      <c r="B122" s="335"/>
-      <c r="C122" s="335"/>
-      <c r="D122" s="335"/>
-      <c r="E122" s="336"/>
+      <c r="B122" s="339"/>
+      <c r="C122" s="339"/>
+      <c r="D122" s="339"/>
+      <c r="E122" s="340"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="62"/>
@@ -49721,13 +49741,13 @@
     </row>
     <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="334" t="s">
+      <c r="A129" s="338" t="s">
         <v>255</v>
       </c>
-      <c r="B129" s="335"/>
-      <c r="C129" s="335"/>
-      <c r="D129" s="335"/>
-      <c r="E129" s="336"/>
+      <c r="B129" s="339"/>
+      <c r="C129" s="339"/>
+      <c r="D129" s="339"/>
+      <c r="E129" s="340"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="62"/>
@@ -49796,13 +49816,13 @@
     </row>
     <row r="135" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="136" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="334" t="s">
+      <c r="A136" s="338" t="s">
         <v>256</v>
       </c>
-      <c r="B136" s="335"/>
-      <c r="C136" s="335"/>
-      <c r="D136" s="335"/>
-      <c r="E136" s="336"/>
+      <c r="B136" s="339"/>
+      <c r="C136" s="339"/>
+      <c r="D136" s="339"/>
+      <c r="E136" s="340"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="62"/>
@@ -49871,13 +49891,13 @@
     </row>
     <row r="142" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="143" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="334" t="s">
+      <c r="A143" s="338" t="s">
         <v>257</v>
       </c>
-      <c r="B143" s="335"/>
-      <c r="C143" s="335"/>
-      <c r="D143" s="335"/>
-      <c r="E143" s="336"/>
+      <c r="B143" s="339"/>
+      <c r="C143" s="339"/>
+      <c r="D143" s="339"/>
+      <c r="E143" s="340"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="62"/>
@@ -49946,13 +49966,13 @@
     </row>
     <row r="149" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="150" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="334" t="s">
+      <c r="A150" s="338" t="s">
         <v>258</v>
       </c>
-      <c r="B150" s="335"/>
-      <c r="C150" s="335"/>
-      <c r="D150" s="335"/>
-      <c r="E150" s="336"/>
+      <c r="B150" s="339"/>
+      <c r="C150" s="339"/>
+      <c r="D150" s="339"/>
+      <c r="E150" s="340"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="62"/>
@@ -50021,13 +50041,13 @@
     </row>
     <row r="156" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="157" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="334" t="s">
+      <c r="A157" s="338" t="s">
         <v>259</v>
       </c>
-      <c r="B157" s="335"/>
-      <c r="C157" s="335"/>
-      <c r="D157" s="335"/>
-      <c r="E157" s="336"/>
+      <c r="B157" s="339"/>
+      <c r="C157" s="339"/>
+      <c r="D157" s="339"/>
+      <c r="E157" s="340"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="62"/>
@@ -50096,13 +50116,13 @@
     </row>
     <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="164" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="334" t="s">
+      <c r="A164" s="338" t="s">
         <v>260</v>
       </c>
-      <c r="B164" s="335"/>
-      <c r="C164" s="335"/>
-      <c r="D164" s="335"/>
-      <c r="E164" s="336"/>
+      <c r="B164" s="339"/>
+      <c r="C164" s="339"/>
+      <c r="D164" s="339"/>
+      <c r="E164" s="340"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="62"/>
@@ -50171,13 +50191,13 @@
     </row>
     <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="171" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="334" t="s">
+      <c r="A171" s="338" t="s">
         <v>261</v>
       </c>
-      <c r="B171" s="335"/>
-      <c r="C171" s="335"/>
-      <c r="D171" s="335"/>
-      <c r="E171" s="336"/>
+      <c r="B171" s="339"/>
+      <c r="C171" s="339"/>
+      <c r="D171" s="339"/>
+      <c r="E171" s="340"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="62"/>
@@ -50246,13 +50266,13 @@
     </row>
     <row r="177" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="178" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="334" t="s">
+      <c r="A178" s="338" t="s">
         <v>262</v>
       </c>
-      <c r="B178" s="335"/>
-      <c r="C178" s="335"/>
-      <c r="D178" s="335"/>
-      <c r="E178" s="336"/>
+      <c r="B178" s="339"/>
+      <c r="C178" s="339"/>
+      <c r="D178" s="339"/>
+      <c r="E178" s="340"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="62"/>
@@ -50321,13 +50341,13 @@
     </row>
     <row r="184" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="185" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="334" t="s">
+      <c r="A185" s="338" t="s">
         <v>263</v>
       </c>
-      <c r="B185" s="335"/>
-      <c r="C185" s="335"/>
-      <c r="D185" s="335"/>
-      <c r="E185" s="336"/>
+      <c r="B185" s="339"/>
+      <c r="C185" s="339"/>
+      <c r="D185" s="339"/>
+      <c r="E185" s="340"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="62"/>
@@ -50396,13 +50416,13 @@
     </row>
     <row r="191" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="192" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="334" t="s">
+      <c r="A192" s="338" t="s">
         <v>264</v>
       </c>
-      <c r="B192" s="335"/>
-      <c r="C192" s="335"/>
-      <c r="D192" s="335"/>
-      <c r="E192" s="336"/>
+      <c r="B192" s="339"/>
+      <c r="C192" s="339"/>
+      <c r="D192" s="339"/>
+      <c r="E192" s="340"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="62"/>
@@ -50471,13 +50491,13 @@
     </row>
     <row r="198" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="199" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="334" t="s">
+      <c r="A199" s="338" t="s">
         <v>265</v>
       </c>
-      <c r="B199" s="335"/>
-      <c r="C199" s="335"/>
-      <c r="D199" s="335"/>
-      <c r="E199" s="336"/>
+      <c r="B199" s="339"/>
+      <c r="C199" s="339"/>
+      <c r="D199" s="339"/>
+      <c r="E199" s="340"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="62"/>
@@ -50546,13 +50566,13 @@
     </row>
     <row r="205" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="206" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="334" t="s">
+      <c r="A206" s="338" t="s">
         <v>266</v>
       </c>
-      <c r="B206" s="335"/>
-      <c r="C206" s="335"/>
-      <c r="D206" s="335"/>
-      <c r="E206" s="336"/>
+      <c r="B206" s="339"/>
+      <c r="C206" s="339"/>
+      <c r="D206" s="339"/>
+      <c r="E206" s="340"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="62"/>
@@ -50621,13 +50641,13 @@
     </row>
     <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="213" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="334" t="s">
+      <c r="A213" s="338" t="s">
         <v>267</v>
       </c>
-      <c r="B213" s="335"/>
-      <c r="C213" s="335"/>
-      <c r="D213" s="335"/>
-      <c r="E213" s="336"/>
+      <c r="B213" s="339"/>
+      <c r="C213" s="339"/>
+      <c r="D213" s="339"/>
+      <c r="E213" s="340"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="62"/>
@@ -50696,13 +50716,13 @@
     </row>
     <row r="219" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="220" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="334" t="s">
+      <c r="A220" s="338" t="s">
         <v>268</v>
       </c>
-      <c r="B220" s="335"/>
-      <c r="C220" s="335"/>
-      <c r="D220" s="335"/>
-      <c r="E220" s="336"/>
+      <c r="B220" s="339"/>
+      <c r="C220" s="339"/>
+      <c r="D220" s="339"/>
+      <c r="E220" s="340"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="62"/>
@@ -50771,13 +50791,13 @@
     </row>
     <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="227" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="334" t="s">
+      <c r="A227" s="338" t="s">
         <v>269</v>
       </c>
-      <c r="B227" s="335"/>
-      <c r="C227" s="335"/>
-      <c r="D227" s="335"/>
-      <c r="E227" s="336"/>
+      <c r="B227" s="339"/>
+      <c r="C227" s="339"/>
+      <c r="D227" s="339"/>
+      <c r="E227" s="340"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="62"/>
@@ -50846,13 +50866,13 @@
     </row>
     <row r="233" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="234" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="334" t="s">
+      <c r="A234" s="338" t="s">
         <v>270</v>
       </c>
-      <c r="B234" s="335"/>
-      <c r="C234" s="335"/>
-      <c r="D234" s="335"/>
-      <c r="E234" s="336"/>
+      <c r="B234" s="339"/>
+      <c r="C234" s="339"/>
+      <c r="D234" s="339"/>
+      <c r="E234" s="340"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="62"/>
@@ -50921,13 +50941,13 @@
     </row>
     <row r="240" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="241" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="334" t="s">
+      <c r="A241" s="338" t="s">
         <v>271</v>
       </c>
-      <c r="B241" s="335"/>
-      <c r="C241" s="335"/>
-      <c r="D241" s="335"/>
-      <c r="E241" s="336"/>
+      <c r="B241" s="339"/>
+      <c r="C241" s="339"/>
+      <c r="D241" s="339"/>
+      <c r="E241" s="340"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="62"/>
@@ -50996,13 +51016,13 @@
     </row>
     <row r="247" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="248" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="334" t="s">
+      <c r="A248" s="338" t="s">
         <v>272</v>
       </c>
-      <c r="B248" s="335"/>
-      <c r="C248" s="335"/>
-      <c r="D248" s="335"/>
-      <c r="E248" s="336"/>
+      <c r="B248" s="339"/>
+      <c r="C248" s="339"/>
+      <c r="D248" s="339"/>
+      <c r="E248" s="340"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="62"/>
@@ -51071,13 +51091,13 @@
     </row>
     <row r="254" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="255" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="334" t="s">
+      <c r="A255" s="338" t="s">
         <v>273</v>
       </c>
-      <c r="B255" s="335"/>
-      <c r="C255" s="335"/>
-      <c r="D255" s="335"/>
-      <c r="E255" s="336"/>
+      <c r="B255" s="339"/>
+      <c r="C255" s="339"/>
+      <c r="D255" s="339"/>
+      <c r="E255" s="340"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="62"/>
@@ -51146,13 +51166,13 @@
     </row>
     <row r="261" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="262" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="334" t="s">
+      <c r="A262" s="338" t="s">
         <v>274</v>
       </c>
-      <c r="B262" s="335"/>
-      <c r="C262" s="335"/>
-      <c r="D262" s="335"/>
-      <c r="E262" s="336"/>
+      <c r="B262" s="339"/>
+      <c r="C262" s="339"/>
+      <c r="D262" s="339"/>
+      <c r="E262" s="340"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="62"/>
@@ -51221,13 +51241,13 @@
     </row>
     <row r="268" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="269" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="334" t="s">
+      <c r="A269" s="338" t="s">
         <v>275</v>
       </c>
-      <c r="B269" s="335"/>
-      <c r="C269" s="335"/>
-      <c r="D269" s="335"/>
-      <c r="E269" s="336"/>
+      <c r="B269" s="339"/>
+      <c r="C269" s="339"/>
+      <c r="D269" s="339"/>
+      <c r="E269" s="340"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="62"/>
@@ -51296,13 +51316,13 @@
     </row>
     <row r="275" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="276" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="334" t="s">
+      <c r="A276" s="338" t="s">
         <v>276</v>
       </c>
-      <c r="B276" s="335"/>
-      <c r="C276" s="335"/>
-      <c r="D276" s="335"/>
-      <c r="E276" s="336"/>
+      <c r="B276" s="339"/>
+      <c r="C276" s="339"/>
+      <c r="D276" s="339"/>
+      <c r="E276" s="340"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="62"/>
@@ -51371,13 +51391,13 @@
     </row>
     <row r="282" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="283" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="334" t="s">
+      <c r="A283" s="338" t="s">
         <v>277</v>
       </c>
-      <c r="B283" s="335"/>
-      <c r="C283" s="335"/>
-      <c r="D283" s="335"/>
-      <c r="E283" s="336"/>
+      <c r="B283" s="339"/>
+      <c r="C283" s="339"/>
+      <c r="D283" s="339"/>
+      <c r="E283" s="340"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="62"/>
@@ -51446,13 +51466,13 @@
     </row>
     <row r="289" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="290" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="334" t="s">
+      <c r="A290" s="338" t="s">
         <v>278</v>
       </c>
-      <c r="B290" s="335"/>
-      <c r="C290" s="335"/>
-      <c r="D290" s="335"/>
-      <c r="E290" s="336"/>
+      <c r="B290" s="339"/>
+      <c r="C290" s="339"/>
+      <c r="D290" s="339"/>
+      <c r="E290" s="340"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="62"/>
@@ -51521,13 +51541,13 @@
     </row>
     <row r="296" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="297" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="334" t="s">
+      <c r="A297" s="338" t="s">
         <v>279</v>
       </c>
-      <c r="B297" s="335"/>
-      <c r="C297" s="335"/>
-      <c r="D297" s="335"/>
-      <c r="E297" s="336"/>
+      <c r="B297" s="339"/>
+      <c r="C297" s="339"/>
+      <c r="D297" s="339"/>
+      <c r="E297" s="340"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="62"/>
@@ -51596,13 +51616,13 @@
     </row>
     <row r="303" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="304" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="334" t="s">
+      <c r="A304" s="338" t="s">
         <v>280</v>
       </c>
-      <c r="B304" s="335"/>
-      <c r="C304" s="335"/>
-      <c r="D304" s="335"/>
-      <c r="E304" s="336"/>
+      <c r="B304" s="339"/>
+      <c r="C304" s="339"/>
+      <c r="D304" s="339"/>
+      <c r="E304" s="340"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="62"/>
@@ -51671,13 +51691,13 @@
     </row>
     <row r="310" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="311" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="334" t="s">
+      <c r="A311" s="338" t="s">
         <v>281</v>
       </c>
-      <c r="B311" s="335"/>
-      <c r="C311" s="335"/>
-      <c r="D311" s="335"/>
-      <c r="E311" s="336"/>
+      <c r="B311" s="339"/>
+      <c r="C311" s="339"/>
+      <c r="D311" s="339"/>
+      <c r="E311" s="340"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="62"/>
@@ -51746,13 +51766,13 @@
     </row>
     <row r="317" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="318" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="334" t="s">
+      <c r="A318" s="338" t="s">
         <v>282</v>
       </c>
-      <c r="B318" s="335"/>
-      <c r="C318" s="335"/>
-      <c r="D318" s="335"/>
-      <c r="E318" s="336"/>
+      <c r="B318" s="339"/>
+      <c r="C318" s="339"/>
+      <c r="D318" s="339"/>
+      <c r="E318" s="340"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="62"/>
@@ -51821,13 +51841,13 @@
     </row>
     <row r="324" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="325" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="334" t="s">
+      <c r="A325" s="338" t="s">
         <v>283</v>
       </c>
-      <c r="B325" s="335"/>
-      <c r="C325" s="335"/>
-      <c r="D325" s="335"/>
-      <c r="E325" s="336"/>
+      <c r="B325" s="339"/>
+      <c r="C325" s="339"/>
+      <c r="D325" s="339"/>
+      <c r="E325" s="340"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="62"/>
@@ -51896,13 +51916,13 @@
     </row>
     <row r="331" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="332" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A332" s="334" t="s">
+      <c r="A332" s="338" t="s">
         <v>284</v>
       </c>
-      <c r="B332" s="335"/>
-      <c r="C332" s="335"/>
-      <c r="D332" s="335"/>
-      <c r="E332" s="336"/>
+      <c r="B332" s="339"/>
+      <c r="C332" s="339"/>
+      <c r="D332" s="339"/>
+      <c r="E332" s="340"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="62"/>
@@ -51971,13 +51991,13 @@
     </row>
     <row r="338" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="339" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="334" t="s">
+      <c r="A339" s="338" t="s">
         <v>285</v>
       </c>
-      <c r="B339" s="335"/>
-      <c r="C339" s="335"/>
-      <c r="D339" s="335"/>
-      <c r="E339" s="336"/>
+      <c r="B339" s="339"/>
+      <c r="C339" s="339"/>
+      <c r="D339" s="339"/>
+      <c r="E339" s="340"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="62"/>
@@ -52046,13 +52066,13 @@
     </row>
     <row r="345" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="346" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="334" t="s">
+      <c r="A346" s="338" t="s">
         <v>286</v>
       </c>
-      <c r="B346" s="335"/>
-      <c r="C346" s="335"/>
-      <c r="D346" s="335"/>
-      <c r="E346" s="336"/>
+      <c r="B346" s="339"/>
+      <c r="C346" s="339"/>
+      <c r="D346" s="339"/>
+      <c r="E346" s="340"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="62"/>
@@ -52121,13 +52141,13 @@
     </row>
     <row r="352" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="353" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="334" t="s">
+      <c r="A353" s="338" t="s">
         <v>287</v>
       </c>
-      <c r="B353" s="335"/>
-      <c r="C353" s="335"/>
-      <c r="D353" s="335"/>
-      <c r="E353" s="336"/>
+      <c r="B353" s="339"/>
+      <c r="C353" s="339"/>
+      <c r="D353" s="339"/>
+      <c r="E353" s="340"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="62"/>
@@ -52196,13 +52216,13 @@
     </row>
     <row r="359" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="360" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="334" t="s">
+      <c r="A360" s="338" t="s">
         <v>288</v>
       </c>
-      <c r="B360" s="335"/>
-      <c r="C360" s="335"/>
-      <c r="D360" s="335"/>
-      <c r="E360" s="336"/>
+      <c r="B360" s="339"/>
+      <c r="C360" s="339"/>
+      <c r="D360" s="339"/>
+      <c r="E360" s="340"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="62"/>
@@ -52271,13 +52291,13 @@
     </row>
     <row r="366" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="367" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A367" s="334" t="s">
+      <c r="A367" s="338" t="s">
         <v>289</v>
       </c>
-      <c r="B367" s="335"/>
-      <c r="C367" s="335"/>
-      <c r="D367" s="335"/>
-      <c r="E367" s="336"/>
+      <c r="B367" s="339"/>
+      <c r="C367" s="339"/>
+      <c r="D367" s="339"/>
+      <c r="E367" s="340"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="62"/>
@@ -52346,13 +52366,13 @@
     </row>
     <row r="373" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="374" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A374" s="334" t="s">
+      <c r="A374" s="338" t="s">
         <v>290</v>
       </c>
-      <c r="B374" s="335"/>
-      <c r="C374" s="335"/>
-      <c r="D374" s="335"/>
-      <c r="E374" s="336"/>
+      <c r="B374" s="339"/>
+      <c r="C374" s="339"/>
+      <c r="D374" s="339"/>
+      <c r="E374" s="340"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="62"/>
@@ -52421,13 +52441,13 @@
     </row>
     <row r="380" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="381" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="334" t="s">
+      <c r="A381" s="338" t="s">
         <v>291</v>
       </c>
-      <c r="B381" s="335"/>
-      <c r="C381" s="335"/>
-      <c r="D381" s="335"/>
-      <c r="E381" s="336"/>
+      <c r="B381" s="339"/>
+      <c r="C381" s="339"/>
+      <c r="D381" s="339"/>
+      <c r="E381" s="340"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="62"/>
@@ -52496,13 +52516,13 @@
     </row>
     <row r="387" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="388" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A388" s="334" t="s">
+      <c r="A388" s="338" t="s">
         <v>292</v>
       </c>
-      <c r="B388" s="335"/>
-      <c r="C388" s="335"/>
-      <c r="D388" s="335"/>
-      <c r="E388" s="336"/>
+      <c r="B388" s="339"/>
+      <c r="C388" s="339"/>
+      <c r="D388" s="339"/>
+      <c r="E388" s="340"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="62"/>
@@ -52571,13 +52591,13 @@
     </row>
     <row r="394" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="395" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A395" s="334" t="s">
+      <c r="A395" s="338" t="s">
         <v>293</v>
       </c>
-      <c r="B395" s="335"/>
-      <c r="C395" s="335"/>
-      <c r="D395" s="335"/>
-      <c r="E395" s="336"/>
+      <c r="B395" s="339"/>
+      <c r="C395" s="339"/>
+      <c r="D395" s="339"/>
+      <c r="E395" s="340"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="62"/>
@@ -52646,13 +52666,13 @@
     </row>
     <row r="401" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="402" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A402" s="334" t="s">
+      <c r="A402" s="338" t="s">
         <v>294</v>
       </c>
-      <c r="B402" s="335"/>
-      <c r="C402" s="335"/>
-      <c r="D402" s="335"/>
-      <c r="E402" s="336"/>
+      <c r="B402" s="339"/>
+      <c r="C402" s="339"/>
+      <c r="D402" s="339"/>
+      <c r="E402" s="340"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="62"/>
@@ -52721,13 +52741,13 @@
     </row>
     <row r="408" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="409" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A409" s="334" t="s">
+      <c r="A409" s="338" t="s">
         <v>295</v>
       </c>
-      <c r="B409" s="335"/>
-      <c r="C409" s="335"/>
-      <c r="D409" s="335"/>
-      <c r="E409" s="336"/>
+      <c r="B409" s="339"/>
+      <c r="C409" s="339"/>
+      <c r="D409" s="339"/>
+      <c r="E409" s="340"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="62"/>
@@ -52796,13 +52816,13 @@
     </row>
     <row r="415" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="416" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A416" s="334" t="s">
+      <c r="A416" s="338" t="s">
         <v>296</v>
       </c>
-      <c r="B416" s="335"/>
-      <c r="C416" s="335"/>
-      <c r="D416" s="335"/>
-      <c r="E416" s="336"/>
+      <c r="B416" s="339"/>
+      <c r="C416" s="339"/>
+      <c r="D416" s="339"/>
+      <c r="E416" s="340"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="62"/>
@@ -52871,13 +52891,13 @@
     </row>
     <row r="422" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="423" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A423" s="334" t="s">
+      <c r="A423" s="338" t="s">
         <v>297</v>
       </c>
-      <c r="B423" s="335"/>
-      <c r="C423" s="335"/>
-      <c r="D423" s="335"/>
-      <c r="E423" s="336"/>
+      <c r="B423" s="339"/>
+      <c r="C423" s="339"/>
+      <c r="D423" s="339"/>
+      <c r="E423" s="340"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="62"/>
@@ -52946,13 +52966,13 @@
     </row>
     <row r="429" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="430" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A430" s="334" t="s">
+      <c r="A430" s="338" t="s">
         <v>298</v>
       </c>
-      <c r="B430" s="335"/>
-      <c r="C430" s="335"/>
-      <c r="D430" s="335"/>
-      <c r="E430" s="336"/>
+      <c r="B430" s="339"/>
+      <c r="C430" s="339"/>
+      <c r="D430" s="339"/>
+      <c r="E430" s="340"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="62"/>
@@ -53021,14 +53041,48 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A423:E423"/>
-    <mergeCell ref="A430:E430"/>
-    <mergeCell ref="A381:E381"/>
-    <mergeCell ref="A388:E388"/>
-    <mergeCell ref="A395:E395"/>
-    <mergeCell ref="A402:E402"/>
-    <mergeCell ref="A409:E409"/>
-    <mergeCell ref="A416:E416"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="A290:E290"/>
+    <mergeCell ref="A213:E213"/>
+    <mergeCell ref="A220:E220"/>
+    <mergeCell ref="A227:E227"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A241:E241"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A262:E262"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A276:E276"/>
+    <mergeCell ref="A283:E283"/>
     <mergeCell ref="A374:E374"/>
     <mergeCell ref="A297:E297"/>
     <mergeCell ref="A304:E304"/>
@@ -53041,48 +53095,14 @@
     <mergeCell ref="A353:E353"/>
     <mergeCell ref="A360:E360"/>
     <mergeCell ref="A367:E367"/>
-    <mergeCell ref="A290:E290"/>
-    <mergeCell ref="A213:E213"/>
-    <mergeCell ref="A220:E220"/>
-    <mergeCell ref="A227:E227"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A241:E241"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A262:E262"/>
-    <mergeCell ref="A269:E269"/>
-    <mergeCell ref="A276:E276"/>
-    <mergeCell ref="A283:E283"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A423:E423"/>
+    <mergeCell ref="A430:E430"/>
+    <mergeCell ref="A381:E381"/>
+    <mergeCell ref="A388:E388"/>
+    <mergeCell ref="A395:E395"/>
+    <mergeCell ref="A402:E402"/>
+    <mergeCell ref="A409:E409"/>
+    <mergeCell ref="A416:E416"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MORPHE2US.xlsx
+++ b/MORPHE2US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Documents\MasterArbeit - Documents\MORPHE2US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5078E8A-8DB8-4B89-9313-2A66B366DAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8347B7AE-4830-489F-BF46-97E643927A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6450" windowWidth="29040" windowHeight="15720" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-6405" windowWidth="29040" windowHeight="15720" tabRatio="713" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="1" r:id="rId1"/>
@@ -4526,8 +4526,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6289,10 +6289,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD119"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -15289,7 +15289,7 @@
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:BD19" xr:uid="{763DEF41-5748-45A0-97FF-6561FA4FA8B6}">
       <formula1>"Integer, Continuous"</formula1>
     </dataValidation>

--- a/MORPHE2US.xlsx
+++ b/MORPHE2US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Documents\MasterArbeit - Documents\MORPHE2US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8347B7AE-4830-489F-BF46-97E643927A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D983330C-9EB8-43A2-8212-4D0362FDA3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-6405" windowWidth="29040" windowHeight="15720" tabRatio="713" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6450" windowWidth="29040" windowHeight="15720" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="1" r:id="rId1"/>
@@ -4034,6 +4034,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4049,67 +4109,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4526,8 +4526,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6289,10 +6289,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -15310,7 +15310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23AEEFE-7536-4879-9020-5EFED3D2FD06}">
   <dimension ref="A1:BK34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -18730,432 +18730,432 @@
       <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="312">
+      <c r="C1" s="332">
         <v>1</v>
       </c>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="313"/>
-      <c r="T1" s="313"/>
-      <c r="U1" s="313"/>
-      <c r="V1" s="313"/>
-      <c r="W1" s="313"/>
-      <c r="X1" s="313"/>
-      <c r="Y1" s="313"/>
-      <c r="Z1" s="313"/>
-      <c r="AA1" s="313"/>
-      <c r="AB1" s="314"/>
-      <c r="AC1" s="315">
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
+      <c r="M1" s="333"/>
+      <c r="N1" s="333"/>
+      <c r="O1" s="333"/>
+      <c r="P1" s="333"/>
+      <c r="Q1" s="333"/>
+      <c r="R1" s="333"/>
+      <c r="S1" s="333"/>
+      <c r="T1" s="333"/>
+      <c r="U1" s="333"/>
+      <c r="V1" s="333"/>
+      <c r="W1" s="333"/>
+      <c r="X1" s="333"/>
+      <c r="Y1" s="333"/>
+      <c r="Z1" s="333"/>
+      <c r="AA1" s="333"/>
+      <c r="AB1" s="334"/>
+      <c r="AC1" s="335">
         <v>2</v>
       </c>
-      <c r="AD1" s="313"/>
-      <c r="AE1" s="313"/>
-      <c r="AF1" s="313"/>
-      <c r="AG1" s="313"/>
-      <c r="AH1" s="313"/>
-      <c r="AI1" s="313"/>
-      <c r="AJ1" s="313"/>
-      <c r="AK1" s="313"/>
-      <c r="AL1" s="313"/>
-      <c r="AM1" s="313"/>
-      <c r="AN1" s="313"/>
-      <c r="AO1" s="313"/>
-      <c r="AP1" s="313"/>
-      <c r="AQ1" s="313"/>
-      <c r="AR1" s="313"/>
-      <c r="AS1" s="313"/>
-      <c r="AT1" s="313"/>
-      <c r="AU1" s="313"/>
-      <c r="AV1" s="313"/>
-      <c r="AW1" s="313"/>
-      <c r="AX1" s="313"/>
-      <c r="AY1" s="313"/>
-      <c r="AZ1" s="313"/>
-      <c r="BA1" s="313"/>
-      <c r="BB1" s="314"/>
-      <c r="BC1" s="315">
+      <c r="AD1" s="333"/>
+      <c r="AE1" s="333"/>
+      <c r="AF1" s="333"/>
+      <c r="AG1" s="333"/>
+      <c r="AH1" s="333"/>
+      <c r="AI1" s="333"/>
+      <c r="AJ1" s="333"/>
+      <c r="AK1" s="333"/>
+      <c r="AL1" s="333"/>
+      <c r="AM1" s="333"/>
+      <c r="AN1" s="333"/>
+      <c r="AO1" s="333"/>
+      <c r="AP1" s="333"/>
+      <c r="AQ1" s="333"/>
+      <c r="AR1" s="333"/>
+      <c r="AS1" s="333"/>
+      <c r="AT1" s="333"/>
+      <c r="AU1" s="333"/>
+      <c r="AV1" s="333"/>
+      <c r="AW1" s="333"/>
+      <c r="AX1" s="333"/>
+      <c r="AY1" s="333"/>
+      <c r="AZ1" s="333"/>
+      <c r="BA1" s="333"/>
+      <c r="BB1" s="334"/>
+      <c r="BC1" s="335">
         <v>3</v>
       </c>
-      <c r="BD1" s="313"/>
-      <c r="BE1" s="313"/>
-      <c r="BF1" s="313"/>
-      <c r="BG1" s="313"/>
-      <c r="BH1" s="313"/>
-      <c r="BI1" s="313"/>
-      <c r="BJ1" s="313"/>
-      <c r="BK1" s="313"/>
-      <c r="BL1" s="313"/>
-      <c r="BM1" s="313"/>
-      <c r="BN1" s="313"/>
-      <c r="BO1" s="313"/>
-      <c r="BP1" s="313"/>
-      <c r="BQ1" s="313"/>
-      <c r="BR1" s="313"/>
-      <c r="BS1" s="313"/>
-      <c r="BT1" s="313"/>
-      <c r="BU1" s="313"/>
-      <c r="BV1" s="313"/>
-      <c r="BW1" s="313"/>
-      <c r="BX1" s="313"/>
-      <c r="BY1" s="313"/>
-      <c r="BZ1" s="313"/>
-      <c r="CA1" s="313"/>
-      <c r="CB1" s="314"/>
-      <c r="CC1" s="315">
+      <c r="BD1" s="333"/>
+      <c r="BE1" s="333"/>
+      <c r="BF1" s="333"/>
+      <c r="BG1" s="333"/>
+      <c r="BH1" s="333"/>
+      <c r="BI1" s="333"/>
+      <c r="BJ1" s="333"/>
+      <c r="BK1" s="333"/>
+      <c r="BL1" s="333"/>
+      <c r="BM1" s="333"/>
+      <c r="BN1" s="333"/>
+      <c r="BO1" s="333"/>
+      <c r="BP1" s="333"/>
+      <c r="BQ1" s="333"/>
+      <c r="BR1" s="333"/>
+      <c r="BS1" s="333"/>
+      <c r="BT1" s="333"/>
+      <c r="BU1" s="333"/>
+      <c r="BV1" s="333"/>
+      <c r="BW1" s="333"/>
+      <c r="BX1" s="333"/>
+      <c r="BY1" s="333"/>
+      <c r="BZ1" s="333"/>
+      <c r="CA1" s="333"/>
+      <c r="CB1" s="334"/>
+      <c r="CC1" s="335">
         <v>4</v>
       </c>
-      <c r="CD1" s="313"/>
-      <c r="CE1" s="313"/>
-      <c r="CF1" s="313"/>
-      <c r="CG1" s="313"/>
-      <c r="CH1" s="313"/>
-      <c r="CI1" s="313"/>
-      <c r="CJ1" s="313"/>
-      <c r="CK1" s="313"/>
-      <c r="CL1" s="313"/>
-      <c r="CM1" s="313"/>
-      <c r="CN1" s="313"/>
-      <c r="CO1" s="313"/>
-      <c r="CP1" s="313"/>
-      <c r="CQ1" s="313"/>
-      <c r="CR1" s="313"/>
-      <c r="CS1" s="313"/>
-      <c r="CT1" s="313"/>
-      <c r="CU1" s="313"/>
-      <c r="CV1" s="313"/>
-      <c r="CW1" s="313"/>
-      <c r="CX1" s="313"/>
-      <c r="CY1" s="313"/>
-      <c r="CZ1" s="313"/>
-      <c r="DA1" s="313"/>
-      <c r="DB1" s="314"/>
+      <c r="CD1" s="333"/>
+      <c r="CE1" s="333"/>
+      <c r="CF1" s="333"/>
+      <c r="CG1" s="333"/>
+      <c r="CH1" s="333"/>
+      <c r="CI1" s="333"/>
+      <c r="CJ1" s="333"/>
+      <c r="CK1" s="333"/>
+      <c r="CL1" s="333"/>
+      <c r="CM1" s="333"/>
+      <c r="CN1" s="333"/>
+      <c r="CO1" s="333"/>
+      <c r="CP1" s="333"/>
+      <c r="CQ1" s="333"/>
+      <c r="CR1" s="333"/>
+      <c r="CS1" s="333"/>
+      <c r="CT1" s="333"/>
+      <c r="CU1" s="333"/>
+      <c r="CV1" s="333"/>
+      <c r="CW1" s="333"/>
+      <c r="CX1" s="333"/>
+      <c r="CY1" s="333"/>
+      <c r="CZ1" s="333"/>
+      <c r="DA1" s="333"/>
+      <c r="DB1" s="334"/>
     </row>
     <row r="2" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="316" t="s">
+      <c r="C2" s="336" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
-      <c r="L2" s="317"/>
-      <c r="M2" s="317"/>
-      <c r="N2" s="317"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="317"/>
-      <c r="Q2" s="317"/>
-      <c r="R2" s="317"/>
-      <c r="S2" s="317"/>
-      <c r="T2" s="317"/>
-      <c r="U2" s="317"/>
-      <c r="V2" s="317"/>
-      <c r="W2" s="317"/>
-      <c r="X2" s="317"/>
-      <c r="Y2" s="317"/>
-      <c r="Z2" s="317"/>
-      <c r="AA2" s="317"/>
-      <c r="AB2" s="318"/>
-      <c r="AC2" s="319"/>
-      <c r="AD2" s="317"/>
-      <c r="AE2" s="317"/>
-      <c r="AF2" s="317"/>
-      <c r="AG2" s="317"/>
-      <c r="AH2" s="317"/>
-      <c r="AI2" s="317"/>
-      <c r="AJ2" s="317"/>
-      <c r="AK2" s="317"/>
-      <c r="AL2" s="317"/>
-      <c r="AM2" s="317"/>
-      <c r="AN2" s="317"/>
-      <c r="AO2" s="317"/>
-      <c r="AP2" s="317"/>
-      <c r="AQ2" s="317"/>
-      <c r="AR2" s="317"/>
-      <c r="AS2" s="317"/>
-      <c r="AT2" s="317"/>
-      <c r="AU2" s="317"/>
-      <c r="AV2" s="317"/>
-      <c r="AW2" s="317"/>
-      <c r="AX2" s="317"/>
-      <c r="AY2" s="317"/>
-      <c r="AZ2" s="317"/>
-      <c r="BA2" s="317"/>
-      <c r="BB2" s="318"/>
-      <c r="BC2" s="319"/>
-      <c r="BD2" s="317"/>
-      <c r="BE2" s="317"/>
-      <c r="BF2" s="317"/>
-      <c r="BG2" s="317"/>
-      <c r="BH2" s="317"/>
-      <c r="BI2" s="317"/>
-      <c r="BJ2" s="317"/>
-      <c r="BK2" s="317"/>
-      <c r="BL2" s="317"/>
-      <c r="BM2" s="317"/>
-      <c r="BN2" s="317"/>
-      <c r="BO2" s="317"/>
-      <c r="BP2" s="317"/>
-      <c r="BQ2" s="317"/>
-      <c r="BR2" s="317"/>
-      <c r="BS2" s="317"/>
-      <c r="BT2" s="317"/>
-      <c r="BU2" s="317"/>
-      <c r="BV2" s="317"/>
-      <c r="BW2" s="317"/>
-      <c r="BX2" s="317"/>
-      <c r="BY2" s="317"/>
-      <c r="BZ2" s="317"/>
-      <c r="CA2" s="317"/>
-      <c r="CB2" s="318"/>
-      <c r="CC2" s="319"/>
-      <c r="CD2" s="317"/>
-      <c r="CE2" s="317"/>
-      <c r="CF2" s="317"/>
-      <c r="CG2" s="317"/>
-      <c r="CH2" s="317"/>
-      <c r="CI2" s="317"/>
-      <c r="CJ2" s="317"/>
-      <c r="CK2" s="317"/>
-      <c r="CL2" s="317"/>
-      <c r="CM2" s="317"/>
-      <c r="CN2" s="317"/>
-      <c r="CO2" s="317"/>
-      <c r="CP2" s="317"/>
-      <c r="CQ2" s="317"/>
-      <c r="CR2" s="317"/>
-      <c r="CS2" s="317"/>
-      <c r="CT2" s="317"/>
-      <c r="CU2" s="317"/>
-      <c r="CV2" s="317"/>
-      <c r="CW2" s="317"/>
-      <c r="CX2" s="317"/>
-      <c r="CY2" s="317"/>
-      <c r="CZ2" s="317"/>
-      <c r="DA2" s="317"/>
-      <c r="DB2" s="318"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="312"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="312"/>
+      <c r="Q2" s="312"/>
+      <c r="R2" s="312"/>
+      <c r="S2" s="312"/>
+      <c r="T2" s="312"/>
+      <c r="U2" s="312"/>
+      <c r="V2" s="312"/>
+      <c r="W2" s="312"/>
+      <c r="X2" s="312"/>
+      <c r="Y2" s="312"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="312"/>
+      <c r="AB2" s="314"/>
+      <c r="AC2" s="337"/>
+      <c r="AD2" s="312"/>
+      <c r="AE2" s="312"/>
+      <c r="AF2" s="312"/>
+      <c r="AG2" s="312"/>
+      <c r="AH2" s="312"/>
+      <c r="AI2" s="312"/>
+      <c r="AJ2" s="312"/>
+      <c r="AK2" s="312"/>
+      <c r="AL2" s="312"/>
+      <c r="AM2" s="312"/>
+      <c r="AN2" s="312"/>
+      <c r="AO2" s="312"/>
+      <c r="AP2" s="312"/>
+      <c r="AQ2" s="312"/>
+      <c r="AR2" s="312"/>
+      <c r="AS2" s="312"/>
+      <c r="AT2" s="312"/>
+      <c r="AU2" s="312"/>
+      <c r="AV2" s="312"/>
+      <c r="AW2" s="312"/>
+      <c r="AX2" s="312"/>
+      <c r="AY2" s="312"/>
+      <c r="AZ2" s="312"/>
+      <c r="BA2" s="312"/>
+      <c r="BB2" s="314"/>
+      <c r="BC2" s="337"/>
+      <c r="BD2" s="312"/>
+      <c r="BE2" s="312"/>
+      <c r="BF2" s="312"/>
+      <c r="BG2" s="312"/>
+      <c r="BH2" s="312"/>
+      <c r="BI2" s="312"/>
+      <c r="BJ2" s="312"/>
+      <c r="BK2" s="312"/>
+      <c r="BL2" s="312"/>
+      <c r="BM2" s="312"/>
+      <c r="BN2" s="312"/>
+      <c r="BO2" s="312"/>
+      <c r="BP2" s="312"/>
+      <c r="BQ2" s="312"/>
+      <c r="BR2" s="312"/>
+      <c r="BS2" s="312"/>
+      <c r="BT2" s="312"/>
+      <c r="BU2" s="312"/>
+      <c r="BV2" s="312"/>
+      <c r="BW2" s="312"/>
+      <c r="BX2" s="312"/>
+      <c r="BY2" s="312"/>
+      <c r="BZ2" s="312"/>
+      <c r="CA2" s="312"/>
+      <c r="CB2" s="314"/>
+      <c r="CC2" s="337"/>
+      <c r="CD2" s="312"/>
+      <c r="CE2" s="312"/>
+      <c r="CF2" s="312"/>
+      <c r="CG2" s="312"/>
+      <c r="CH2" s="312"/>
+      <c r="CI2" s="312"/>
+      <c r="CJ2" s="312"/>
+      <c r="CK2" s="312"/>
+      <c r="CL2" s="312"/>
+      <c r="CM2" s="312"/>
+      <c r="CN2" s="312"/>
+      <c r="CO2" s="312"/>
+      <c r="CP2" s="312"/>
+      <c r="CQ2" s="312"/>
+      <c r="CR2" s="312"/>
+      <c r="CS2" s="312"/>
+      <c r="CT2" s="312"/>
+      <c r="CU2" s="312"/>
+      <c r="CV2" s="312"/>
+      <c r="CW2" s="312"/>
+      <c r="CX2" s="312"/>
+      <c r="CY2" s="312"/>
+      <c r="CZ2" s="312"/>
+      <c r="DA2" s="312"/>
+      <c r="DB2" s="314"/>
     </row>
     <row r="3" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11"/>
       <c r="C3" s="27"/>
       <c r="D3" s="48"/>
-      <c r="E3" s="320">
+      <c r="E3" s="329">
         <v>1</v>
       </c>
-      <c r="F3" s="320"/>
-      <c r="G3" s="320">
+      <c r="F3" s="329"/>
+      <c r="G3" s="329">
         <v>2</v>
       </c>
-      <c r="H3" s="321"/>
-      <c r="I3" s="320">
+      <c r="H3" s="330"/>
+      <c r="I3" s="329">
         <v>3</v>
       </c>
-      <c r="J3" s="321"/>
-      <c r="K3" s="320">
+      <c r="J3" s="330"/>
+      <c r="K3" s="329">
         <v>4</v>
       </c>
-      <c r="L3" s="321"/>
-      <c r="M3" s="320">
+      <c r="L3" s="330"/>
+      <c r="M3" s="329">
         <v>5</v>
       </c>
-      <c r="N3" s="321"/>
-      <c r="O3" s="320">
+      <c r="N3" s="330"/>
+      <c r="O3" s="329">
         <v>6</v>
       </c>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="320">
+      <c r="P3" s="330"/>
+      <c r="Q3" s="329">
         <v>7</v>
       </c>
-      <c r="R3" s="321"/>
-      <c r="S3" s="320">
+      <c r="R3" s="330"/>
+      <c r="S3" s="329">
         <v>8</v>
       </c>
-      <c r="T3" s="321"/>
-      <c r="U3" s="320">
+      <c r="T3" s="330"/>
+      <c r="U3" s="329">
         <v>9</v>
       </c>
-      <c r="V3" s="321"/>
-      <c r="W3" s="320">
+      <c r="V3" s="330"/>
+      <c r="W3" s="329">
         <v>10</v>
       </c>
-      <c r="X3" s="321"/>
-      <c r="Y3" s="320">
+      <c r="X3" s="330"/>
+      <c r="Y3" s="329">
         <v>11</v>
       </c>
-      <c r="Z3" s="321"/>
-      <c r="AA3" s="320">
+      <c r="Z3" s="330"/>
+      <c r="AA3" s="329">
         <v>12</v>
       </c>
-      <c r="AB3" s="322"/>
+      <c r="AB3" s="331"/>
       <c r="AC3" s="111"/>
       <c r="AD3" s="48"/>
-      <c r="AE3" s="320">
+      <c r="AE3" s="329">
         <v>1</v>
       </c>
-      <c r="AF3" s="320"/>
-      <c r="AG3" s="320">
+      <c r="AF3" s="329"/>
+      <c r="AG3" s="329">
         <v>2</v>
       </c>
-      <c r="AH3" s="321"/>
-      <c r="AI3" s="320">
+      <c r="AH3" s="330"/>
+      <c r="AI3" s="329">
         <v>3</v>
       </c>
-      <c r="AJ3" s="321"/>
-      <c r="AK3" s="320">
+      <c r="AJ3" s="330"/>
+      <c r="AK3" s="329">
         <v>4</v>
       </c>
-      <c r="AL3" s="321"/>
-      <c r="AM3" s="320">
+      <c r="AL3" s="330"/>
+      <c r="AM3" s="329">
         <v>5</v>
       </c>
-      <c r="AN3" s="321"/>
-      <c r="AO3" s="320">
+      <c r="AN3" s="330"/>
+      <c r="AO3" s="329">
         <v>6</v>
       </c>
-      <c r="AP3" s="321"/>
-      <c r="AQ3" s="320">
+      <c r="AP3" s="330"/>
+      <c r="AQ3" s="329">
         <v>7</v>
       </c>
-      <c r="AR3" s="321"/>
-      <c r="AS3" s="320">
+      <c r="AR3" s="330"/>
+      <c r="AS3" s="329">
         <v>8</v>
       </c>
-      <c r="AT3" s="321"/>
-      <c r="AU3" s="320">
+      <c r="AT3" s="330"/>
+      <c r="AU3" s="329">
         <v>9</v>
       </c>
-      <c r="AV3" s="321"/>
-      <c r="AW3" s="320">
+      <c r="AV3" s="330"/>
+      <c r="AW3" s="329">
         <v>10</v>
       </c>
-      <c r="AX3" s="321"/>
-      <c r="AY3" s="320">
+      <c r="AX3" s="330"/>
+      <c r="AY3" s="329">
         <v>11</v>
       </c>
-      <c r="AZ3" s="321"/>
-      <c r="BA3" s="320">
+      <c r="AZ3" s="330"/>
+      <c r="BA3" s="329">
         <v>12</v>
       </c>
-      <c r="BB3" s="322"/>
+      <c r="BB3" s="331"/>
       <c r="BC3" s="111"/>
       <c r="BD3" s="48"/>
-      <c r="BE3" s="320">
+      <c r="BE3" s="329">
         <v>1</v>
       </c>
-      <c r="BF3" s="320"/>
-      <c r="BG3" s="320">
+      <c r="BF3" s="329"/>
+      <c r="BG3" s="329">
         <v>2</v>
       </c>
-      <c r="BH3" s="321"/>
-      <c r="BI3" s="320">
+      <c r="BH3" s="330"/>
+      <c r="BI3" s="329">
         <v>3</v>
       </c>
-      <c r="BJ3" s="321"/>
-      <c r="BK3" s="320">
+      <c r="BJ3" s="330"/>
+      <c r="BK3" s="329">
         <v>4</v>
       </c>
-      <c r="BL3" s="321"/>
-      <c r="BM3" s="320">
+      <c r="BL3" s="330"/>
+      <c r="BM3" s="329">
         <v>5</v>
       </c>
-      <c r="BN3" s="321"/>
-      <c r="BO3" s="320">
+      <c r="BN3" s="330"/>
+      <c r="BO3" s="329">
         <v>6</v>
       </c>
-      <c r="BP3" s="321"/>
-      <c r="BQ3" s="320">
+      <c r="BP3" s="330"/>
+      <c r="BQ3" s="329">
         <v>7</v>
       </c>
-      <c r="BR3" s="321"/>
-      <c r="BS3" s="320">
+      <c r="BR3" s="330"/>
+      <c r="BS3" s="329">
         <v>8</v>
       </c>
-      <c r="BT3" s="321"/>
-      <c r="BU3" s="320">
+      <c r="BT3" s="330"/>
+      <c r="BU3" s="329">
         <v>9</v>
       </c>
-      <c r="BV3" s="321"/>
-      <c r="BW3" s="320">
+      <c r="BV3" s="330"/>
+      <c r="BW3" s="329">
         <v>10</v>
       </c>
-      <c r="BX3" s="321"/>
-      <c r="BY3" s="320">
+      <c r="BX3" s="330"/>
+      <c r="BY3" s="329">
         <v>11</v>
       </c>
-      <c r="BZ3" s="321"/>
-      <c r="CA3" s="320">
+      <c r="BZ3" s="330"/>
+      <c r="CA3" s="329">
         <v>12</v>
       </c>
-      <c r="CB3" s="322"/>
+      <c r="CB3" s="331"/>
       <c r="CC3" s="111"/>
       <c r="CD3" s="48"/>
-      <c r="CE3" s="320">
+      <c r="CE3" s="329">
         <v>1</v>
       </c>
-      <c r="CF3" s="320"/>
-      <c r="CG3" s="320">
+      <c r="CF3" s="329"/>
+      <c r="CG3" s="329">
         <v>2</v>
       </c>
-      <c r="CH3" s="320"/>
-      <c r="CI3" s="320">
+      <c r="CH3" s="329"/>
+      <c r="CI3" s="329">
         <v>3</v>
       </c>
-      <c r="CJ3" s="320"/>
-      <c r="CK3" s="320">
+      <c r="CJ3" s="329"/>
+      <c r="CK3" s="329">
         <v>4</v>
       </c>
-      <c r="CL3" s="320"/>
-      <c r="CM3" s="320">
+      <c r="CL3" s="329"/>
+      <c r="CM3" s="329">
         <v>5</v>
       </c>
-      <c r="CN3" s="320"/>
-      <c r="CO3" s="320">
+      <c r="CN3" s="329"/>
+      <c r="CO3" s="329">
         <v>6</v>
       </c>
-      <c r="CP3" s="320"/>
-      <c r="CQ3" s="320">
+      <c r="CP3" s="329"/>
+      <c r="CQ3" s="329">
         <v>7</v>
       </c>
-      <c r="CR3" s="320"/>
-      <c r="CS3" s="320">
+      <c r="CR3" s="329"/>
+      <c r="CS3" s="329">
         <v>8</v>
       </c>
-      <c r="CT3" s="320"/>
-      <c r="CU3" s="320">
+      <c r="CT3" s="329"/>
+      <c r="CU3" s="329">
         <v>9</v>
       </c>
-      <c r="CV3" s="320"/>
-      <c r="CW3" s="320">
+      <c r="CV3" s="329"/>
+      <c r="CW3" s="329">
         <v>10</v>
       </c>
-      <c r="CX3" s="320"/>
-      <c r="CY3" s="320">
+      <c r="CX3" s="329"/>
+      <c r="CY3" s="329">
         <v>11</v>
       </c>
-      <c r="CZ3" s="320"/>
-      <c r="DA3" s="320">
+      <c r="CZ3" s="329"/>
+      <c r="DA3" s="329">
         <v>12</v>
       </c>
-      <c r="DB3" s="320"/>
+      <c r="DB3" s="329"/>
     </row>
     <row r="4" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="194" t="s">
@@ -19164,372 +19164,372 @@
       <c r="C4" s="325" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="326"/>
-      <c r="E4" s="329" t="str" cm="1">
+      <c r="D4" s="319"/>
+      <c r="E4" s="315" t="str" cm="1">
         <f t="array" ref="E4">IF(COUNTA(INDEX(Buildings, E3))&gt;0,INDEX(Buildings, E3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="F4" s="330"/>
-      <c r="G4" s="331" t="str" cm="1">
+      <c r="F4" s="316"/>
+      <c r="G4" s="327" t="str" cm="1">
         <f t="array" ref="G4">IF(COUNTA(INDEX(Buildings, G3))&gt;0,INDEX(Buildings, G3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="H4" s="330"/>
-      <c r="I4" s="332" t="str" cm="1">
+      <c r="H4" s="316"/>
+      <c r="I4" s="328" t="str" cm="1">
         <f t="array" ref="I4">IF(COUNTA(INDEX(Buildings, I3))&gt;0,INDEX(Buildings, I3),"")</f>
         <v/>
       </c>
       <c r="J4" s="324"/>
-      <c r="K4" s="323" t="str" cm="1">
+      <c r="K4" s="322" t="str" cm="1">
         <f t="array" ref="K4">IF(COUNTA(INDEX(Buildings, K3))&gt;0,INDEX(Buildings, K3),"")</f>
         <v/>
       </c>
       <c r="L4" s="324"/>
-      <c r="M4" s="323" t="str" cm="1">
+      <c r="M4" s="322" t="str" cm="1">
         <f t="array" ref="M4">IF(COUNTA(INDEX(Buildings, M3))&gt;0,INDEX(Buildings, M3),"")</f>
         <v/>
       </c>
       <c r="N4" s="324"/>
-      <c r="O4" s="323" t="str" cm="1">
+      <c r="O4" s="322" t="str" cm="1">
         <f t="array" ref="O4">IF(COUNTA(INDEX(Buildings, O3))&gt;0,INDEX(Buildings, O3),"")</f>
         <v/>
       </c>
       <c r="P4" s="324"/>
-      <c r="Q4" s="323" t="str" cm="1">
+      <c r="Q4" s="322" t="str" cm="1">
         <f t="array" ref="Q4">IF(COUNTA(INDEX(Buildings, Q3))&gt;0,INDEX(Buildings, Q3),"")</f>
         <v/>
       </c>
       <c r="R4" s="324"/>
-      <c r="S4" s="323" t="str" cm="1">
+      <c r="S4" s="322" t="str" cm="1">
         <f t="array" ref="S4">IF(COUNTA(INDEX(Buildings, S3))&gt;0,INDEX(Buildings, S3),"")</f>
         <v/>
       </c>
       <c r="T4" s="324"/>
-      <c r="U4" s="323" t="str" cm="1">
+      <c r="U4" s="322" t="str" cm="1">
         <f t="array" ref="U4">IF(COUNTA(INDEX(Buildings, U3))&gt;0,INDEX(Buildings, U3),"")</f>
         <v/>
       </c>
       <c r="V4" s="324"/>
-      <c r="W4" s="323" t="str" cm="1">
+      <c r="W4" s="322" t="str" cm="1">
         <f t="array" ref="W4">IF(COUNTA(INDEX(Buildings, W3))&gt;0,INDEX(Buildings, W3),"")</f>
         <v/>
       </c>
       <c r="X4" s="324"/>
-      <c r="Y4" s="323" t="str" cm="1">
+      <c r="Y4" s="322" t="str" cm="1">
         <f t="array" ref="Y4">IF(COUNTA(INDEX(Buildings, Y3))&gt;0,INDEX(Buildings, Y3),"")</f>
         <v/>
       </c>
       <c r="Z4" s="324"/>
-      <c r="AA4" s="323" t="str" cm="1">
+      <c r="AA4" s="322" t="str" cm="1">
         <f t="array" ref="AA4">IF(COUNTA(INDEX(Buildings, AA3))&gt;0,INDEX(Buildings, AA3),"")</f>
         <v/>
       </c>
-      <c r="AB4" s="334"/>
-      <c r="AC4" s="335" t="s">
+      <c r="AB4" s="323"/>
+      <c r="AC4" s="318" t="s">
         <v>119</v>
       </c>
-      <c r="AD4" s="326"/>
-      <c r="AE4" s="329" t="str" cm="1">
+      <c r="AD4" s="319"/>
+      <c r="AE4" s="315" t="str" cm="1">
         <f t="array" ref="AE4">IF(COUNTA(INDEX(Buildings, AE3))&gt;0,INDEX(Buildings, AE3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="AF4" s="330"/>
-      <c r="AG4" s="329" t="str" cm="1">
+      <c r="AF4" s="316"/>
+      <c r="AG4" s="315" t="str" cm="1">
         <f t="array" ref="AG4">IF(COUNTA(INDEX(Buildings, AG3))&gt;0,INDEX(Buildings, AG3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="AH4" s="330"/>
-      <c r="AI4" s="329" t="str" cm="1">
+      <c r="AH4" s="316"/>
+      <c r="AI4" s="315" t="str" cm="1">
         <f t="array" ref="AI4">IF(COUNTA(INDEX(Buildings, AI3))&gt;0,INDEX(Buildings, AI3),"")</f>
         <v/>
       </c>
-      <c r="AJ4" s="330"/>
-      <c r="AK4" s="329" t="str" cm="1">
+      <c r="AJ4" s="316"/>
+      <c r="AK4" s="315" t="str" cm="1">
         <f t="array" ref="AK4">IF(COUNTA(INDEX(Buildings, AK3))&gt;0,INDEX(Buildings, AK3),"")</f>
         <v/>
       </c>
-      <c r="AL4" s="330"/>
-      <c r="AM4" s="329" t="str" cm="1">
+      <c r="AL4" s="316"/>
+      <c r="AM4" s="315" t="str" cm="1">
         <f t="array" ref="AM4">IF(COUNTA(INDEX(Buildings, AM3))&gt;0,INDEX(Buildings, AM3),"")</f>
         <v/>
       </c>
-      <c r="AN4" s="330"/>
-      <c r="AO4" s="329" t="str" cm="1">
+      <c r="AN4" s="316"/>
+      <c r="AO4" s="315" t="str" cm="1">
         <f t="array" ref="AO4">IF(COUNTA(INDEX(Buildings, AO3))&gt;0,INDEX(Buildings, AO3),"")</f>
         <v/>
       </c>
-      <c r="AP4" s="330"/>
-      <c r="AQ4" s="329" t="str" cm="1">
+      <c r="AP4" s="316"/>
+      <c r="AQ4" s="315" t="str" cm="1">
         <f t="array" ref="AQ4">IF(COUNTA(INDEX(Buildings, AQ3))&gt;0,INDEX(Buildings, AQ3),"")</f>
         <v/>
       </c>
-      <c r="AR4" s="330"/>
-      <c r="AS4" s="329" t="str" cm="1">
+      <c r="AR4" s="316"/>
+      <c r="AS4" s="315" t="str" cm="1">
         <f t="array" ref="AS4">IF(COUNTA(INDEX(Buildings, AS3))&gt;0,INDEX(Buildings, AS3),"")</f>
         <v/>
       </c>
-      <c r="AT4" s="330"/>
-      <c r="AU4" s="329" t="str" cm="1">
+      <c r="AT4" s="316"/>
+      <c r="AU4" s="315" t="str" cm="1">
         <f t="array" ref="AU4">IF(COUNTA(INDEX(Buildings, AU3))&gt;0,INDEX(Buildings, AU3),"")</f>
         <v/>
       </c>
-      <c r="AV4" s="330"/>
-      <c r="AW4" s="329" t="str" cm="1">
+      <c r="AV4" s="316"/>
+      <c r="AW4" s="315" t="str" cm="1">
         <f t="array" ref="AW4">IF(COUNTA(INDEX(Buildings, AW3))&gt;0,INDEX(Buildings, AW3),"")</f>
         <v/>
       </c>
-      <c r="AX4" s="330"/>
-      <c r="AY4" s="329" t="str" cm="1">
+      <c r="AX4" s="316"/>
+      <c r="AY4" s="315" t="str" cm="1">
         <f t="array" ref="AY4">IF(COUNTA(INDEX(Buildings, AY3))&gt;0,INDEX(Buildings, AY3),"")</f>
         <v/>
       </c>
-      <c r="AZ4" s="330"/>
-      <c r="BA4" s="329" t="str" cm="1">
+      <c r="AZ4" s="316"/>
+      <c r="BA4" s="315" t="str" cm="1">
         <f t="array" ref="BA4">IF(COUNTA(INDEX(Buildings, BA3))&gt;0,INDEX(Buildings, BA3),"")</f>
         <v/>
       </c>
-      <c r="BB4" s="337"/>
-      <c r="BC4" s="335" t="s">
+      <c r="BB4" s="317"/>
+      <c r="BC4" s="318" t="s">
         <v>119</v>
       </c>
-      <c r="BD4" s="326"/>
-      <c r="BE4" s="329" t="str" cm="1">
+      <c r="BD4" s="319"/>
+      <c r="BE4" s="315" t="str" cm="1">
         <f t="array" ref="BE4">IF(COUNTA(INDEX(Buildings, BE3))&gt;0,INDEX(Buildings, BE3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="BF4" s="330"/>
-      <c r="BG4" s="329" t="str" cm="1">
+      <c r="BF4" s="316"/>
+      <c r="BG4" s="315" t="str" cm="1">
         <f t="array" ref="BG4">IF(COUNTA(INDEX(Buildings, BG3))&gt;0,INDEX(Buildings, BG3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="BH4" s="330"/>
-      <c r="BI4" s="329" t="str" cm="1">
+      <c r="BH4" s="316"/>
+      <c r="BI4" s="315" t="str" cm="1">
         <f t="array" ref="BI4">IF(COUNTA(INDEX(Buildings, BI3))&gt;0,INDEX(Buildings, BI3),"")</f>
         <v/>
       </c>
-      <c r="BJ4" s="330"/>
-      <c r="BK4" s="329" t="str" cm="1">
+      <c r="BJ4" s="316"/>
+      <c r="BK4" s="315" t="str" cm="1">
         <f t="array" ref="BK4">IF(COUNTA(INDEX(Buildings, BK3))&gt;0,INDEX(Buildings, BK3),"")</f>
         <v/>
       </c>
-      <c r="BL4" s="330"/>
-      <c r="BM4" s="329" t="str" cm="1">
+      <c r="BL4" s="316"/>
+      <c r="BM4" s="315" t="str" cm="1">
         <f t="array" ref="BM4">IF(COUNTA(INDEX(Buildings, BM3))&gt;0,INDEX(Buildings, BM3),"")</f>
         <v/>
       </c>
-      <c r="BN4" s="330"/>
-      <c r="BO4" s="329" t="str" cm="1">
+      <c r="BN4" s="316"/>
+      <c r="BO4" s="315" t="str" cm="1">
         <f t="array" ref="BO4">IF(COUNTA(INDEX(Buildings, BO3))&gt;0,INDEX(Buildings, BO3),"")</f>
         <v/>
       </c>
-      <c r="BP4" s="330"/>
-      <c r="BQ4" s="329" t="str" cm="1">
+      <c r="BP4" s="316"/>
+      <c r="BQ4" s="315" t="str" cm="1">
         <f t="array" ref="BQ4">IF(COUNTA(INDEX(Buildings, BQ3))&gt;0,INDEX(Buildings, BQ3),"")</f>
         <v/>
       </c>
-      <c r="BR4" s="330"/>
-      <c r="BS4" s="329" t="str" cm="1">
+      <c r="BR4" s="316"/>
+      <c r="BS4" s="315" t="str" cm="1">
         <f t="array" ref="BS4">IF(COUNTA(INDEX(Buildings, BS3))&gt;0,INDEX(Buildings, BS3),"")</f>
         <v/>
       </c>
-      <c r="BT4" s="330"/>
-      <c r="BU4" s="329" t="str" cm="1">
+      <c r="BT4" s="316"/>
+      <c r="BU4" s="315" t="str" cm="1">
         <f t="array" ref="BU4">IF(COUNTA(INDEX(Buildings, BU3))&gt;0,INDEX(Buildings, BU3),"")</f>
         <v/>
       </c>
-      <c r="BV4" s="330"/>
-      <c r="BW4" s="329" t="str" cm="1">
+      <c r="BV4" s="316"/>
+      <c r="BW4" s="315" t="str" cm="1">
         <f t="array" ref="BW4">IF(COUNTA(INDEX(Buildings, BW3))&gt;0,INDEX(Buildings, BW3),"")</f>
         <v/>
       </c>
-      <c r="BX4" s="330"/>
-      <c r="BY4" s="329" t="str" cm="1">
+      <c r="BX4" s="316"/>
+      <c r="BY4" s="315" t="str" cm="1">
         <f t="array" ref="BY4">IF(COUNTA(INDEX(Buildings, BY3))&gt;0,INDEX(Buildings, BY3),"")</f>
         <v/>
       </c>
-      <c r="BZ4" s="330"/>
-      <c r="CA4" s="329" t="str" cm="1">
+      <c r="BZ4" s="316"/>
+      <c r="CA4" s="315" t="str" cm="1">
         <f t="array" ref="CA4">IF(COUNTA(INDEX(Buildings, CA3))&gt;0,INDEX(Buildings, CA3),"")</f>
         <v/>
       </c>
-      <c r="CB4" s="337"/>
-      <c r="CC4" s="335" t="s">
+      <c r="CB4" s="317"/>
+      <c r="CC4" s="318" t="s">
         <v>119</v>
       </c>
-      <c r="CD4" s="326"/>
-      <c r="CE4" s="329" t="str" cm="1">
+      <c r="CD4" s="319"/>
+      <c r="CE4" s="315" t="str" cm="1">
         <f t="array" ref="CE4">IF(COUNTA(INDEX(Buildings, CE3))&gt;0,INDEX(Buildings, CE3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="CF4" s="330"/>
-      <c r="CG4" s="329" t="str" cm="1">
+      <c r="CF4" s="316"/>
+      <c r="CG4" s="315" t="str" cm="1">
         <f t="array" ref="CG4">IF(COUNTA(INDEX(Buildings, CG3))&gt;0,INDEX(Buildings, CG3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="CH4" s="330"/>
-      <c r="CI4" s="329" t="str" cm="1">
+      <c r="CH4" s="316"/>
+      <c r="CI4" s="315" t="str" cm="1">
         <f t="array" ref="CI4">IF(COUNTA(INDEX(Buildings, CI3))&gt;0,INDEX(Buildings, CI3),"")</f>
         <v/>
       </c>
-      <c r="CJ4" s="330"/>
-      <c r="CK4" s="329" t="str" cm="1">
+      <c r="CJ4" s="316"/>
+      <c r="CK4" s="315" t="str" cm="1">
         <f t="array" ref="CK4">IF(COUNTA(INDEX(Buildings, CK3))&gt;0,INDEX(Buildings, CK3),"")</f>
         <v/>
       </c>
-      <c r="CL4" s="330"/>
-      <c r="CM4" s="329" t="str" cm="1">
+      <c r="CL4" s="316"/>
+      <c r="CM4" s="315" t="str" cm="1">
         <f t="array" ref="CM4">IF(COUNTA(INDEX(Buildings, CM3))&gt;0,INDEX(Buildings, CM3),"")</f>
         <v/>
       </c>
-      <c r="CN4" s="330"/>
-      <c r="CO4" s="329" t="str" cm="1">
+      <c r="CN4" s="316"/>
+      <c r="CO4" s="315" t="str" cm="1">
         <f t="array" ref="CO4">IF(COUNTA(INDEX(Buildings, CO3))&gt;0,INDEX(Buildings, CO3),"")</f>
         <v/>
       </c>
-      <c r="CP4" s="330"/>
-      <c r="CQ4" s="329" t="str" cm="1">
+      <c r="CP4" s="316"/>
+      <c r="CQ4" s="315" t="str" cm="1">
         <f t="array" ref="CQ4">IF(COUNTA(INDEX(Buildings, CQ3))&gt;0,INDEX(Buildings, CQ3),"")</f>
         <v/>
       </c>
-      <c r="CR4" s="330"/>
-      <c r="CS4" s="329" t="str" cm="1">
+      <c r="CR4" s="316"/>
+      <c r="CS4" s="315" t="str" cm="1">
         <f t="array" ref="CS4">IF(COUNTA(INDEX(Buildings, CS3))&gt;0,INDEX(Buildings, CS3),"")</f>
         <v/>
       </c>
-      <c r="CT4" s="330"/>
-      <c r="CU4" s="329" t="str" cm="1">
+      <c r="CT4" s="316"/>
+      <c r="CU4" s="315" t="str" cm="1">
         <f t="array" ref="CU4">IF(COUNTA(INDEX(Buildings, CU3))&gt;0,INDEX(Buildings, CU3),"")</f>
         <v/>
       </c>
-      <c r="CV4" s="330"/>
-      <c r="CW4" s="329" t="str" cm="1">
+      <c r="CV4" s="316"/>
+      <c r="CW4" s="315" t="str" cm="1">
         <f t="array" ref="CW4">IF(COUNTA(INDEX(Buildings, CW3))&gt;0,INDEX(Buildings, CW3),"")</f>
         <v/>
       </c>
-      <c r="CX4" s="330"/>
-      <c r="CY4" s="329" t="str" cm="1">
+      <c r="CX4" s="316"/>
+      <c r="CY4" s="315" t="str" cm="1">
         <f t="array" ref="CY4">IF(COUNTA(INDEX(Buildings, CY3))&gt;0,INDEX(Buildings, CY3),"")</f>
         <v/>
       </c>
-      <c r="CZ4" s="330"/>
-      <c r="DA4" s="329" t="str" cm="1">
+      <c r="CZ4" s="316"/>
+      <c r="DA4" s="315" t="str" cm="1">
         <f t="array" ref="DA4">IF(COUNTA(INDEX(Buildings, DA3))&gt;0,INDEX(Buildings, DA3),"")</f>
         <v/>
       </c>
-      <c r="DB4" s="337"/>
+      <c r="DB4" s="317"/>
     </row>
     <row r="5" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="194" t="s">
         <v>577</v>
       </c>
-      <c r="C5" s="327"/>
-      <c r="D5" s="328"/>
-      <c r="E5" s="317">
+      <c r="C5" s="326"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="312">
         <v>594</v>
       </c>
-      <c r="F5" s="333"/>
-      <c r="G5" s="317">
+      <c r="F5" s="313"/>
+      <c r="G5" s="312">
         <v>212</v>
       </c>
-      <c r="H5" s="333"/>
-      <c r="I5" s="317"/>
-      <c r="J5" s="333"/>
-      <c r="K5" s="317"/>
-      <c r="L5" s="333"/>
-      <c r="M5" s="317"/>
-      <c r="N5" s="333"/>
-      <c r="O5" s="317"/>
-      <c r="P5" s="333"/>
-      <c r="Q5" s="317"/>
-      <c r="R5" s="333"/>
-      <c r="S5" s="317"/>
-      <c r="T5" s="333"/>
-      <c r="U5" s="317"/>
-      <c r="V5" s="333"/>
-      <c r="W5" s="317"/>
-      <c r="X5" s="333"/>
-      <c r="Y5" s="317"/>
-      <c r="Z5" s="333"/>
-      <c r="AA5" s="317"/>
-      <c r="AB5" s="318"/>
-      <c r="AC5" s="336"/>
-      <c r="AD5" s="328"/>
-      <c r="AE5" s="317"/>
-      <c r="AF5" s="333"/>
-      <c r="AG5" s="317"/>
-      <c r="AH5" s="333"/>
-      <c r="AI5" s="317"/>
-      <c r="AJ5" s="333"/>
-      <c r="AK5" s="317"/>
-      <c r="AL5" s="333"/>
-      <c r="AM5" s="317"/>
-      <c r="AN5" s="333"/>
-      <c r="AO5" s="317"/>
-      <c r="AP5" s="333"/>
-      <c r="AQ5" s="317"/>
-      <c r="AR5" s="333"/>
-      <c r="AS5" s="317"/>
-      <c r="AT5" s="333"/>
-      <c r="AU5" s="317"/>
-      <c r="AV5" s="333"/>
-      <c r="AW5" s="317"/>
-      <c r="AX5" s="333"/>
-      <c r="AY5" s="317"/>
-      <c r="AZ5" s="333"/>
-      <c r="BA5" s="317"/>
-      <c r="BB5" s="318"/>
-      <c r="BC5" s="336"/>
-      <c r="BD5" s="328"/>
-      <c r="BE5" s="317"/>
-      <c r="BF5" s="333"/>
-      <c r="BG5" s="317"/>
-      <c r="BH5" s="333"/>
-      <c r="BI5" s="317"/>
-      <c r="BJ5" s="333"/>
-      <c r="BK5" s="317"/>
-      <c r="BL5" s="333"/>
-      <c r="BM5" s="317"/>
-      <c r="BN5" s="333"/>
-      <c r="BO5" s="317"/>
-      <c r="BP5" s="333"/>
-      <c r="BQ5" s="317"/>
-      <c r="BR5" s="333"/>
-      <c r="BS5" s="317"/>
-      <c r="BT5" s="333"/>
-      <c r="BU5" s="317"/>
-      <c r="BV5" s="333"/>
-      <c r="BW5" s="317"/>
-      <c r="BX5" s="333"/>
-      <c r="BY5" s="317"/>
-      <c r="BZ5" s="333"/>
-      <c r="CA5" s="317"/>
-      <c r="CB5" s="318"/>
-      <c r="CC5" s="336"/>
-      <c r="CD5" s="328"/>
-      <c r="CE5" s="317"/>
-      <c r="CF5" s="333"/>
-      <c r="CG5" s="317"/>
-      <c r="CH5" s="333"/>
-      <c r="CI5" s="317"/>
-      <c r="CJ5" s="333"/>
-      <c r="CK5" s="317"/>
-      <c r="CL5" s="333"/>
-      <c r="CM5" s="317"/>
-      <c r="CN5" s="333"/>
-      <c r="CO5" s="317"/>
-      <c r="CP5" s="333"/>
-      <c r="CQ5" s="317"/>
-      <c r="CR5" s="333"/>
-      <c r="CS5" s="317"/>
-      <c r="CT5" s="333"/>
-      <c r="CU5" s="317"/>
-      <c r="CV5" s="333"/>
-      <c r="CW5" s="317"/>
-      <c r="CX5" s="333"/>
-      <c r="CY5" s="317"/>
-      <c r="CZ5" s="333"/>
-      <c r="DA5" s="317"/>
-      <c r="DB5" s="318"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="312"/>
+      <c r="J5" s="313"/>
+      <c r="K5" s="312"/>
+      <c r="L5" s="313"/>
+      <c r="M5" s="312"/>
+      <c r="N5" s="313"/>
+      <c r="O5" s="312"/>
+      <c r="P5" s="313"/>
+      <c r="Q5" s="312"/>
+      <c r="R5" s="313"/>
+      <c r="S5" s="312"/>
+      <c r="T5" s="313"/>
+      <c r="U5" s="312"/>
+      <c r="V5" s="313"/>
+      <c r="W5" s="312"/>
+      <c r="X5" s="313"/>
+      <c r="Y5" s="312"/>
+      <c r="Z5" s="313"/>
+      <c r="AA5" s="312"/>
+      <c r="AB5" s="314"/>
+      <c r="AC5" s="320"/>
+      <c r="AD5" s="321"/>
+      <c r="AE5" s="312"/>
+      <c r="AF5" s="313"/>
+      <c r="AG5" s="312"/>
+      <c r="AH5" s="313"/>
+      <c r="AI5" s="312"/>
+      <c r="AJ5" s="313"/>
+      <c r="AK5" s="312"/>
+      <c r="AL5" s="313"/>
+      <c r="AM5" s="312"/>
+      <c r="AN5" s="313"/>
+      <c r="AO5" s="312"/>
+      <c r="AP5" s="313"/>
+      <c r="AQ5" s="312"/>
+      <c r="AR5" s="313"/>
+      <c r="AS5" s="312"/>
+      <c r="AT5" s="313"/>
+      <c r="AU5" s="312"/>
+      <c r="AV5" s="313"/>
+      <c r="AW5" s="312"/>
+      <c r="AX5" s="313"/>
+      <c r="AY5" s="312"/>
+      <c r="AZ5" s="313"/>
+      <c r="BA5" s="312"/>
+      <c r="BB5" s="314"/>
+      <c r="BC5" s="320"/>
+      <c r="BD5" s="321"/>
+      <c r="BE5" s="312"/>
+      <c r="BF5" s="313"/>
+      <c r="BG5" s="312"/>
+      <c r="BH5" s="313"/>
+      <c r="BI5" s="312"/>
+      <c r="BJ5" s="313"/>
+      <c r="BK5" s="312"/>
+      <c r="BL5" s="313"/>
+      <c r="BM5" s="312"/>
+      <c r="BN5" s="313"/>
+      <c r="BO5" s="312"/>
+      <c r="BP5" s="313"/>
+      <c r="BQ5" s="312"/>
+      <c r="BR5" s="313"/>
+      <c r="BS5" s="312"/>
+      <c r="BT5" s="313"/>
+      <c r="BU5" s="312"/>
+      <c r="BV5" s="313"/>
+      <c r="BW5" s="312"/>
+      <c r="BX5" s="313"/>
+      <c r="BY5" s="312"/>
+      <c r="BZ5" s="313"/>
+      <c r="CA5" s="312"/>
+      <c r="CB5" s="314"/>
+      <c r="CC5" s="320"/>
+      <c r="CD5" s="321"/>
+      <c r="CE5" s="312"/>
+      <c r="CF5" s="313"/>
+      <c r="CG5" s="312"/>
+      <c r="CH5" s="313"/>
+      <c r="CI5" s="312"/>
+      <c r="CJ5" s="313"/>
+      <c r="CK5" s="312"/>
+      <c r="CL5" s="313"/>
+      <c r="CM5" s="312"/>
+      <c r="CN5" s="313"/>
+      <c r="CO5" s="312"/>
+      <c r="CP5" s="313"/>
+      <c r="CQ5" s="312"/>
+      <c r="CR5" s="313"/>
+      <c r="CS5" s="312"/>
+      <c r="CT5" s="313"/>
+      <c r="CU5" s="312"/>
+      <c r="CV5" s="313"/>
+      <c r="CW5" s="312"/>
+      <c r="CX5" s="313"/>
+      <c r="CY5" s="312"/>
+      <c r="CZ5" s="313"/>
+      <c r="DA5" s="312"/>
+      <c r="DB5" s="314"/>
     </row>
     <row r="6" spans="1:106" s="122" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="117"/>
@@ -48156,27 +48156,117 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CW5:CX5"/>
-    <mergeCell ref="CY5:CZ5"/>
-    <mergeCell ref="DA5:DB5"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CK5:CL5"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CQ5:CR5"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="C1:AB1"/>
+    <mergeCell ref="AC1:BB1"/>
+    <mergeCell ref="BC1:CB1"/>
+    <mergeCell ref="CC1:DB1"/>
+    <mergeCell ref="C2:AB2"/>
+    <mergeCell ref="AC2:BB2"/>
+    <mergeCell ref="BC2:CB2"/>
+    <mergeCell ref="CC2:DB2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CS3:CT3"/>
+    <mergeCell ref="CU3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DA3:DB3"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CK3:CL3"/>
+    <mergeCell ref="CM3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD5"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD5"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BU5:BV5"/>
     <mergeCell ref="CU4:CV4"/>
     <mergeCell ref="CW4:CX4"/>
     <mergeCell ref="CY4:CZ4"/>
@@ -48201,117 +48291,27 @@
     <mergeCell ref="CG4:CH4"/>
     <mergeCell ref="BK4:BL4"/>
     <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD5"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD5"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CS3:CT3"/>
-    <mergeCell ref="CU3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DA3:DB3"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CK3:CL3"/>
-    <mergeCell ref="CM3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BW3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="C1:AB1"/>
-    <mergeCell ref="AC1:BB1"/>
-    <mergeCell ref="BC1:CB1"/>
-    <mergeCell ref="CC1:DB1"/>
-    <mergeCell ref="C2:AB2"/>
-    <mergeCell ref="AC2:BB2"/>
-    <mergeCell ref="BC2:CB2"/>
-    <mergeCell ref="CC2:DB2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CW5:CX5"/>
+    <mergeCell ref="CY5:CZ5"/>
+    <mergeCell ref="DA5:DB5"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CK5:CL5"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CQ5:CR5"/>
+    <mergeCell ref="CS5:CT5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53041,12 +53041,50 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A423:E423"/>
+    <mergeCell ref="A430:E430"/>
+    <mergeCell ref="A381:E381"/>
+    <mergeCell ref="A388:E388"/>
+    <mergeCell ref="A395:E395"/>
+    <mergeCell ref="A402:E402"/>
+    <mergeCell ref="A409:E409"/>
+    <mergeCell ref="A416:E416"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A297:E297"/>
+    <mergeCell ref="A304:E304"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A318:E318"/>
+    <mergeCell ref="A325:E325"/>
+    <mergeCell ref="A332:E332"/>
+    <mergeCell ref="A339:E339"/>
+    <mergeCell ref="A346:E346"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="A360:E360"/>
+    <mergeCell ref="A367:E367"/>
+    <mergeCell ref="A290:E290"/>
+    <mergeCell ref="A213:E213"/>
+    <mergeCell ref="A220:E220"/>
+    <mergeCell ref="A227:E227"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A241:E241"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A262:E262"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A276:E276"/>
+    <mergeCell ref="A283:E283"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A199:E199"/>
     <mergeCell ref="A122:E122"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A52:E52"/>
@@ -53059,50 +53097,12 @@
     <mergeCell ref="A101:E101"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="A290:E290"/>
-    <mergeCell ref="A213:E213"/>
-    <mergeCell ref="A220:E220"/>
-    <mergeCell ref="A227:E227"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A241:E241"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A262:E262"/>
-    <mergeCell ref="A269:E269"/>
-    <mergeCell ref="A276:E276"/>
-    <mergeCell ref="A283:E283"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A297:E297"/>
-    <mergeCell ref="A304:E304"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A318:E318"/>
-    <mergeCell ref="A325:E325"/>
-    <mergeCell ref="A332:E332"/>
-    <mergeCell ref="A339:E339"/>
-    <mergeCell ref="A346:E346"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="A360:E360"/>
-    <mergeCell ref="A367:E367"/>
-    <mergeCell ref="A423:E423"/>
-    <mergeCell ref="A430:E430"/>
-    <mergeCell ref="A381:E381"/>
-    <mergeCell ref="A388:E388"/>
-    <mergeCell ref="A395:E395"/>
-    <mergeCell ref="A402:E402"/>
-    <mergeCell ref="A409:E409"/>
-    <mergeCell ref="A416:E416"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MORPHE2US.xlsx
+++ b/MORPHE2US.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Documents\MasterArbeit - Documents\MORPHE2US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D983330C-9EB8-43A2-8212-4D0362FDA3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFAE4C8-8210-4F09-B3E5-2619D8F3C8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6450" windowWidth="29040" windowHeight="15720" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3030" windowWidth="29040" windowHeight="15720" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="1" r:id="rId1"/>
@@ -4034,66 +4034,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4109,7 +4049,67 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4526,8 +4526,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5096,7 +5096,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -6289,10 +6289,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD119"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -18730,432 +18730,432 @@
       <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="332">
+      <c r="C1" s="312">
         <v>1</v>
       </c>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="333"/>
-      <c r="K1" s="333"/>
-      <c r="L1" s="333"/>
-      <c r="M1" s="333"/>
-      <c r="N1" s="333"/>
-      <c r="O1" s="333"/>
-      <c r="P1" s="333"/>
-      <c r="Q1" s="333"/>
-      <c r="R1" s="333"/>
-      <c r="S1" s="333"/>
-      <c r="T1" s="333"/>
-      <c r="U1" s="333"/>
-      <c r="V1" s="333"/>
-      <c r="W1" s="333"/>
-      <c r="X1" s="333"/>
-      <c r="Y1" s="333"/>
-      <c r="Z1" s="333"/>
-      <c r="AA1" s="333"/>
-      <c r="AB1" s="334"/>
-      <c r="AC1" s="335">
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="313"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="313"/>
+      <c r="P1" s="313"/>
+      <c r="Q1" s="313"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="313"/>
+      <c r="T1" s="313"/>
+      <c r="U1" s="313"/>
+      <c r="V1" s="313"/>
+      <c r="W1" s="313"/>
+      <c r="X1" s="313"/>
+      <c r="Y1" s="313"/>
+      <c r="Z1" s="313"/>
+      <c r="AA1" s="313"/>
+      <c r="AB1" s="314"/>
+      <c r="AC1" s="315">
         <v>2</v>
       </c>
-      <c r="AD1" s="333"/>
-      <c r="AE1" s="333"/>
-      <c r="AF1" s="333"/>
-      <c r="AG1" s="333"/>
-      <c r="AH1" s="333"/>
-      <c r="AI1" s="333"/>
-      <c r="AJ1" s="333"/>
-      <c r="AK1" s="333"/>
-      <c r="AL1" s="333"/>
-      <c r="AM1" s="333"/>
-      <c r="AN1" s="333"/>
-      <c r="AO1" s="333"/>
-      <c r="AP1" s="333"/>
-      <c r="AQ1" s="333"/>
-      <c r="AR1" s="333"/>
-      <c r="AS1" s="333"/>
-      <c r="AT1" s="333"/>
-      <c r="AU1" s="333"/>
-      <c r="AV1" s="333"/>
-      <c r="AW1" s="333"/>
-      <c r="AX1" s="333"/>
-      <c r="AY1" s="333"/>
-      <c r="AZ1" s="333"/>
-      <c r="BA1" s="333"/>
-      <c r="BB1" s="334"/>
-      <c r="BC1" s="335">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="313"/>
+      <c r="AG1" s="313"/>
+      <c r="AH1" s="313"/>
+      <c r="AI1" s="313"/>
+      <c r="AJ1" s="313"/>
+      <c r="AK1" s="313"/>
+      <c r="AL1" s="313"/>
+      <c r="AM1" s="313"/>
+      <c r="AN1" s="313"/>
+      <c r="AO1" s="313"/>
+      <c r="AP1" s="313"/>
+      <c r="AQ1" s="313"/>
+      <c r="AR1" s="313"/>
+      <c r="AS1" s="313"/>
+      <c r="AT1" s="313"/>
+      <c r="AU1" s="313"/>
+      <c r="AV1" s="313"/>
+      <c r="AW1" s="313"/>
+      <c r="AX1" s="313"/>
+      <c r="AY1" s="313"/>
+      <c r="AZ1" s="313"/>
+      <c r="BA1" s="313"/>
+      <c r="BB1" s="314"/>
+      <c r="BC1" s="315">
         <v>3</v>
       </c>
-      <c r="BD1" s="333"/>
-      <c r="BE1" s="333"/>
-      <c r="BF1" s="333"/>
-      <c r="BG1" s="333"/>
-      <c r="BH1" s="333"/>
-      <c r="BI1" s="333"/>
-      <c r="BJ1" s="333"/>
-      <c r="BK1" s="333"/>
-      <c r="BL1" s="333"/>
-      <c r="BM1" s="333"/>
-      <c r="BN1" s="333"/>
-      <c r="BO1" s="333"/>
-      <c r="BP1" s="333"/>
-      <c r="BQ1" s="333"/>
-      <c r="BR1" s="333"/>
-      <c r="BS1" s="333"/>
-      <c r="BT1" s="333"/>
-      <c r="BU1" s="333"/>
-      <c r="BV1" s="333"/>
-      <c r="BW1" s="333"/>
-      <c r="BX1" s="333"/>
-      <c r="BY1" s="333"/>
-      <c r="BZ1" s="333"/>
-      <c r="CA1" s="333"/>
-      <c r="CB1" s="334"/>
-      <c r="CC1" s="335">
+      <c r="BD1" s="313"/>
+      <c r="BE1" s="313"/>
+      <c r="BF1" s="313"/>
+      <c r="BG1" s="313"/>
+      <c r="BH1" s="313"/>
+      <c r="BI1" s="313"/>
+      <c r="BJ1" s="313"/>
+      <c r="BK1" s="313"/>
+      <c r="BL1" s="313"/>
+      <c r="BM1" s="313"/>
+      <c r="BN1" s="313"/>
+      <c r="BO1" s="313"/>
+      <c r="BP1" s="313"/>
+      <c r="BQ1" s="313"/>
+      <c r="BR1" s="313"/>
+      <c r="BS1" s="313"/>
+      <c r="BT1" s="313"/>
+      <c r="BU1" s="313"/>
+      <c r="BV1" s="313"/>
+      <c r="BW1" s="313"/>
+      <c r="BX1" s="313"/>
+      <c r="BY1" s="313"/>
+      <c r="BZ1" s="313"/>
+      <c r="CA1" s="313"/>
+      <c r="CB1" s="314"/>
+      <c r="CC1" s="315">
         <v>4</v>
       </c>
-      <c r="CD1" s="333"/>
-      <c r="CE1" s="333"/>
-      <c r="CF1" s="333"/>
-      <c r="CG1" s="333"/>
-      <c r="CH1" s="333"/>
-      <c r="CI1" s="333"/>
-      <c r="CJ1" s="333"/>
-      <c r="CK1" s="333"/>
-      <c r="CL1" s="333"/>
-      <c r="CM1" s="333"/>
-      <c r="CN1" s="333"/>
-      <c r="CO1" s="333"/>
-      <c r="CP1" s="333"/>
-      <c r="CQ1" s="333"/>
-      <c r="CR1" s="333"/>
-      <c r="CS1" s="333"/>
-      <c r="CT1" s="333"/>
-      <c r="CU1" s="333"/>
-      <c r="CV1" s="333"/>
-      <c r="CW1" s="333"/>
-      <c r="CX1" s="333"/>
-      <c r="CY1" s="333"/>
-      <c r="CZ1" s="333"/>
-      <c r="DA1" s="333"/>
-      <c r="DB1" s="334"/>
+      <c r="CD1" s="313"/>
+      <c r="CE1" s="313"/>
+      <c r="CF1" s="313"/>
+      <c r="CG1" s="313"/>
+      <c r="CH1" s="313"/>
+      <c r="CI1" s="313"/>
+      <c r="CJ1" s="313"/>
+      <c r="CK1" s="313"/>
+      <c r="CL1" s="313"/>
+      <c r="CM1" s="313"/>
+      <c r="CN1" s="313"/>
+      <c r="CO1" s="313"/>
+      <c r="CP1" s="313"/>
+      <c r="CQ1" s="313"/>
+      <c r="CR1" s="313"/>
+      <c r="CS1" s="313"/>
+      <c r="CT1" s="313"/>
+      <c r="CU1" s="313"/>
+      <c r="CV1" s="313"/>
+      <c r="CW1" s="313"/>
+      <c r="CX1" s="313"/>
+      <c r="CY1" s="313"/>
+      <c r="CZ1" s="313"/>
+      <c r="DA1" s="313"/>
+      <c r="DB1" s="314"/>
     </row>
     <row r="2" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="336" t="s">
+      <c r="C2" s="316" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="312"/>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="312"/>
-      <c r="N2" s="312"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="312"/>
-      <c r="Q2" s="312"/>
-      <c r="R2" s="312"/>
-      <c r="S2" s="312"/>
-      <c r="T2" s="312"/>
-      <c r="U2" s="312"/>
-      <c r="V2" s="312"/>
-      <c r="W2" s="312"/>
-      <c r="X2" s="312"/>
-      <c r="Y2" s="312"/>
-      <c r="Z2" s="312"/>
-      <c r="AA2" s="312"/>
-      <c r="AB2" s="314"/>
-      <c r="AC2" s="337"/>
-      <c r="AD2" s="312"/>
-      <c r="AE2" s="312"/>
-      <c r="AF2" s="312"/>
-      <c r="AG2" s="312"/>
-      <c r="AH2" s="312"/>
-      <c r="AI2" s="312"/>
-      <c r="AJ2" s="312"/>
-      <c r="AK2" s="312"/>
-      <c r="AL2" s="312"/>
-      <c r="AM2" s="312"/>
-      <c r="AN2" s="312"/>
-      <c r="AO2" s="312"/>
-      <c r="AP2" s="312"/>
-      <c r="AQ2" s="312"/>
-      <c r="AR2" s="312"/>
-      <c r="AS2" s="312"/>
-      <c r="AT2" s="312"/>
-      <c r="AU2" s="312"/>
-      <c r="AV2" s="312"/>
-      <c r="AW2" s="312"/>
-      <c r="AX2" s="312"/>
-      <c r="AY2" s="312"/>
-      <c r="AZ2" s="312"/>
-      <c r="BA2" s="312"/>
-      <c r="BB2" s="314"/>
-      <c r="BC2" s="337"/>
-      <c r="BD2" s="312"/>
-      <c r="BE2" s="312"/>
-      <c r="BF2" s="312"/>
-      <c r="BG2" s="312"/>
-      <c r="BH2" s="312"/>
-      <c r="BI2" s="312"/>
-      <c r="BJ2" s="312"/>
-      <c r="BK2" s="312"/>
-      <c r="BL2" s="312"/>
-      <c r="BM2" s="312"/>
-      <c r="BN2" s="312"/>
-      <c r="BO2" s="312"/>
-      <c r="BP2" s="312"/>
-      <c r="BQ2" s="312"/>
-      <c r="BR2" s="312"/>
-      <c r="BS2" s="312"/>
-      <c r="BT2" s="312"/>
-      <c r="BU2" s="312"/>
-      <c r="BV2" s="312"/>
-      <c r="BW2" s="312"/>
-      <c r="BX2" s="312"/>
-      <c r="BY2" s="312"/>
-      <c r="BZ2" s="312"/>
-      <c r="CA2" s="312"/>
-      <c r="CB2" s="314"/>
-      <c r="CC2" s="337"/>
-      <c r="CD2" s="312"/>
-      <c r="CE2" s="312"/>
-      <c r="CF2" s="312"/>
-      <c r="CG2" s="312"/>
-      <c r="CH2" s="312"/>
-      <c r="CI2" s="312"/>
-      <c r="CJ2" s="312"/>
-      <c r="CK2" s="312"/>
-      <c r="CL2" s="312"/>
-      <c r="CM2" s="312"/>
-      <c r="CN2" s="312"/>
-      <c r="CO2" s="312"/>
-      <c r="CP2" s="312"/>
-      <c r="CQ2" s="312"/>
-      <c r="CR2" s="312"/>
-      <c r="CS2" s="312"/>
-      <c r="CT2" s="312"/>
-      <c r="CU2" s="312"/>
-      <c r="CV2" s="312"/>
-      <c r="CW2" s="312"/>
-      <c r="CX2" s="312"/>
-      <c r="CY2" s="312"/>
-      <c r="CZ2" s="312"/>
-      <c r="DA2" s="312"/>
-      <c r="DB2" s="314"/>
+      <c r="D2" s="317"/>
+      <c r="E2" s="317"/>
+      <c r="F2" s="317"/>
+      <c r="G2" s="317"/>
+      <c r="H2" s="317"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="317"/>
+      <c r="L2" s="317"/>
+      <c r="M2" s="317"/>
+      <c r="N2" s="317"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="317"/>
+      <c r="Q2" s="317"/>
+      <c r="R2" s="317"/>
+      <c r="S2" s="317"/>
+      <c r="T2" s="317"/>
+      <c r="U2" s="317"/>
+      <c r="V2" s="317"/>
+      <c r="W2" s="317"/>
+      <c r="X2" s="317"/>
+      <c r="Y2" s="317"/>
+      <c r="Z2" s="317"/>
+      <c r="AA2" s="317"/>
+      <c r="AB2" s="318"/>
+      <c r="AC2" s="319"/>
+      <c r="AD2" s="317"/>
+      <c r="AE2" s="317"/>
+      <c r="AF2" s="317"/>
+      <c r="AG2" s="317"/>
+      <c r="AH2" s="317"/>
+      <c r="AI2" s="317"/>
+      <c r="AJ2" s="317"/>
+      <c r="AK2" s="317"/>
+      <c r="AL2" s="317"/>
+      <c r="AM2" s="317"/>
+      <c r="AN2" s="317"/>
+      <c r="AO2" s="317"/>
+      <c r="AP2" s="317"/>
+      <c r="AQ2" s="317"/>
+      <c r="AR2" s="317"/>
+      <c r="AS2" s="317"/>
+      <c r="AT2" s="317"/>
+      <c r="AU2" s="317"/>
+      <c r="AV2" s="317"/>
+      <c r="AW2" s="317"/>
+      <c r="AX2" s="317"/>
+      <c r="AY2" s="317"/>
+      <c r="AZ2" s="317"/>
+      <c r="BA2" s="317"/>
+      <c r="BB2" s="318"/>
+      <c r="BC2" s="319"/>
+      <c r="BD2" s="317"/>
+      <c r="BE2" s="317"/>
+      <c r="BF2" s="317"/>
+      <c r="BG2" s="317"/>
+      <c r="BH2" s="317"/>
+      <c r="BI2" s="317"/>
+      <c r="BJ2" s="317"/>
+      <c r="BK2" s="317"/>
+      <c r="BL2" s="317"/>
+      <c r="BM2" s="317"/>
+      <c r="BN2" s="317"/>
+      <c r="BO2" s="317"/>
+      <c r="BP2" s="317"/>
+      <c r="BQ2" s="317"/>
+      <c r="BR2" s="317"/>
+      <c r="BS2" s="317"/>
+      <c r="BT2" s="317"/>
+      <c r="BU2" s="317"/>
+      <c r="BV2" s="317"/>
+      <c r="BW2" s="317"/>
+      <c r="BX2" s="317"/>
+      <c r="BY2" s="317"/>
+      <c r="BZ2" s="317"/>
+      <c r="CA2" s="317"/>
+      <c r="CB2" s="318"/>
+      <c r="CC2" s="319"/>
+      <c r="CD2" s="317"/>
+      <c r="CE2" s="317"/>
+      <c r="CF2" s="317"/>
+      <c r="CG2" s="317"/>
+      <c r="CH2" s="317"/>
+      <c r="CI2" s="317"/>
+      <c r="CJ2" s="317"/>
+      <c r="CK2" s="317"/>
+      <c r="CL2" s="317"/>
+      <c r="CM2" s="317"/>
+      <c r="CN2" s="317"/>
+      <c r="CO2" s="317"/>
+      <c r="CP2" s="317"/>
+      <c r="CQ2" s="317"/>
+      <c r="CR2" s="317"/>
+      <c r="CS2" s="317"/>
+      <c r="CT2" s="317"/>
+      <c r="CU2" s="317"/>
+      <c r="CV2" s="317"/>
+      <c r="CW2" s="317"/>
+      <c r="CX2" s="317"/>
+      <c r="CY2" s="317"/>
+      <c r="CZ2" s="317"/>
+      <c r="DA2" s="317"/>
+      <c r="DB2" s="318"/>
     </row>
     <row r="3" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11"/>
       <c r="C3" s="27"/>
       <c r="D3" s="48"/>
-      <c r="E3" s="329">
+      <c r="E3" s="320">
         <v>1</v>
       </c>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329">
+      <c r="F3" s="320"/>
+      <c r="G3" s="320">
         <v>2</v>
       </c>
-      <c r="H3" s="330"/>
-      <c r="I3" s="329">
+      <c r="H3" s="321"/>
+      <c r="I3" s="320">
         <v>3</v>
       </c>
-      <c r="J3" s="330"/>
-      <c r="K3" s="329">
+      <c r="J3" s="321"/>
+      <c r="K3" s="320">
         <v>4</v>
       </c>
-      <c r="L3" s="330"/>
-      <c r="M3" s="329">
+      <c r="L3" s="321"/>
+      <c r="M3" s="320">
         <v>5</v>
       </c>
-      <c r="N3" s="330"/>
-      <c r="O3" s="329">
+      <c r="N3" s="321"/>
+      <c r="O3" s="320">
         <v>6</v>
       </c>
-      <c r="P3" s="330"/>
-      <c r="Q3" s="329">
+      <c r="P3" s="321"/>
+      <c r="Q3" s="320">
         <v>7</v>
       </c>
-      <c r="R3" s="330"/>
-      <c r="S3" s="329">
+      <c r="R3" s="321"/>
+      <c r="S3" s="320">
         <v>8</v>
       </c>
-      <c r="T3" s="330"/>
-      <c r="U3" s="329">
+      <c r="T3" s="321"/>
+      <c r="U3" s="320">
         <v>9</v>
       </c>
-      <c r="V3" s="330"/>
-      <c r="W3" s="329">
+      <c r="V3" s="321"/>
+      <c r="W3" s="320">
         <v>10</v>
       </c>
-      <c r="X3" s="330"/>
-      <c r="Y3" s="329">
+      <c r="X3" s="321"/>
+      <c r="Y3" s="320">
         <v>11</v>
       </c>
-      <c r="Z3" s="330"/>
-      <c r="AA3" s="329">
+      <c r="Z3" s="321"/>
+      <c r="AA3" s="320">
         <v>12</v>
       </c>
-      <c r="AB3" s="331"/>
+      <c r="AB3" s="322"/>
       <c r="AC3" s="111"/>
       <c r="AD3" s="48"/>
-      <c r="AE3" s="329">
+      <c r="AE3" s="320">
         <v>1</v>
       </c>
-      <c r="AF3" s="329"/>
-      <c r="AG3" s="329">
+      <c r="AF3" s="320"/>
+      <c r="AG3" s="320">
         <v>2</v>
       </c>
-      <c r="AH3" s="330"/>
-      <c r="AI3" s="329">
+      <c r="AH3" s="321"/>
+      <c r="AI3" s="320">
         <v>3</v>
       </c>
-      <c r="AJ3" s="330"/>
-      <c r="AK3" s="329">
+      <c r="AJ3" s="321"/>
+      <c r="AK3" s="320">
         <v>4</v>
       </c>
-      <c r="AL3" s="330"/>
-      <c r="AM3" s="329">
+      <c r="AL3" s="321"/>
+      <c r="AM3" s="320">
         <v>5</v>
       </c>
-      <c r="AN3" s="330"/>
-      <c r="AO3" s="329">
+      <c r="AN3" s="321"/>
+      <c r="AO3" s="320">
         <v>6</v>
       </c>
-      <c r="AP3" s="330"/>
-      <c r="AQ3" s="329">
+      <c r="AP3" s="321"/>
+      <c r="AQ3" s="320">
         <v>7</v>
       </c>
-      <c r="AR3" s="330"/>
-      <c r="AS3" s="329">
+      <c r="AR3" s="321"/>
+      <c r="AS3" s="320">
         <v>8</v>
       </c>
-      <c r="AT3" s="330"/>
-      <c r="AU3" s="329">
+      <c r="AT3" s="321"/>
+      <c r="AU3" s="320">
         <v>9</v>
       </c>
-      <c r="AV3" s="330"/>
-      <c r="AW3" s="329">
+      <c r="AV3" s="321"/>
+      <c r="AW3" s="320">
         <v>10</v>
       </c>
-      <c r="AX3" s="330"/>
-      <c r="AY3" s="329">
+      <c r="AX3" s="321"/>
+      <c r="AY3" s="320">
         <v>11</v>
       </c>
-      <c r="AZ3" s="330"/>
-      <c r="BA3" s="329">
+      <c r="AZ3" s="321"/>
+      <c r="BA3" s="320">
         <v>12</v>
       </c>
-      <c r="BB3" s="331"/>
+      <c r="BB3" s="322"/>
       <c r="BC3" s="111"/>
       <c r="BD3" s="48"/>
-      <c r="BE3" s="329">
+      <c r="BE3" s="320">
         <v>1</v>
       </c>
-      <c r="BF3" s="329"/>
-      <c r="BG3" s="329">
+      <c r="BF3" s="320"/>
+      <c r="BG3" s="320">
         <v>2</v>
       </c>
-      <c r="BH3" s="330"/>
-      <c r="BI3" s="329">
+      <c r="BH3" s="321"/>
+      <c r="BI3" s="320">
         <v>3</v>
       </c>
-      <c r="BJ3" s="330"/>
-      <c r="BK3" s="329">
+      <c r="BJ3" s="321"/>
+      <c r="BK3" s="320">
         <v>4</v>
       </c>
-      <c r="BL3" s="330"/>
-      <c r="BM3" s="329">
+      <c r="BL3" s="321"/>
+      <c r="BM3" s="320">
         <v>5</v>
       </c>
-      <c r="BN3" s="330"/>
-      <c r="BO3" s="329">
+      <c r="BN3" s="321"/>
+      <c r="BO3" s="320">
         <v>6</v>
       </c>
-      <c r="BP3" s="330"/>
-      <c r="BQ3" s="329">
+      <c r="BP3" s="321"/>
+      <c r="BQ3" s="320">
         <v>7</v>
       </c>
-      <c r="BR3" s="330"/>
-      <c r="BS3" s="329">
+      <c r="BR3" s="321"/>
+      <c r="BS3" s="320">
         <v>8</v>
       </c>
-      <c r="BT3" s="330"/>
-      <c r="BU3" s="329">
+      <c r="BT3" s="321"/>
+      <c r="BU3" s="320">
         <v>9</v>
       </c>
-      <c r="BV3" s="330"/>
-      <c r="BW3" s="329">
+      <c r="BV3" s="321"/>
+      <c r="BW3" s="320">
         <v>10</v>
       </c>
-      <c r="BX3" s="330"/>
-      <c r="BY3" s="329">
+      <c r="BX3" s="321"/>
+      <c r="BY3" s="320">
         <v>11</v>
       </c>
-      <c r="BZ3" s="330"/>
-      <c r="CA3" s="329">
+      <c r="BZ3" s="321"/>
+      <c r="CA3" s="320">
         <v>12</v>
       </c>
-      <c r="CB3" s="331"/>
+      <c r="CB3" s="322"/>
       <c r="CC3" s="111"/>
       <c r="CD3" s="48"/>
-      <c r="CE3" s="329">
+      <c r="CE3" s="320">
         <v>1</v>
       </c>
-      <c r="CF3" s="329"/>
-      <c r="CG3" s="329">
+      <c r="CF3" s="320"/>
+      <c r="CG3" s="320">
         <v>2</v>
       </c>
-      <c r="CH3" s="329"/>
-      <c r="CI3" s="329">
+      <c r="CH3" s="320"/>
+      <c r="CI3" s="320">
         <v>3</v>
       </c>
-      <c r="CJ3" s="329"/>
-      <c r="CK3" s="329">
+      <c r="CJ3" s="320"/>
+      <c r="CK3" s="320">
         <v>4</v>
       </c>
-      <c r="CL3" s="329"/>
-      <c r="CM3" s="329">
+      <c r="CL3" s="320"/>
+      <c r="CM3" s="320">
         <v>5</v>
       </c>
-      <c r="CN3" s="329"/>
-      <c r="CO3" s="329">
+      <c r="CN3" s="320"/>
+      <c r="CO3" s="320">
         <v>6</v>
       </c>
-      <c r="CP3" s="329"/>
-      <c r="CQ3" s="329">
+      <c r="CP3" s="320"/>
+      <c r="CQ3" s="320">
         <v>7</v>
       </c>
-      <c r="CR3" s="329"/>
-      <c r="CS3" s="329">
+      <c r="CR3" s="320"/>
+      <c r="CS3" s="320">
         <v>8</v>
       </c>
-      <c r="CT3" s="329"/>
-      <c r="CU3" s="329">
+      <c r="CT3" s="320"/>
+      <c r="CU3" s="320">
         <v>9</v>
       </c>
-      <c r="CV3" s="329"/>
-      <c r="CW3" s="329">
+      <c r="CV3" s="320"/>
+      <c r="CW3" s="320">
         <v>10</v>
       </c>
-      <c r="CX3" s="329"/>
-      <c r="CY3" s="329">
+      <c r="CX3" s="320"/>
+      <c r="CY3" s="320">
         <v>11</v>
       </c>
-      <c r="CZ3" s="329"/>
-      <c r="DA3" s="329">
+      <c r="CZ3" s="320"/>
+      <c r="DA3" s="320">
         <v>12</v>
       </c>
-      <c r="DB3" s="329"/>
+      <c r="DB3" s="320"/>
     </row>
     <row r="4" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="194" t="s">
@@ -19164,372 +19164,372 @@
       <c r="C4" s="325" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="315" t="str" cm="1">
+      <c r="D4" s="326"/>
+      <c r="E4" s="329" t="str" cm="1">
         <f t="array" ref="E4">IF(COUNTA(INDEX(Buildings, E3))&gt;0,INDEX(Buildings, E3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="F4" s="316"/>
-      <c r="G4" s="327" t="str" cm="1">
+      <c r="F4" s="330"/>
+      <c r="G4" s="331" t="str" cm="1">
         <f t="array" ref="G4">IF(COUNTA(INDEX(Buildings, G3))&gt;0,INDEX(Buildings, G3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="H4" s="316"/>
-      <c r="I4" s="328" t="str" cm="1">
+      <c r="H4" s="330"/>
+      <c r="I4" s="332" t="str" cm="1">
         <f t="array" ref="I4">IF(COUNTA(INDEX(Buildings, I3))&gt;0,INDEX(Buildings, I3),"")</f>
         <v/>
       </c>
       <c r="J4" s="324"/>
-      <c r="K4" s="322" t="str" cm="1">
+      <c r="K4" s="323" t="str" cm="1">
         <f t="array" ref="K4">IF(COUNTA(INDEX(Buildings, K3))&gt;0,INDEX(Buildings, K3),"")</f>
         <v/>
       </c>
       <c r="L4" s="324"/>
-      <c r="M4" s="322" t="str" cm="1">
+      <c r="M4" s="323" t="str" cm="1">
         <f t="array" ref="M4">IF(COUNTA(INDEX(Buildings, M3))&gt;0,INDEX(Buildings, M3),"")</f>
         <v/>
       </c>
       <c r="N4" s="324"/>
-      <c r="O4" s="322" t="str" cm="1">
+      <c r="O4" s="323" t="str" cm="1">
         <f t="array" ref="O4">IF(COUNTA(INDEX(Buildings, O3))&gt;0,INDEX(Buildings, O3),"")</f>
         <v/>
       </c>
       <c r="P4" s="324"/>
-      <c r="Q4" s="322" t="str" cm="1">
+      <c r="Q4" s="323" t="str" cm="1">
         <f t="array" ref="Q4">IF(COUNTA(INDEX(Buildings, Q3))&gt;0,INDEX(Buildings, Q3),"")</f>
         <v/>
       </c>
       <c r="R4" s="324"/>
-      <c r="S4" s="322" t="str" cm="1">
+      <c r="S4" s="323" t="str" cm="1">
         <f t="array" ref="S4">IF(COUNTA(INDEX(Buildings, S3))&gt;0,INDEX(Buildings, S3),"")</f>
         <v/>
       </c>
       <c r="T4" s="324"/>
-      <c r="U4" s="322" t="str" cm="1">
+      <c r="U4" s="323" t="str" cm="1">
         <f t="array" ref="U4">IF(COUNTA(INDEX(Buildings, U3))&gt;0,INDEX(Buildings, U3),"")</f>
         <v/>
       </c>
       <c r="V4" s="324"/>
-      <c r="W4" s="322" t="str" cm="1">
+      <c r="W4" s="323" t="str" cm="1">
         <f t="array" ref="W4">IF(COUNTA(INDEX(Buildings, W3))&gt;0,INDEX(Buildings, W3),"")</f>
         <v/>
       </c>
       <c r="X4" s="324"/>
-      <c r="Y4" s="322" t="str" cm="1">
+      <c r="Y4" s="323" t="str" cm="1">
         <f t="array" ref="Y4">IF(COUNTA(INDEX(Buildings, Y3))&gt;0,INDEX(Buildings, Y3),"")</f>
         <v/>
       </c>
       <c r="Z4" s="324"/>
-      <c r="AA4" s="322" t="str" cm="1">
+      <c r="AA4" s="323" t="str" cm="1">
         <f t="array" ref="AA4">IF(COUNTA(INDEX(Buildings, AA3))&gt;0,INDEX(Buildings, AA3),"")</f>
         <v/>
       </c>
-      <c r="AB4" s="323"/>
-      <c r="AC4" s="318" t="s">
+      <c r="AB4" s="334"/>
+      <c r="AC4" s="335" t="s">
         <v>119</v>
       </c>
-      <c r="AD4" s="319"/>
-      <c r="AE4" s="315" t="str" cm="1">
+      <c r="AD4" s="326"/>
+      <c r="AE4" s="329" t="str" cm="1">
         <f t="array" ref="AE4">IF(COUNTA(INDEX(Buildings, AE3))&gt;0,INDEX(Buildings, AE3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="AF4" s="316"/>
-      <c r="AG4" s="315" t="str" cm="1">
+      <c r="AF4" s="330"/>
+      <c r="AG4" s="329" t="str" cm="1">
         <f t="array" ref="AG4">IF(COUNTA(INDEX(Buildings, AG3))&gt;0,INDEX(Buildings, AG3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="AH4" s="316"/>
-      <c r="AI4" s="315" t="str" cm="1">
+      <c r="AH4" s="330"/>
+      <c r="AI4" s="329" t="str" cm="1">
         <f t="array" ref="AI4">IF(COUNTA(INDEX(Buildings, AI3))&gt;0,INDEX(Buildings, AI3),"")</f>
         <v/>
       </c>
-      <c r="AJ4" s="316"/>
-      <c r="AK4" s="315" t="str" cm="1">
+      <c r="AJ4" s="330"/>
+      <c r="AK4" s="329" t="str" cm="1">
         <f t="array" ref="AK4">IF(COUNTA(INDEX(Buildings, AK3))&gt;0,INDEX(Buildings, AK3),"")</f>
         <v/>
       </c>
-      <c r="AL4" s="316"/>
-      <c r="AM4" s="315" t="str" cm="1">
+      <c r="AL4" s="330"/>
+      <c r="AM4" s="329" t="str" cm="1">
         <f t="array" ref="AM4">IF(COUNTA(INDEX(Buildings, AM3))&gt;0,INDEX(Buildings, AM3),"")</f>
         <v/>
       </c>
-      <c r="AN4" s="316"/>
-      <c r="AO4" s="315" t="str" cm="1">
+      <c r="AN4" s="330"/>
+      <c r="AO4" s="329" t="str" cm="1">
         <f t="array" ref="AO4">IF(COUNTA(INDEX(Buildings, AO3))&gt;0,INDEX(Buildings, AO3),"")</f>
         <v/>
       </c>
-      <c r="AP4" s="316"/>
-      <c r="AQ4" s="315" t="str" cm="1">
+      <c r="AP4" s="330"/>
+      <c r="AQ4" s="329" t="str" cm="1">
         <f t="array" ref="AQ4">IF(COUNTA(INDEX(Buildings, AQ3))&gt;0,INDEX(Buildings, AQ3),"")</f>
         <v/>
       </c>
-      <c r="AR4" s="316"/>
-      <c r="AS4" s="315" t="str" cm="1">
+      <c r="AR4" s="330"/>
+      <c r="AS4" s="329" t="str" cm="1">
         <f t="array" ref="AS4">IF(COUNTA(INDEX(Buildings, AS3))&gt;0,INDEX(Buildings, AS3),"")</f>
         <v/>
       </c>
-      <c r="AT4" s="316"/>
-      <c r="AU4" s="315" t="str" cm="1">
+      <c r="AT4" s="330"/>
+      <c r="AU4" s="329" t="str" cm="1">
         <f t="array" ref="AU4">IF(COUNTA(INDEX(Buildings, AU3))&gt;0,INDEX(Buildings, AU3),"")</f>
         <v/>
       </c>
-      <c r="AV4" s="316"/>
-      <c r="AW4" s="315" t="str" cm="1">
+      <c r="AV4" s="330"/>
+      <c r="AW4" s="329" t="str" cm="1">
         <f t="array" ref="AW4">IF(COUNTA(INDEX(Buildings, AW3))&gt;0,INDEX(Buildings, AW3),"")</f>
         <v/>
       </c>
-      <c r="AX4" s="316"/>
-      <c r="AY4" s="315" t="str" cm="1">
+      <c r="AX4" s="330"/>
+      <c r="AY4" s="329" t="str" cm="1">
         <f t="array" ref="AY4">IF(COUNTA(INDEX(Buildings, AY3))&gt;0,INDEX(Buildings, AY3),"")</f>
         <v/>
       </c>
-      <c r="AZ4" s="316"/>
-      <c r="BA4" s="315" t="str" cm="1">
+      <c r="AZ4" s="330"/>
+      <c r="BA4" s="329" t="str" cm="1">
         <f t="array" ref="BA4">IF(COUNTA(INDEX(Buildings, BA3))&gt;0,INDEX(Buildings, BA3),"")</f>
         <v/>
       </c>
-      <c r="BB4" s="317"/>
-      <c r="BC4" s="318" t="s">
+      <c r="BB4" s="337"/>
+      <c r="BC4" s="335" t="s">
         <v>119</v>
       </c>
-      <c r="BD4" s="319"/>
-      <c r="BE4" s="315" t="str" cm="1">
+      <c r="BD4" s="326"/>
+      <c r="BE4" s="329" t="str" cm="1">
         <f t="array" ref="BE4">IF(COUNTA(INDEX(Buildings, BE3))&gt;0,INDEX(Buildings, BE3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="BF4" s="316"/>
-      <c r="BG4" s="315" t="str" cm="1">
+      <c r="BF4" s="330"/>
+      <c r="BG4" s="329" t="str" cm="1">
         <f t="array" ref="BG4">IF(COUNTA(INDEX(Buildings, BG3))&gt;0,INDEX(Buildings, BG3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="BH4" s="316"/>
-      <c r="BI4" s="315" t="str" cm="1">
+      <c r="BH4" s="330"/>
+      <c r="BI4" s="329" t="str" cm="1">
         <f t="array" ref="BI4">IF(COUNTA(INDEX(Buildings, BI3))&gt;0,INDEX(Buildings, BI3),"")</f>
         <v/>
       </c>
-      <c r="BJ4" s="316"/>
-      <c r="BK4" s="315" t="str" cm="1">
+      <c r="BJ4" s="330"/>
+      <c r="BK4" s="329" t="str" cm="1">
         <f t="array" ref="BK4">IF(COUNTA(INDEX(Buildings, BK3))&gt;0,INDEX(Buildings, BK3),"")</f>
         <v/>
       </c>
-      <c r="BL4" s="316"/>
-      <c r="BM4" s="315" t="str" cm="1">
+      <c r="BL4" s="330"/>
+      <c r="BM4" s="329" t="str" cm="1">
         <f t="array" ref="BM4">IF(COUNTA(INDEX(Buildings, BM3))&gt;0,INDEX(Buildings, BM3),"")</f>
         <v/>
       </c>
-      <c r="BN4" s="316"/>
-      <c r="BO4" s="315" t="str" cm="1">
+      <c r="BN4" s="330"/>
+      <c r="BO4" s="329" t="str" cm="1">
         <f t="array" ref="BO4">IF(COUNTA(INDEX(Buildings, BO3))&gt;0,INDEX(Buildings, BO3),"")</f>
         <v/>
       </c>
-      <c r="BP4" s="316"/>
-      <c r="BQ4" s="315" t="str" cm="1">
+      <c r="BP4" s="330"/>
+      <c r="BQ4" s="329" t="str" cm="1">
         <f t="array" ref="BQ4">IF(COUNTA(INDEX(Buildings, BQ3))&gt;0,INDEX(Buildings, BQ3),"")</f>
         <v/>
       </c>
-      <c r="BR4" s="316"/>
-      <c r="BS4" s="315" t="str" cm="1">
+      <c r="BR4" s="330"/>
+      <c r="BS4" s="329" t="str" cm="1">
         <f t="array" ref="BS4">IF(COUNTA(INDEX(Buildings, BS3))&gt;0,INDEX(Buildings, BS3),"")</f>
         <v/>
       </c>
-      <c r="BT4" s="316"/>
-      <c r="BU4" s="315" t="str" cm="1">
+      <c r="BT4" s="330"/>
+      <c r="BU4" s="329" t="str" cm="1">
         <f t="array" ref="BU4">IF(COUNTA(INDEX(Buildings, BU3))&gt;0,INDEX(Buildings, BU3),"")</f>
         <v/>
       </c>
-      <c r="BV4" s="316"/>
-      <c r="BW4" s="315" t="str" cm="1">
+      <c r="BV4" s="330"/>
+      <c r="BW4" s="329" t="str" cm="1">
         <f t="array" ref="BW4">IF(COUNTA(INDEX(Buildings, BW3))&gt;0,INDEX(Buildings, BW3),"")</f>
         <v/>
       </c>
-      <c r="BX4" s="316"/>
-      <c r="BY4" s="315" t="str" cm="1">
+      <c r="BX4" s="330"/>
+      <c r="BY4" s="329" t="str" cm="1">
         <f t="array" ref="BY4">IF(COUNTA(INDEX(Buildings, BY3))&gt;0,INDEX(Buildings, BY3),"")</f>
         <v/>
       </c>
-      <c r="BZ4" s="316"/>
-      <c r="CA4" s="315" t="str" cm="1">
+      <c r="BZ4" s="330"/>
+      <c r="CA4" s="329" t="str" cm="1">
         <f t="array" ref="CA4">IF(COUNTA(INDEX(Buildings, CA3))&gt;0,INDEX(Buildings, CA3),"")</f>
         <v/>
       </c>
-      <c r="CB4" s="317"/>
-      <c r="CC4" s="318" t="s">
+      <c r="CB4" s="337"/>
+      <c r="CC4" s="335" t="s">
         <v>119</v>
       </c>
-      <c r="CD4" s="319"/>
-      <c r="CE4" s="315" t="str" cm="1">
+      <c r="CD4" s="326"/>
+      <c r="CE4" s="329" t="str" cm="1">
         <f t="array" ref="CE4">IF(COUNTA(INDEX(Buildings, CE3))&gt;0,INDEX(Buildings, CE3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="CF4" s="316"/>
-      <c r="CG4" s="315" t="str" cm="1">
+      <c r="CF4" s="330"/>
+      <c r="CG4" s="329" t="str" cm="1">
         <f t="array" ref="CG4">IF(COUNTA(INDEX(Buildings, CG3))&gt;0,INDEX(Buildings, CG3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="CH4" s="316"/>
-      <c r="CI4" s="315" t="str" cm="1">
+      <c r="CH4" s="330"/>
+      <c r="CI4" s="329" t="str" cm="1">
         <f t="array" ref="CI4">IF(COUNTA(INDEX(Buildings, CI3))&gt;0,INDEX(Buildings, CI3),"")</f>
         <v/>
       </c>
-      <c r="CJ4" s="316"/>
-      <c r="CK4" s="315" t="str" cm="1">
+      <c r="CJ4" s="330"/>
+      <c r="CK4" s="329" t="str" cm="1">
         <f t="array" ref="CK4">IF(COUNTA(INDEX(Buildings, CK3))&gt;0,INDEX(Buildings, CK3),"")</f>
         <v/>
       </c>
-      <c r="CL4" s="316"/>
-      <c r="CM4" s="315" t="str" cm="1">
+      <c r="CL4" s="330"/>
+      <c r="CM4" s="329" t="str" cm="1">
         <f t="array" ref="CM4">IF(COUNTA(INDEX(Buildings, CM3))&gt;0,INDEX(Buildings, CM3),"")</f>
         <v/>
       </c>
-      <c r="CN4" s="316"/>
-      <c r="CO4" s="315" t="str" cm="1">
+      <c r="CN4" s="330"/>
+      <c r="CO4" s="329" t="str" cm="1">
         <f t="array" ref="CO4">IF(COUNTA(INDEX(Buildings, CO3))&gt;0,INDEX(Buildings, CO3),"")</f>
         <v/>
       </c>
-      <c r="CP4" s="316"/>
-      <c r="CQ4" s="315" t="str" cm="1">
+      <c r="CP4" s="330"/>
+      <c r="CQ4" s="329" t="str" cm="1">
         <f t="array" ref="CQ4">IF(COUNTA(INDEX(Buildings, CQ3))&gt;0,INDEX(Buildings, CQ3),"")</f>
         <v/>
       </c>
-      <c r="CR4" s="316"/>
-      <c r="CS4" s="315" t="str" cm="1">
+      <c r="CR4" s="330"/>
+      <c r="CS4" s="329" t="str" cm="1">
         <f t="array" ref="CS4">IF(COUNTA(INDEX(Buildings, CS3))&gt;0,INDEX(Buildings, CS3),"")</f>
         <v/>
       </c>
-      <c r="CT4" s="316"/>
-      <c r="CU4" s="315" t="str" cm="1">
+      <c r="CT4" s="330"/>
+      <c r="CU4" s="329" t="str" cm="1">
         <f t="array" ref="CU4">IF(COUNTA(INDEX(Buildings, CU3))&gt;0,INDEX(Buildings, CU3),"")</f>
         <v/>
       </c>
-      <c r="CV4" s="316"/>
-      <c r="CW4" s="315" t="str" cm="1">
+      <c r="CV4" s="330"/>
+      <c r="CW4" s="329" t="str" cm="1">
         <f t="array" ref="CW4">IF(COUNTA(INDEX(Buildings, CW3))&gt;0,INDEX(Buildings, CW3),"")</f>
         <v/>
       </c>
-      <c r="CX4" s="316"/>
-      <c r="CY4" s="315" t="str" cm="1">
+      <c r="CX4" s="330"/>
+      <c r="CY4" s="329" t="str" cm="1">
         <f t="array" ref="CY4">IF(COUNTA(INDEX(Buildings, CY3))&gt;0,INDEX(Buildings, CY3),"")</f>
         <v/>
       </c>
-      <c r="CZ4" s="316"/>
-      <c r="DA4" s="315" t="str" cm="1">
+      <c r="CZ4" s="330"/>
+      <c r="DA4" s="329" t="str" cm="1">
         <f t="array" ref="DA4">IF(COUNTA(INDEX(Buildings, DA3))&gt;0,INDEX(Buildings, DA3),"")</f>
         <v/>
       </c>
-      <c r="DB4" s="317"/>
+      <c r="DB4" s="337"/>
     </row>
     <row r="5" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="194" t="s">
         <v>577</v>
       </c>
-      <c r="C5" s="326"/>
-      <c r="D5" s="321"/>
-      <c r="E5" s="312">
+      <c r="C5" s="327"/>
+      <c r="D5" s="328"/>
+      <c r="E5" s="317">
         <v>594</v>
       </c>
-      <c r="F5" s="313"/>
-      <c r="G5" s="312">
+      <c r="F5" s="333"/>
+      <c r="G5" s="317">
         <v>212</v>
       </c>
-      <c r="H5" s="313"/>
-      <c r="I5" s="312"/>
-      <c r="J5" s="313"/>
-      <c r="K5" s="312"/>
-      <c r="L5" s="313"/>
-      <c r="M5" s="312"/>
-      <c r="N5" s="313"/>
-      <c r="O5" s="312"/>
-      <c r="P5" s="313"/>
-      <c r="Q5" s="312"/>
-      <c r="R5" s="313"/>
-      <c r="S5" s="312"/>
-      <c r="T5" s="313"/>
-      <c r="U5" s="312"/>
-      <c r="V5" s="313"/>
-      <c r="W5" s="312"/>
-      <c r="X5" s="313"/>
-      <c r="Y5" s="312"/>
-      <c r="Z5" s="313"/>
-      <c r="AA5" s="312"/>
-      <c r="AB5" s="314"/>
-      <c r="AC5" s="320"/>
-      <c r="AD5" s="321"/>
-      <c r="AE5" s="312"/>
-      <c r="AF5" s="313"/>
-      <c r="AG5" s="312"/>
-      <c r="AH5" s="313"/>
-      <c r="AI5" s="312"/>
-      <c r="AJ5" s="313"/>
-      <c r="AK5" s="312"/>
-      <c r="AL5" s="313"/>
-      <c r="AM5" s="312"/>
-      <c r="AN5" s="313"/>
-      <c r="AO5" s="312"/>
-      <c r="AP5" s="313"/>
-      <c r="AQ5" s="312"/>
-      <c r="AR5" s="313"/>
-      <c r="AS5" s="312"/>
-      <c r="AT5" s="313"/>
-      <c r="AU5" s="312"/>
-      <c r="AV5" s="313"/>
-      <c r="AW5" s="312"/>
-      <c r="AX5" s="313"/>
-      <c r="AY5" s="312"/>
-      <c r="AZ5" s="313"/>
-      <c r="BA5" s="312"/>
-      <c r="BB5" s="314"/>
-      <c r="BC5" s="320"/>
-      <c r="BD5" s="321"/>
-      <c r="BE5" s="312"/>
-      <c r="BF5" s="313"/>
-      <c r="BG5" s="312"/>
-      <c r="BH5" s="313"/>
-      <c r="BI5" s="312"/>
-      <c r="BJ5" s="313"/>
-      <c r="BK5" s="312"/>
-      <c r="BL5" s="313"/>
-      <c r="BM5" s="312"/>
-      <c r="BN5" s="313"/>
-      <c r="BO5" s="312"/>
-      <c r="BP5" s="313"/>
-      <c r="BQ5" s="312"/>
-      <c r="BR5" s="313"/>
-      <c r="BS5" s="312"/>
-      <c r="BT5" s="313"/>
-      <c r="BU5" s="312"/>
-      <c r="BV5" s="313"/>
-      <c r="BW5" s="312"/>
-      <c r="BX5" s="313"/>
-      <c r="BY5" s="312"/>
-      <c r="BZ5" s="313"/>
-      <c r="CA5" s="312"/>
-      <c r="CB5" s="314"/>
-      <c r="CC5" s="320"/>
-      <c r="CD5" s="321"/>
-      <c r="CE5" s="312"/>
-      <c r="CF5" s="313"/>
-      <c r="CG5" s="312"/>
-      <c r="CH5" s="313"/>
-      <c r="CI5" s="312"/>
-      <c r="CJ5" s="313"/>
-      <c r="CK5" s="312"/>
-      <c r="CL5" s="313"/>
-      <c r="CM5" s="312"/>
-      <c r="CN5" s="313"/>
-      <c r="CO5" s="312"/>
-      <c r="CP5" s="313"/>
-      <c r="CQ5" s="312"/>
-      <c r="CR5" s="313"/>
-      <c r="CS5" s="312"/>
-      <c r="CT5" s="313"/>
-      <c r="CU5" s="312"/>
-      <c r="CV5" s="313"/>
-      <c r="CW5" s="312"/>
-      <c r="CX5" s="313"/>
-      <c r="CY5" s="312"/>
-      <c r="CZ5" s="313"/>
-      <c r="DA5" s="312"/>
-      <c r="DB5" s="314"/>
+      <c r="H5" s="333"/>
+      <c r="I5" s="317"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="333"/>
+      <c r="M5" s="317"/>
+      <c r="N5" s="333"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="333"/>
+      <c r="Q5" s="317"/>
+      <c r="R5" s="333"/>
+      <c r="S5" s="317"/>
+      <c r="T5" s="333"/>
+      <c r="U5" s="317"/>
+      <c r="V5" s="333"/>
+      <c r="W5" s="317"/>
+      <c r="X5" s="333"/>
+      <c r="Y5" s="317"/>
+      <c r="Z5" s="333"/>
+      <c r="AA5" s="317"/>
+      <c r="AB5" s="318"/>
+      <c r="AC5" s="336"/>
+      <c r="AD5" s="328"/>
+      <c r="AE5" s="317"/>
+      <c r="AF5" s="333"/>
+      <c r="AG5" s="317"/>
+      <c r="AH5" s="333"/>
+      <c r="AI5" s="317"/>
+      <c r="AJ5" s="333"/>
+      <c r="AK5" s="317"/>
+      <c r="AL5" s="333"/>
+      <c r="AM5" s="317"/>
+      <c r="AN5" s="333"/>
+      <c r="AO5" s="317"/>
+      <c r="AP5" s="333"/>
+      <c r="AQ5" s="317"/>
+      <c r="AR5" s="333"/>
+      <c r="AS5" s="317"/>
+      <c r="AT5" s="333"/>
+      <c r="AU5" s="317"/>
+      <c r="AV5" s="333"/>
+      <c r="AW5" s="317"/>
+      <c r="AX5" s="333"/>
+      <c r="AY5" s="317"/>
+      <c r="AZ5" s="333"/>
+      <c r="BA5" s="317"/>
+      <c r="BB5" s="318"/>
+      <c r="BC5" s="336"/>
+      <c r="BD5" s="328"/>
+      <c r="BE5" s="317"/>
+      <c r="BF5" s="333"/>
+      <c r="BG5" s="317"/>
+      <c r="BH5" s="333"/>
+      <c r="BI5" s="317"/>
+      <c r="BJ5" s="333"/>
+      <c r="BK5" s="317"/>
+      <c r="BL5" s="333"/>
+      <c r="BM5" s="317"/>
+      <c r="BN5" s="333"/>
+      <c r="BO5" s="317"/>
+      <c r="BP5" s="333"/>
+      <c r="BQ5" s="317"/>
+      <c r="BR5" s="333"/>
+      <c r="BS5" s="317"/>
+      <c r="BT5" s="333"/>
+      <c r="BU5" s="317"/>
+      <c r="BV5" s="333"/>
+      <c r="BW5" s="317"/>
+      <c r="BX5" s="333"/>
+      <c r="BY5" s="317"/>
+      <c r="BZ5" s="333"/>
+      <c r="CA5" s="317"/>
+      <c r="CB5" s="318"/>
+      <c r="CC5" s="336"/>
+      <c r="CD5" s="328"/>
+      <c r="CE5" s="317"/>
+      <c r="CF5" s="333"/>
+      <c r="CG5" s="317"/>
+      <c r="CH5" s="333"/>
+      <c r="CI5" s="317"/>
+      <c r="CJ5" s="333"/>
+      <c r="CK5" s="317"/>
+      <c r="CL5" s="333"/>
+      <c r="CM5" s="317"/>
+      <c r="CN5" s="333"/>
+      <c r="CO5" s="317"/>
+      <c r="CP5" s="333"/>
+      <c r="CQ5" s="317"/>
+      <c r="CR5" s="333"/>
+      <c r="CS5" s="317"/>
+      <c r="CT5" s="333"/>
+      <c r="CU5" s="317"/>
+      <c r="CV5" s="333"/>
+      <c r="CW5" s="317"/>
+      <c r="CX5" s="333"/>
+      <c r="CY5" s="317"/>
+      <c r="CZ5" s="333"/>
+      <c r="DA5" s="317"/>
+      <c r="DB5" s="318"/>
     </row>
     <row r="6" spans="1:106" s="122" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="117"/>
@@ -48156,6 +48156,138 @@
     </row>
   </sheetData>
   <mergeCells count="156">
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CW5:CX5"/>
+    <mergeCell ref="CY5:CZ5"/>
+    <mergeCell ref="DA5:DB5"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CK5:CL5"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CQ5:CR5"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="CU4:CV4"/>
+    <mergeCell ref="CW4:CX4"/>
+    <mergeCell ref="CY4:CZ4"/>
+    <mergeCell ref="DA4:DB4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="CI4:CJ4"/>
+    <mergeCell ref="CK4:CL4"/>
+    <mergeCell ref="CM4:CN4"/>
+    <mergeCell ref="CO4:CP4"/>
+    <mergeCell ref="CQ4:CR4"/>
+    <mergeCell ref="CS4:CT4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CC4:CD5"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CG4:CH4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD5"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD5"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CS3:CT3"/>
+    <mergeCell ref="CU3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DA3:DB3"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CK3:CL3"/>
+    <mergeCell ref="CM3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="C1:AB1"/>
     <mergeCell ref="AC1:BB1"/>
     <mergeCell ref="BC1:CB1"/>
@@ -48180,138 +48312,6 @@
     <mergeCell ref="AS3:AT3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BW3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CS3:CT3"/>
-    <mergeCell ref="CU3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DA3:DB3"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CK3:CL3"/>
-    <mergeCell ref="CM3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD5"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD5"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="CU4:CV4"/>
-    <mergeCell ref="CW4:CX4"/>
-    <mergeCell ref="CY4:CZ4"/>
-    <mergeCell ref="DA4:DB4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="CI4:CJ4"/>
-    <mergeCell ref="CK4:CL4"/>
-    <mergeCell ref="CM4:CN4"/>
-    <mergeCell ref="CO4:CP4"/>
-    <mergeCell ref="CQ4:CR4"/>
-    <mergeCell ref="CS4:CT4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CC4:CD5"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CG4:CH4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CW5:CX5"/>
-    <mergeCell ref="CY5:CZ5"/>
-    <mergeCell ref="DA5:DB5"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CK5:CL5"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CQ5:CR5"/>
-    <mergeCell ref="CS5:CT5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53041,14 +53041,48 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A423:E423"/>
-    <mergeCell ref="A430:E430"/>
-    <mergeCell ref="A381:E381"/>
-    <mergeCell ref="A388:E388"/>
-    <mergeCell ref="A395:E395"/>
-    <mergeCell ref="A402:E402"/>
-    <mergeCell ref="A409:E409"/>
-    <mergeCell ref="A416:E416"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="A290:E290"/>
+    <mergeCell ref="A213:E213"/>
+    <mergeCell ref="A220:E220"/>
+    <mergeCell ref="A227:E227"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A241:E241"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A262:E262"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A276:E276"/>
+    <mergeCell ref="A283:E283"/>
     <mergeCell ref="A374:E374"/>
     <mergeCell ref="A297:E297"/>
     <mergeCell ref="A304:E304"/>
@@ -53061,48 +53095,14 @@
     <mergeCell ref="A353:E353"/>
     <mergeCell ref="A360:E360"/>
     <mergeCell ref="A367:E367"/>
-    <mergeCell ref="A290:E290"/>
-    <mergeCell ref="A213:E213"/>
-    <mergeCell ref="A220:E220"/>
-    <mergeCell ref="A227:E227"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A241:E241"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A262:E262"/>
-    <mergeCell ref="A269:E269"/>
-    <mergeCell ref="A276:E276"/>
-    <mergeCell ref="A283:E283"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A423:E423"/>
+    <mergeCell ref="A430:E430"/>
+    <mergeCell ref="A381:E381"/>
+    <mergeCell ref="A388:E388"/>
+    <mergeCell ref="A395:E395"/>
+    <mergeCell ref="A402:E402"/>
+    <mergeCell ref="A409:E409"/>
+    <mergeCell ref="A416:E416"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53113,7 +53113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CF6DF5-49DC-423B-BA7C-6167564D1599}">
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/MORPHE2US.xlsx
+++ b/MORPHE2US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Documents\MasterArbeit - Documents\MORPHE2US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A3A5CC-49D2-47BE-8C72-D27F739AF783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC74F56-3FFF-46CE-8331-2A67E56319C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2490" windowWidth="29040" windowHeight="15720" tabRatio="713" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,6 @@
     <definedName name="Units">Units!$D$3:$XFD$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -191,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="700">
   <si>
     <t>Model</t>
   </si>
@@ -1134,9 +1133,6 @@
     <t>Single time</t>
   </si>
   <si>
-    <t>5Y</t>
-  </si>
-  <si>
     <t>connection_capacity(from_node)</t>
   </si>
   <si>
@@ -2256,9 +2252,6 @@
     <t>MFH</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>2049=0; 2050=0</t>
   </si>
   <si>
@@ -2316,16 +2309,7 @@
     <t>NaM_building_retrofits</t>
   </si>
   <si>
-    <t>Scenario 1</t>
-  </si>
-  <si>
-    <t>Scenario 2</t>
-  </si>
-  <si>
     <t>Scenario name</t>
-  </si>
-  <si>
-    <t>1D</t>
   </si>
   <si>
     <t>Basic</t>
@@ -2662,7 +2646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -3186,21 +3170,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -3228,21 +3197,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3250,7 +3204,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4042,21 +3996,7 @@
     <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4065,7 +4005,67 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4083,67 +4083,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4559,10 +4499,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4572,12 +4512,11 @@
     <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="12" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
@@ -4599,30 +4538,52 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="301" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="302" t="s">
-        <v>704</v>
-      </c>
-      <c r="F2" s="302" t="s">
-        <v>700</v>
-      </c>
-      <c r="G2" s="302" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+      <c r="F2" s="302"/>
+      <c r="G2" s="302"/>
+      <c r="H2" s="302"/>
+      <c r="I2" s="302"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="69" t="s">
         <v>153</v>
       </c>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
@@ -4635,19 +4596,20 @@
       <c r="E4" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="167" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="167" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D5" s="132" t="s">
         <v>104</v>
@@ -4655,19 +4617,20 @@
       <c r="E5" s="139">
         <v>45658</v>
       </c>
-      <c r="F5" s="139">
-        <v>45658</v>
-      </c>
-      <c r="G5" s="139">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="66" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D6" s="133" t="s">
         <v>105</v>
@@ -4675,14 +4638,15 @@
       <c r="E6" s="168">
         <v>54789</v>
       </c>
-      <c r="F6" s="168">
-        <v>54789</v>
-      </c>
-      <c r="G6" s="168">
-        <v>54789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>233</v>
       </c>
@@ -4695,19 +4659,20 @@
       <c r="E7" s="138">
         <v>0.05</v>
       </c>
-      <c r="F7" s="138">
-        <v>0.05</v>
-      </c>
-      <c r="G7" s="138">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D8" s="132" t="s">
         <v>103</v>
@@ -4715,14 +4680,15 @@
       <c r="E8" s="139">
         <v>45658</v>
       </c>
-      <c r="F8" s="139">
-        <v>45658</v>
-      </c>
-      <c r="G8" s="139">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>234</v>
       </c>
@@ -4736,13 +4702,28 @@
         <v>1</v>
       </c>
       <c r="F9" s="140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="140" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="H9" s="140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="140" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="140" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="140" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>235</v>
       </c>
@@ -4761,17 +4742,44 @@
       <c r="G10" s="141" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="69" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>154</v>
       </c>
@@ -4785,13 +4793,28 @@
         <v>1</v>
       </c>
       <c r="F13" s="142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="142" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="142" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
@@ -4802,16 +4825,17 @@
         <v>101</v>
       </c>
       <c r="E14" s="143" t="s">
-        <v>434</v>
-      </c>
-      <c r="F14" s="143" t="s">
-        <v>434</v>
-      </c>
-      <c r="G14" s="143" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="66" t="s">
         <v>10</v>
       </c>
@@ -4822,24 +4846,25 @@
         <v>106</v>
       </c>
       <c r="E15" s="156" t="s">
-        <v>555</v>
-      </c>
-      <c r="F15" s="156" t="s">
-        <v>703</v>
-      </c>
-      <c r="G15" s="156" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C16" s="160" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="134" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E16" s="145" t="b">
         <v>0</v>
@@ -4850,8 +4875,23 @@
       <c r="G16" s="145" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
@@ -4862,12 +4902,17 @@
         <v>101</v>
       </c>
       <c r="E17" s="163" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F17" s="163"/>
       <c r="G17" s="163"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" s="66" t="s">
         <v>10</v>
       </c>
@@ -4878,28 +4923,38 @@
         <v>106</v>
       </c>
       <c r="E18" s="159" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F18" s="159"/>
       <c r="G18" s="159"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C19" s="162" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D19" s="164" t="s">
-        <v>430</v>
-      </c>
       <c r="E19" s="146" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F19" s="146"/>
       <c r="G19" s="146"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="51" t="s">
         <v>23</v>
       </c>
@@ -4918,17 +4973,44 @@
       <c r="G20" s="144" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="144" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="144" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>305</v>
       </c>
@@ -4947,8 +5029,23 @@
       <c r="G23" s="145" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>22</v>
       </c>
@@ -4963,13 +5060,18 @@
       </c>
       <c r="F24" s="146"/>
       <c r="G24" s="146"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D25" s="136" t="s">
         <v>107</v>
@@ -4979,8 +5081,13 @@
       </c>
       <c r="F25" s="147"/>
       <c r="G25" s="147"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
@@ -4994,13 +5101,28 @@
         <v>0</v>
       </c>
       <c r="F26" s="145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="145" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
@@ -5013,26 +5135,32 @@
       <c r="E27" s="146"/>
       <c r="F27" s="146"/>
       <c r="G27" s="146"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="67" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D28" s="135" t="s">
         <v>107</v>
       </c>
       <c r="E28" s="148"/>
-      <c r="F28" s="148">
-        <v>45658</v>
-      </c>
-      <c r="G28" s="148">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
         <v>236</v>
       </c>
@@ -5043,156 +5171,214 @@
         <v>106</v>
       </c>
       <c r="E29" s="149"/>
-      <c r="F29" s="149" t="s">
-        <v>306</v>
-      </c>
-      <c r="G29" s="149" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C30" s="54" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="136" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E30" s="145" t="b">
         <v>1</v>
       </c>
       <c r="F30" s="145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="145" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="H30" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="69" t="s">
         <v>301</v>
       </c>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="308" t="s">
+      <c r="D33" s="305" t="s">
         <v>303</v>
       </c>
       <c r="E33" s="150" t="b">
         <v>1</v>
       </c>
       <c r="F33" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="303" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G33" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>406</v>
-      </c>
-      <c r="D34" s="309" t="s">
+        <v>405</v>
+      </c>
+      <c r="D34" s="306" t="s">
         <v>304</v>
       </c>
-      <c r="E34" s="304" t="s">
-        <v>681</v>
-      </c>
-      <c r="F34" s="304" t="s">
-        <v>681</v>
-      </c>
-      <c r="G34" s="305" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="303" t="s">
+        <v>679</v>
+      </c>
+      <c r="F34" s="303"/>
+      <c r="G34" s="303"/>
+      <c r="H34" s="303"/>
+      <c r="I34" s="303"/>
+      <c r="J34" s="303"/>
+      <c r="K34" s="303"/>
+      <c r="L34" s="303"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="69" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37" s="300" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>694</v>
-      </c>
-      <c r="D37" s="308" t="s">
-        <v>693</v>
+        <v>692</v>
+      </c>
+      <c r="D37" s="305" t="s">
+        <v>691</v>
       </c>
       <c r="E37" s="298">
         <v>15</v>
       </c>
-      <c r="F37" s="298">
-        <v>15</v>
-      </c>
-      <c r="G37" s="306">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="307" t="s">
-        <v>696</v>
+      <c r="F37" s="298"/>
+      <c r="G37" s="298"/>
+      <c r="H37" s="298"/>
+      <c r="I37" s="298"/>
+      <c r="J37" s="298"/>
+      <c r="K37" s="298"/>
+      <c r="L37" s="298"/>
+    </row>
+    <row r="38" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="304" t="s">
+        <v>694</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>695</v>
-      </c>
-      <c r="D38" s="309" t="s">
-        <v>692</v>
-      </c>
-      <c r="E38" s="304">
+        <v>693</v>
+      </c>
+      <c r="D38" s="306" t="s">
+        <v>690</v>
+      </c>
+      <c r="E38" s="303">
         <v>0.04</v>
       </c>
-      <c r="F38" s="304">
-        <v>0.04</v>
-      </c>
-      <c r="G38" s="305">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F38" s="303"/>
+      <c r="G38" s="303"/>
+      <c r="H38" s="303"/>
+      <c r="I38" s="303"/>
+      <c r="J38" s="303"/>
+      <c r="K38" s="303"/>
+      <c r="L38" s="303"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E40" s="169"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E41" s="169"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E42" s="169"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E43" s="169"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E44" s="169"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E45" s="169"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E46" s="169"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E47" s="169"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E48" s="169"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.3">
@@ -5244,6 +5430,7 @@
       <c r="E64" s="169"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5254,7 +5441,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -5312,30 +5499,30 @@
         <v>27</v>
       </c>
       <c r="F2" s="91" t="s">
+        <v>569</v>
+      </c>
+      <c r="G2" s="91" t="s">
         <v>570</v>
       </c>
-      <c r="G2" s="91" t="s">
-        <v>571</v>
-      </c>
       <c r="H2" s="91" t="s">
+        <v>542</v>
+      </c>
+      <c r="I2" s="91" t="s">
         <v>543</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="J2" s="91" t="s">
         <v>544</v>
-      </c>
-      <c r="J2" s="91" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="71" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="171" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D3" s="153" t="b">
         <v>0</v>
@@ -5361,13 +5548,13 @@
     </row>
     <row r="4" spans="1:10" s="8" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="90" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="172" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D4" s="94" t="b">
         <v>0</v>
@@ -5417,7 +5604,7 @@
     </row>
     <row r="7" spans="1:10" s="79" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B7" s="80">
         <v>1</v>
@@ -5433,7 +5620,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="72" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>5</v>
@@ -5442,28 +5629,28 @@
         <v>101</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E8" s="91"/>
       <c r="F8" s="91" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G8" s="91"/>
       <c r="H8" s="91"/>
       <c r="I8" s="91"/>
       <c r="J8" s="91" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="72" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="171" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D9" s="91">
         <v>1</v>
@@ -5481,13 +5668,13 @@
     </row>
     <row r="10" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="72" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B10" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="171" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D10" s="91"/>
       <c r="E10" s="91"/>
@@ -5523,7 +5710,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="171" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D12" s="92" t="s">
         <v>159</v>
@@ -5547,7 +5734,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D13" s="91"/>
       <c r="E13" s="91"/>
@@ -5579,7 +5766,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D15" s="91" t="s">
         <v>159</v>
@@ -5603,25 +5790,25 @@
         <v>5</v>
       </c>
       <c r="C16" s="171" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E16" s="91"/>
       <c r="F16" s="91" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G16" s="91"/>
       <c r="H16" s="91"/>
       <c r="I16" s="91"/>
       <c r="J16" s="91" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="200" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C17" s="171"/>
       <c r="D17" s="91"/>
@@ -5646,7 +5833,7 @@
     </row>
     <row r="19" spans="1:10" s="79" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B19" s="80">
         <v>2</v>
@@ -5662,7 +5849,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="72" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>5</v>
@@ -5680,13 +5867,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="72" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="171" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="91"/>
       <c r="E21" s="91"/>
@@ -5698,13 +5885,13 @@
     </row>
     <row r="22" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="72" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="171" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D22" s="91"/>
       <c r="E22" s="91"/>
@@ -5736,7 +5923,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="171" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D24" s="92"/>
       <c r="E24" s="92"/>
@@ -5754,7 +5941,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D25" s="91"/>
       <c r="E25" s="91"/>
@@ -5786,7 +5973,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D27" s="91"/>
       <c r="E27" s="91"/>
@@ -5804,7 +5991,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="171" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D28" s="91"/>
       <c r="E28" s="91"/>
@@ -5816,7 +6003,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="200" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C29" s="171"/>
       <c r="D29" s="91"/>
@@ -5841,7 +6028,7 @@
     </row>
     <row r="31" spans="1:10" s="79" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B31" s="80">
         <v>3</v>
@@ -5857,7 +6044,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="72" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B32" s="42" t="s">
         <v>5</v>
@@ -5875,13 +6062,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="72" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B33" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="171" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D33" s="91"/>
       <c r="E33" s="91"/>
@@ -5893,13 +6080,13 @@
     </row>
     <row r="34" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="72" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B34" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="171" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D34" s="91"/>
       <c r="E34" s="91"/>
@@ -5931,7 +6118,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="171" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D36" s="92"/>
       <c r="E36" s="92"/>
@@ -5949,7 +6136,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D37" s="91"/>
       <c r="E37" s="91"/>
@@ -5981,7 +6168,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D39" s="91"/>
       <c r="E39" s="91"/>
@@ -5999,7 +6186,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="171" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D40" s="91"/>
       <c r="E40" s="91"/>
@@ -6011,7 +6198,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="200" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C41" s="171"/>
       <c r="D41" s="91"/>
@@ -6036,7 +6223,7 @@
     </row>
     <row r="43" spans="1:10" s="79" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B43" s="80">
         <v>4</v>
@@ -6052,7 +6239,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="72" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B44" s="42" t="s">
         <v>5</v>
@@ -6070,13 +6257,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="72" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B45" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="171" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D45" s="91"/>
       <c r="E45" s="91"/>
@@ -6088,13 +6275,13 @@
     </row>
     <row r="46" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="72" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B46" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="171" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D46" s="91"/>
       <c r="E46" s="91"/>
@@ -6126,7 +6313,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="171" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D48" s="92"/>
       <c r="E48" s="92"/>
@@ -6144,7 +6331,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D49" s="91"/>
       <c r="E49" s="91"/>
@@ -6176,7 +6363,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D51" s="91"/>
       <c r="E51" s="91"/>
@@ -6194,7 +6381,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="171" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D52" s="91"/>
       <c r="E52" s="91"/>
@@ -6206,7 +6393,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="200" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C53" s="171"/>
       <c r="D53" s="91"/>
@@ -6231,7 +6418,7 @@
     </row>
     <row r="55" spans="1:10" s="79" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B55" s="80">
         <v>5</v>
@@ -6247,7 +6434,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="72" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B56" s="42" t="s">
         <v>5</v>
@@ -6265,13 +6452,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="72" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B57" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="171" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D57" s="91"/>
       <c r="E57" s="91"/>
@@ -6283,13 +6470,13 @@
     </row>
     <row r="58" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="72" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B58" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C58" s="171" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D58" s="91"/>
       <c r="E58" s="91"/>
@@ -6321,7 +6508,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="171" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D60" s="92"/>
       <c r="E60" s="92"/>
@@ -6339,7 +6526,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D61" s="91"/>
       <c r="E61" s="91"/>
@@ -6371,7 +6558,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D63" s="91"/>
       <c r="E63" s="91"/>
@@ -6389,7 +6576,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="171" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D64" s="91"/>
       <c r="E64" s="91"/>
@@ -6401,7 +6588,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="200" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C65" s="171"/>
       <c r="D65" s="91"/>
@@ -6500,7 +6687,7 @@
   <sheetData>
     <row r="1" spans="1:56" s="15" customFormat="1" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="265" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="266"/>
@@ -6735,112 +6922,112 @@
         <v>101</v>
       </c>
       <c r="D3" s="232" t="s">
+        <v>580</v>
+      </c>
+      <c r="E3" s="232" t="s">
+        <v>579</v>
+      </c>
+      <c r="F3" s="232" t="s">
+        <v>578</v>
+      </c>
+      <c r="G3" s="232" t="s">
         <v>581</v>
       </c>
-      <c r="E3" s="232" t="s">
-        <v>580</v>
-      </c>
-      <c r="F3" s="232" t="s">
-        <v>579</v>
-      </c>
-      <c r="G3" s="232" t="s">
+      <c r="H3" s="232" t="s">
+        <v>420</v>
+      </c>
+      <c r="I3" s="232" t="s">
+        <v>421</v>
+      </c>
+      <c r="J3" s="232" t="s">
         <v>582</v>
       </c>
-      <c r="H3" s="232" t="s">
-        <v>421</v>
-      </c>
-      <c r="I3" s="232" t="s">
-        <v>422</v>
-      </c>
-      <c r="J3" s="232" t="s">
+      <c r="K3" s="232" t="s">
         <v>583</v>
       </c>
-      <c r="K3" s="232" t="s">
+      <c r="L3" s="232" t="s">
         <v>584</v>
       </c>
-      <c r="L3" s="232" t="s">
+      <c r="M3" s="232" t="s">
         <v>585</v>
       </c>
-      <c r="M3" s="232" t="s">
+      <c r="N3" s="232" t="s">
+        <v>600</v>
+      </c>
+      <c r="O3" s="232" t="s">
+        <v>599</v>
+      </c>
+      <c r="P3" s="232" t="s">
         <v>586</v>
       </c>
-      <c r="N3" s="232" t="s">
-        <v>601</v>
-      </c>
-      <c r="O3" s="232" t="s">
-        <v>600</v>
-      </c>
-      <c r="P3" s="232" t="s">
+      <c r="Q3" s="232" t="s">
         <v>587</v>
       </c>
-      <c r="Q3" s="232" t="s">
+      <c r="R3" s="232" t="s">
         <v>588</v>
       </c>
-      <c r="R3" s="232" t="s">
+      <c r="S3" s="232" t="s">
         <v>589</v>
       </c>
-      <c r="S3" s="232" t="s">
+      <c r="T3" s="232" t="s">
         <v>590</v>
       </c>
-      <c r="T3" s="232" t="s">
+      <c r="U3" s="232" t="s">
         <v>591</v>
       </c>
-      <c r="U3" s="232" t="s">
+      <c r="V3" s="232" t="s">
         <v>592</v>
       </c>
-      <c r="V3" s="232" t="s">
+      <c r="W3" s="232" t="s">
         <v>593</v>
       </c>
-      <c r="W3" s="232" t="s">
+      <c r="X3" s="232" t="s">
         <v>594</v>
       </c>
-      <c r="X3" s="232" t="s">
+      <c r="Y3" s="232" t="s">
         <v>595</v>
       </c>
-      <c r="Y3" s="232" t="s">
+      <c r="Z3" s="232" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA3" s="232" t="s">
         <v>596</v>
       </c>
-      <c r="Z3" s="232" t="s">
-        <v>609</v>
-      </c>
-      <c r="AA3" s="232" t="s">
+      <c r="AB3" s="232" t="s">
         <v>597</v>
       </c>
-      <c r="AB3" s="232" t="s">
+      <c r="AC3" s="232" t="s">
         <v>598</v>
       </c>
-      <c r="AC3" s="232" t="s">
-        <v>599</v>
-      </c>
       <c r="AD3" s="232" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE3" s="232" t="s">
         <v>632</v>
       </c>
-      <c r="AE3" s="232" t="s">
+      <c r="AF3" s="232" t="s">
         <v>633</v>
       </c>
-      <c r="AF3" s="232" t="s">
+      <c r="AG3" s="232" t="s">
         <v>634</v>
       </c>
-      <c r="AG3" s="232" t="s">
+      <c r="AH3" s="232" t="s">
         <v>635</v>
       </c>
-      <c r="AH3" s="232" t="s">
+      <c r="AI3" s="232" t="s">
         <v>636</v>
       </c>
-      <c r="AI3" s="232" t="s">
+      <c r="AJ3" s="232" t="s">
         <v>637</v>
       </c>
-      <c r="AJ3" s="232" t="s">
+      <c r="AK3" s="232" t="s">
+        <v>639</v>
+      </c>
+      <c r="AL3" s="232" t="s">
         <v>638</v>
       </c>
-      <c r="AK3" s="232" t="s">
+      <c r="AM3" s="232" t="s">
         <v>640</v>
-      </c>
-      <c r="AL3" s="232" t="s">
-        <v>639</v>
-      </c>
-      <c r="AM3" s="232" t="s">
-        <v>641</v>
       </c>
       <c r="AN3" s="232"/>
       <c r="AO3" s="232"/>
@@ -6897,16 +7084,16 @@
         <v>26</v>
       </c>
       <c r="P4" s="234" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q4" s="234" t="s">
+        <v>542</v>
+      </c>
+      <c r="R4" s="234" t="s">
         <v>543</v>
       </c>
-      <c r="Q4" s="234" t="s">
+      <c r="S4" s="234" t="s">
         <v>543</v>
-      </c>
-      <c r="R4" s="234" t="s">
-        <v>544</v>
-      </c>
-      <c r="S4" s="234" t="s">
-        <v>544</v>
       </c>
       <c r="T4" s="234" t="s">
         <v>27</v>
@@ -6915,10 +7102,10 @@
         <v>27</v>
       </c>
       <c r="V4" s="234" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="W4" s="234" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="X4" s="234" t="s">
         <v>26</v>
@@ -6927,16 +7114,16 @@
         <v>26</v>
       </c>
       <c r="Z4" s="234" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AA4" s="234" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AB4" s="234" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AC4" s="234" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AD4" s="234" t="s">
         <v>26</v>
@@ -6957,16 +7144,16 @@
         <v>26</v>
       </c>
       <c r="AJ4" s="234" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AK4" s="234" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL4" s="234" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM4" s="234" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AN4" s="234"/>
       <c r="AO4" s="234"/>
@@ -7141,82 +7328,82 @@
         <v>26</v>
       </c>
       <c r="J7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="R7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="S7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="T7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="U7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="W7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="X7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Y7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Z7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA7" s="239" t="s">
         <v>26</v>
       </c>
       <c r="AB7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AC7" s="239" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AD7" s="239" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AE7" s="239" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AF7" s="239" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG7" s="239" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AH7" s="239" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AI7" s="239" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AJ7" s="239" t="s">
         <v>26</v>
@@ -7282,35 +7469,35 @@
       <c r="Y8" s="236"/>
       <c r="Z8" s="236"/>
       <c r="AA8" s="236" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AB8" s="236"/>
       <c r="AC8" s="236"/>
       <c r="AD8" s="236" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE8" s="236" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AF8" s="236" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG8" s="236" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AH8" s="236"/>
       <c r="AI8" s="236"/>
       <c r="AJ8" s="236" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AK8" s="236" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AL8" s="236" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM8" s="236" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AN8" s="236"/>
       <c r="AO8" s="236"/>
@@ -7535,7 +7722,7 @@
         <v>302</v>
       </c>
       <c r="B11" s="268" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C11" s="267" t="s">
         <v>110</v>
@@ -7553,10 +7740,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="236" t="s">
+        <v>642</v>
+      </c>
+      <c r="I11" s="236" t="s">
         <v>643</v>
-      </c>
-      <c r="I11" s="236" t="s">
-        <v>644</v>
       </c>
       <c r="J11" s="236">
         <v>0</v>
@@ -7728,13 +7915,13 @@
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13" s="175" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B13" s="268" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C13" s="267" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D13" s="236">
         <v>29</v>
@@ -7860,10 +8047,10 @@
     </row>
     <row r="14" spans="1:56" s="242" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="175" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B14" s="268" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C14" s="267" t="s">
         <v>35</v>
@@ -8083,13 +8270,13 @@
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A15" s="175" t="s">
+        <v>606</v>
+      </c>
+      <c r="B15" s="268" t="s">
         <v>607</v>
       </c>
-      <c r="B15" s="268" t="s">
-        <v>608</v>
-      </c>
       <c r="C15" s="267" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D15" s="236">
         <v>2800</v>
@@ -8218,7 +8405,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="268" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C16" s="267" t="s">
         <v>71</v>
@@ -8461,88 +8648,88 @@
       <c r="H17" s="236"/>
       <c r="I17" s="236"/>
       <c r="J17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="X17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AB17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC17" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AD17" s="236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AE17" s="236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AF17" s="236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG17" s="236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AH17" s="236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AI17" s="236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AJ17" s="236" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AK17" s="236" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AL17" s="236" t="s">
         <v>118</v>
@@ -8593,88 +8780,88 @@
       <c r="H18" s="236"/>
       <c r="I18" s="236"/>
       <c r="J18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="X18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AB18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC18" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AD18" s="236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AE18" s="236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AF18" s="236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG18" s="236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AH18" s="236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AI18" s="236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AJ18" s="236" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AK18" s="236" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AL18" s="236" t="s">
         <v>118</v>
@@ -8834,7 +9021,7 @@
     </row>
     <row r="20" spans="1:56" s="295" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="175" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B20" s="268" t="s">
         <v>83</v>
@@ -9124,7 +9311,7 @@
         <v>77</v>
       </c>
       <c r="B22" s="268" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C22" s="267" t="s">
         <v>82</v>
@@ -10090,7 +10277,7 @@
         <v>47</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C36" s="88" t="s">
         <v>138</v>
@@ -10176,7 +10363,7 @@
         <v>48</v>
       </c>
       <c r="B37" s="276" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C37" s="267" t="s">
         <v>139</v>
@@ -10240,7 +10427,7 @@
         <v>49</v>
       </c>
       <c r="B38" s="276" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C38" s="267" t="s">
         <v>140</v>
@@ -10304,7 +10491,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="276" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C39" s="267" t="s">
         <v>135</v>
@@ -10418,7 +10605,7 @@
         <v>51</v>
       </c>
       <c r="B40" s="276" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C40" s="267" t="s">
         <v>136</v>
@@ -10482,7 +10669,7 @@
         <v>52</v>
       </c>
       <c r="B41" s="276" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C41" s="274" t="s">
         <v>137</v>
@@ -10543,7 +10730,7 @@
     </row>
     <row r="42" spans="1:56" s="246" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="177" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B42" s="275"/>
       <c r="C42" s="278"/>
@@ -10603,13 +10790,13 @@
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>689</v>
       </c>
-      <c r="B43" s="29" t="s">
-        <v>691</v>
-      </c>
       <c r="C43" s="267" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D43" s="236"/>
       <c r="E43" s="236"/>
@@ -10669,13 +10856,13 @@
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="267" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D44" s="236"/>
       <c r="E44" s="236"/>
@@ -10736,13 +10923,13 @@
     </row>
     <row r="45" spans="1:56" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="9" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C45" s="267" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D45" s="236"/>
       <c r="E45" s="236"/>
@@ -10802,7 +10989,7 @@
     </row>
     <row r="46" spans="1:56" s="246" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="177" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B46" s="275"/>
       <c r="C46" s="278"/>
@@ -10865,7 +11052,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C47" s="267" t="s">
         <v>56</v>
@@ -10929,7 +11116,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C48" s="267" t="s">
         <v>55</v>
@@ -11178,7 +11365,7 @@
     </row>
     <row r="52" spans="1:56" s="235" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>63</v>
@@ -11242,7 +11429,7 @@
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>63</v>
@@ -11306,7 +11493,7 @@
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>63</v>
@@ -11370,7 +11557,7 @@
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B55" s="29" t="s">
         <v>63</v>
@@ -11434,7 +11621,7 @@
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>63</v>
@@ -11498,7 +11685,7 @@
     </row>
     <row r="57" spans="1:56" s="244" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B57" s="280" t="s">
         <v>63</v>
@@ -11562,10 +11749,10 @@
     </row>
     <row r="58" spans="1:56" s="246" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B58" s="275" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C58" s="279"/>
       <c r="D58" s="245"/>
@@ -11624,13 +11811,13 @@
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C59" s="267" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D59" s="236"/>
       <c r="E59" s="236"/>
@@ -11721,13 +11908,13 @@
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C60" s="267" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D60" s="236"/>
       <c r="E60" s="236"/>
@@ -11785,13 +11972,13 @@
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C61" s="267" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D61" s="236"/>
       <c r="E61" s="236"/>
@@ -11849,13 +12036,13 @@
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C62" s="267" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D62" s="236"/>
       <c r="E62" s="236"/>
@@ -11916,13 +12103,13 @@
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C63" s="267" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D63" s="236"/>
       <c r="E63" s="236"/>
@@ -11980,13 +12167,13 @@
     </row>
     <row r="64" spans="1:56" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C64" s="267" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D64" s="236"/>
       <c r="E64" s="236"/>
@@ -12044,10 +12231,10 @@
     </row>
     <row r="65" spans="1:56" s="246" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="275" t="s">
+        <v>468</v>
+      </c>
+      <c r="B65" s="281" t="s">
         <v>469</v>
-      </c>
-      <c r="B65" s="281" t="s">
-        <v>470</v>
       </c>
       <c r="C65" s="279"/>
       <c r="D65" s="250"/>
@@ -12106,13 +12293,13 @@
     </row>
     <row r="66" spans="1:56" s="235" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="282" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C66" s="283" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D66" s="234"/>
       <c r="E66" s="234"/>
@@ -12170,13 +12357,13 @@
     </row>
     <row r="67" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A67" s="170" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C67" s="284" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D67" s="236"/>
       <c r="E67" s="236"/>
@@ -12234,13 +12421,13 @@
     </row>
     <row r="68" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A68" s="170" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C68" s="284" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D68" s="236"/>
       <c r="E68" s="236"/>
@@ -12298,13 +12485,13 @@
     </row>
     <row r="69" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A69" s="170" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C69" s="284" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D69" s="236"/>
       <c r="E69" s="236"/>
@@ -12362,13 +12549,13 @@
     </row>
     <row r="70" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A70" s="170" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C70" s="284" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D70" s="236"/>
       <c r="E70" s="236"/>
@@ -12426,13 +12613,13 @@
     </row>
     <row r="71" spans="1:56" s="244" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="285" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B71" s="280" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C71" s="286" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D71" s="243"/>
       <c r="E71" s="243"/>
@@ -12490,10 +12677,10 @@
     </row>
     <row r="72" spans="1:56" s="246" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="275" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B72" s="281" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C72" s="279"/>
       <c r="D72" s="250"/>
@@ -12552,13 +12739,13 @@
     </row>
     <row r="73" spans="1:56" s="235" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="282" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C73" s="283" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D73" s="234"/>
       <c r="E73" s="234"/>
@@ -12616,13 +12803,13 @@
     </row>
     <row r="74" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A74" s="170" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C74" s="284" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D74" s="236"/>
       <c r="E74" s="236"/>
@@ -12680,13 +12867,13 @@
     </row>
     <row r="75" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A75" s="170" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C75" s="284" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D75" s="236"/>
       <c r="E75" s="236"/>
@@ -12744,13 +12931,13 @@
     </row>
     <row r="76" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A76" s="170" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C76" s="284" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D76" s="236"/>
       <c r="E76" s="236"/>
@@ -12808,13 +12995,13 @@
     </row>
     <row r="77" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A77" s="170" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C77" s="284" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D77" s="236"/>
       <c r="E77" s="236"/>
@@ -12872,13 +13059,13 @@
     </row>
     <row r="78" spans="1:56" s="244" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="285" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B78" s="280" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C78" s="286" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D78" s="243"/>
       <c r="E78" s="243"/>
@@ -12936,7 +13123,7 @@
     </row>
     <row r="79" spans="1:56" s="246" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B79" s="281"/>
       <c r="C79" s="279"/>
@@ -12996,13 +13183,13 @@
     </row>
     <row r="80" spans="1:56" s="235" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C80" s="287" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D80" s="234"/>
       <c r="E80" s="234"/>
@@ -13060,13 +13247,13 @@
     </row>
     <row r="81" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C81" s="288" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D81" s="236"/>
       <c r="E81" s="236"/>
@@ -13124,13 +13311,13 @@
     </row>
     <row r="82" spans="1:56" s="244" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="B82" s="280" t="s">
         <v>490</v>
       </c>
-      <c r="B82" s="280" t="s">
-        <v>491</v>
-      </c>
       <c r="C82" s="289" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D82" s="243"/>
       <c r="E82" s="243"/>
@@ -13188,7 +13375,7 @@
     </row>
     <row r="83" spans="1:56" s="258" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="290" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B83" s="291"/>
       <c r="C83" s="279"/>
@@ -13248,13 +13435,13 @@
     </row>
     <row r="84" spans="1:56" s="235" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B84" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="88" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D84" s="259"/>
       <c r="E84" s="234"/>
@@ -13312,13 +13499,13 @@
     </row>
     <row r="85" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C85" s="267" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D85" s="260"/>
       <c r="E85" s="236"/>
@@ -13376,13 +13563,13 @@
     </row>
     <row r="86" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C86" s="267" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D86" s="260"/>
       <c r="E86" s="236"/>
@@ -13440,13 +13627,13 @@
     </row>
     <row r="87" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C87" s="267" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D87" s="260"/>
       <c r="E87" s="236"/>
@@ -13504,13 +13691,13 @@
     </row>
     <row r="88" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C88" s="267" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D88" s="260"/>
       <c r="E88" s="236"/>
@@ -13568,13 +13755,13 @@
     </row>
     <row r="89" spans="1:56" s="244" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B89" s="280" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="274" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D89" s="261"/>
       <c r="E89" s="243"/>
@@ -13632,10 +13819,10 @@
     </row>
     <row r="90" spans="1:56" s="258" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="B90" s="292" t="s">
         <v>504</v>
-      </c>
-      <c r="B90" s="292" t="s">
-        <v>505</v>
       </c>
       <c r="C90" s="279"/>
       <c r="D90" s="257"/>
@@ -13694,13 +13881,13 @@
     </row>
     <row r="91" spans="1:56" s="235" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="88" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D91" s="259"/>
       <c r="E91" s="234"/>
@@ -13758,13 +13945,13 @@
     </row>
     <row r="92" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B92" s="29" t="s">
         <v>60</v>
       </c>
       <c r="C92" s="267" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D92" s="260"/>
       <c r="E92" s="236"/>
@@ -13822,13 +14009,13 @@
     </row>
     <row r="93" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B93" s="29" t="s">
         <v>60</v>
       </c>
       <c r="C93" s="267" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D93" s="260"/>
       <c r="E93" s="236"/>
@@ -13886,13 +14073,13 @@
     </row>
     <row r="94" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B94" s="29" t="s">
         <v>60</v>
       </c>
       <c r="C94" s="267" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D94" s="260"/>
       <c r="E94" s="236"/>
@@ -13950,13 +14137,13 @@
     </row>
     <row r="95" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B95" s="29" t="s">
         <v>60</v>
       </c>
       <c r="C95" s="267" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D95" s="260"/>
       <c r="E95" s="236"/>
@@ -14014,13 +14201,13 @@
     </row>
     <row r="96" spans="1:56" s="244" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B96" s="280" t="s">
         <v>60</v>
       </c>
       <c r="C96" s="274" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D96" s="261"/>
       <c r="E96" s="243"/>
@@ -14078,7 +14265,7 @@
     </row>
     <row r="97" spans="1:56" s="258" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="293" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B97" s="291"/>
       <c r="C97" s="279"/>
@@ -14140,7 +14327,7 @@
       <c r="A98" s="24"/>
       <c r="B98" s="31"/>
       <c r="C98" s="88" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D98" s="259"/>
       <c r="E98" s="234"/>
@@ -14480,7 +14667,7 @@
     </row>
     <row r="104" spans="1:56" s="258" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="290" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B104" s="291"/>
       <c r="C104" s="279"/>
@@ -14540,13 +14727,13 @@
     </row>
     <row r="105" spans="1:56" s="235" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B105" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C105" s="88" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D105" s="259"/>
       <c r="E105" s="234"/>
@@ -14604,13 +14791,13 @@
     </row>
     <row r="106" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B106" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C106" s="267" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D106" s="260"/>
       <c r="E106" s="236"/>
@@ -14668,13 +14855,13 @@
     </row>
     <row r="107" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B107" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C107" s="267" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D107" s="260"/>
       <c r="E107" s="236"/>
@@ -14732,13 +14919,13 @@
     </row>
     <row r="108" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B108" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C108" s="267" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D108" s="260"/>
       <c r="E108" s="236"/>
@@ -14796,13 +14983,13 @@
     </row>
     <row r="109" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B109" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C109" s="267" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D109" s="260"/>
       <c r="E109" s="236"/>
@@ -14860,13 +15047,13 @@
     </row>
     <row r="110" spans="1:56" s="244" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B110" s="280" t="s">
         <v>63</v>
       </c>
       <c r="C110" s="274" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D110" s="261"/>
       <c r="E110" s="243"/>
@@ -14924,7 +15111,7 @@
     </row>
     <row r="111" spans="1:56" s="258" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A111" s="290" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B111" s="291"/>
       <c r="C111" s="279"/>
@@ -14984,13 +15171,13 @@
     </row>
     <row r="112" spans="1:56" s="235" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B112" s="44" t="s">
         <v>63</v>
       </c>
       <c r="C112" s="88" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D112" s="259"/>
       <c r="E112" s="234"/>
@@ -15048,13 +15235,13 @@
     </row>
     <row r="113" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B113" s="276" t="s">
         <v>63</v>
       </c>
       <c r="C113" s="267" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D113" s="260"/>
       <c r="E113" s="236"/>
@@ -15112,13 +15299,13 @@
     </row>
     <row r="114" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B114" s="276" t="s">
         <v>63</v>
       </c>
       <c r="C114" s="267" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D114" s="260"/>
       <c r="E114" s="236"/>
@@ -15176,13 +15363,13 @@
     </row>
     <row r="115" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B115" s="276" t="s">
         <v>63</v>
       </c>
       <c r="C115" s="267" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D115" s="260"/>
       <c r="E115" s="236"/>
@@ -15240,13 +15427,13 @@
     </row>
     <row r="116" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B116" s="276" t="s">
         <v>63</v>
       </c>
       <c r="C116" s="267" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D116" s="260"/>
       <c r="E116" s="236"/>
@@ -15304,13 +15491,13 @@
     </row>
     <row r="117" spans="1:56" s="244" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B117" s="45" t="s">
         <v>63</v>
       </c>
       <c r="C117" s="274" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D117" s="261"/>
       <c r="E117" s="243"/>
@@ -15368,7 +15555,7 @@
     </row>
     <row r="118" spans="1:56" s="258" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="290" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B118" s="291"/>
       <c r="C118" s="279"/>
@@ -15428,19 +15615,19 @@
     </row>
     <row r="119" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A119" s="170" t="s">
+        <v>674</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="C119" s="267" t="s">
         <v>675</v>
       </c>
-      <c r="B119" s="29" t="s">
-        <v>677</v>
-      </c>
-      <c r="C119" s="267" t="s">
-        <v>676</v>
-      </c>
       <c r="H119" s="262" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I119" s="262" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -15489,7 +15676,7 @@
   <sheetData>
     <row r="1" spans="1:63" s="15" customFormat="1" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="188" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="13"/>
@@ -15632,34 +15819,34 @@
         <v>101</v>
       </c>
       <c r="D3" s="101" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E3" s="101" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H3" s="101" t="s">
+        <v>624</v>
+      </c>
+      <c r="I3" s="101" t="s">
+        <v>618</v>
+      </c>
+      <c r="J3" s="101" t="s">
+        <v>621</v>
+      </c>
+      <c r="K3" s="101" t="s">
         <v>625</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="L3" s="101" t="s">
         <v>619</v>
       </c>
-      <c r="J3" s="101" t="s">
-        <v>622</v>
-      </c>
-      <c r="K3" s="101" t="s">
-        <v>626</v>
-      </c>
-      <c r="L3" s="101" t="s">
+      <c r="M3" s="101" t="s">
         <v>620</v>
-      </c>
-      <c r="M3" s="101" t="s">
-        <v>621</v>
       </c>
       <c r="N3" s="101"/>
       <c r="O3" s="101"/>
@@ -15680,19 +15867,19 @@
         <v>83</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D4" s="92" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G4" s="92" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H4" s="92" t="s">
         <v>26</v>
@@ -15704,13 +15891,13 @@
         <v>26</v>
       </c>
       <c r="K4" s="92" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L4" s="92" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M4" s="92" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N4" s="92"/>
       <c r="O4" s="92"/>
@@ -15776,7 +15963,7 @@
     </row>
     <row r="6" spans="1:63" s="33" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="177" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B6" s="127"/>
       <c r="C6" s="128"/>
@@ -15803,13 +15990,13 @@
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C7" s="118" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D7" s="91">
         <v>8</v>
@@ -15854,13 +16041,13 @@
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D8" s="100">
         <v>0.98</v>
@@ -15905,13 +16092,13 @@
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D9" s="100">
         <v>0.97</v>
@@ -15956,13 +16143,13 @@
     </row>
     <row r="10" spans="1:63" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="118" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D10" s="189">
         <f>3*0.0042%</f>
@@ -16014,13 +16201,13 @@
     </row>
     <row r="11" spans="1:63" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D11" s="92">
         <v>4</v>
@@ -16065,13 +16252,13 @@
     </row>
     <row r="12" spans="1:63" s="17" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D12" s="93">
         <v>24</v>
@@ -16143,10 +16330,10 @@
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A14" s="175" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C14" s="118"/>
       <c r="D14" s="91">
@@ -16192,13 +16379,13 @@
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A15" s="175" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C15" s="118" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D15" s="174">
         <f>IF(D14&lt;&gt;0,D14/1000/8760,"")</f>
@@ -16283,10 +16470,10 @@
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A16" s="175" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C16" s="118"/>
       <c r="D16" s="91">
@@ -16335,10 +16522,10 @@
         <v>67</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C17" s="118" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D17" s="174">
         <f>IF(D16&lt;&gt;0,D16*D7,"")</f>
@@ -16429,37 +16616,37 @@
         <v>11</v>
       </c>
       <c r="C18" s="118" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D18" s="91" t="s">
         <v>118</v>
       </c>
       <c r="E18" s="91" t="s">
+        <v>614</v>
+      </c>
+      <c r="F18" s="91" t="s">
         <v>615</v>
-      </c>
-      <c r="F18" s="91" t="s">
-        <v>616</v>
       </c>
       <c r="G18" s="91" t="s">
         <v>118</v>
       </c>
       <c r="H18" s="91" t="s">
+        <v>616</v>
+      </c>
+      <c r="I18" s="91" t="s">
         <v>617</v>
-      </c>
-      <c r="I18" s="91" t="s">
-        <v>618</v>
       </c>
       <c r="J18" s="91" t="s">
         <v>118</v>
       </c>
       <c r="K18" s="91" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L18" s="91" t="s">
         <v>118</v>
       </c>
       <c r="M18" s="91" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N18" s="91"/>
       <c r="O18" s="91"/>
@@ -16480,37 +16667,37 @@
         <v>11</v>
       </c>
       <c r="C19" s="118" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D19" s="91" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="91" t="s">
+        <v>614</v>
+      </c>
+      <c r="F19" s="91" t="s">
         <v>615</v>
-      </c>
-      <c r="F19" s="91" t="s">
-        <v>616</v>
       </c>
       <c r="G19" s="91" t="s">
         <v>118</v>
       </c>
       <c r="H19" s="91" t="s">
+        <v>616</v>
+      </c>
+      <c r="I19" s="91" t="s">
         <v>617</v>
-      </c>
-      <c r="I19" s="91" t="s">
-        <v>618</v>
       </c>
       <c r="J19" s="91" t="s">
         <v>118</v>
       </c>
       <c r="K19" s="91" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L19" s="91" t="s">
         <v>118</v>
       </c>
       <c r="M19" s="91" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N19" s="91"/>
       <c r="O19" s="91"/>
@@ -16531,7 +16718,7 @@
         <v>83</v>
       </c>
       <c r="C20" s="118" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D20" s="91" t="s">
         <v>128</v>
@@ -16576,13 +16763,13 @@
     </row>
     <row r="21" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C21" s="118" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D21" s="227" t="str">
         <f>IF(D20="Integer", "_investment_variable_type_integer", IF(D20="Continuous", "_investment_variable_type_continuous", ""))</f>
@@ -16667,7 +16854,7 @@
     </row>
     <row r="22" spans="1:23" s="33" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="177" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B22" s="127"/>
       <c r="C22" s="128"/>
@@ -16697,10 +16884,10 @@
         <v>53</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C23" s="118" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D23" s="91"/>
       <c r="E23" s="91"/>
@@ -16728,10 +16915,10 @@
         <v>54</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C24" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D24" s="91"/>
       <c r="E24" s="91"/>
@@ -16762,7 +16949,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="118" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D25" s="91"/>
       <c r="E25" s="91"/>
@@ -16793,7 +16980,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="118" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D26" s="91"/>
       <c r="E26" s="91"/>
@@ -16818,13 +17005,13 @@
     </row>
     <row r="27" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D27" s="98"/>
       <c r="E27" s="98"/>
@@ -16849,13 +17036,13 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="118" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D28" s="91"/>
       <c r="E28" s="91"/>
@@ -16880,13 +17067,13 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="118" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D29" s="91"/>
       <c r="E29" s="91"/>
@@ -16911,13 +17098,13 @@
     </row>
     <row r="30" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="122" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D30" s="99"/>
       <c r="E30" s="99"/>
@@ -16948,7 +17135,7 @@
         <v>126</v>
       </c>
       <c r="C31" s="121" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D31" s="98"/>
       <c r="E31" s="98"/>
@@ -16976,10 +17163,10 @@
         <v>77</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C32" s="118" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D32" s="91"/>
       <c r="E32" s="91"/>
@@ -17010,7 +17197,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="118" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D33" s="91"/>
       <c r="E33" s="91"/>
@@ -17041,7 +17228,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D34" s="91"/>
       <c r="E34" s="91"/>
@@ -17227,22 +17414,22 @@
         <v>101</v>
       </c>
       <c r="D3" s="225" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E3" s="226" t="s">
+        <v>663</v>
+      </c>
+      <c r="F3" s="226" t="s">
         <v>664</v>
       </c>
-      <c r="F3" s="226" t="s">
+      <c r="G3" s="226" t="s">
         <v>665</v>
       </c>
-      <c r="G3" s="226" t="s">
+      <c r="H3" s="226" t="s">
         <v>666</v>
       </c>
-      <c r="H3" s="226" t="s">
-        <v>667</v>
-      </c>
       <c r="I3" s="226" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J3" s="224"/>
       <c r="K3" s="224"/>
@@ -17268,13 +17455,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="198" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D4" s="228" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="228" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F4" s="228" t="s">
         <v>26</v>
@@ -17313,22 +17500,22 @@
       </c>
       <c r="C5" s="171"/>
       <c r="D5" s="95" t="s">
+        <v>648</v>
+      </c>
+      <c r="E5" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="E5" s="95" t="s">
-        <v>650</v>
-      </c>
       <c r="F5" s="95" t="s">
+        <v>648</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>648</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>648</v>
+      </c>
+      <c r="I5" s="95" t="s">
         <v>649</v>
-      </c>
-      <c r="G5" s="95" t="s">
-        <v>649</v>
-      </c>
-      <c r="H5" s="95" t="s">
-        <v>649</v>
-      </c>
-      <c r="I5" s="95" t="s">
-        <v>650</v>
       </c>
       <c r="J5" s="95"/>
       <c r="K5" s="95"/>
@@ -17348,13 +17535,13 @@
     </row>
     <row r="6" spans="1:24" s="97" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="87" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D6" s="201" t="str">
         <f>IF(D5="Bidirectional Lossless", "connection_type_lossless_bidirectional", IF(D5="Unidirectional with Losses", "connection_type_normal", ""))</f>
@@ -17443,7 +17630,7 @@
     </row>
     <row r="7" spans="1:24" s="193" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="32" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B7" s="220"/>
       <c r="C7" s="128"/>
@@ -17477,7 +17664,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="171" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" s="96">
         <v>0.85</v>
@@ -17511,13 +17698,13 @@
     </row>
     <row r="9" spans="1:24" s="199" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="87" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C9" s="171" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D9" s="195">
         <v>15</v>
@@ -17555,13 +17742,13 @@
     </row>
     <row r="10" spans="1:24" s="199" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C10" s="171" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D10" s="195">
         <v>15</v>
@@ -17627,10 +17814,10 @@
     </row>
     <row r="12" spans="1:24" s="214" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="212" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B12" s="221" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C12" s="88"/>
       <c r="D12" s="213">
@@ -17667,10 +17854,10 @@
     </row>
     <row r="13" spans="1:24" s="217" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="215" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B13" s="222" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C13" s="89"/>
       <c r="D13" s="216">
@@ -17760,10 +17947,10 @@
     </row>
     <row r="14" spans="1:24" s="97" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B14" s="42" t="s">
         <v>607</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>608</v>
       </c>
       <c r="C14" s="191"/>
       <c r="D14" s="95">
@@ -17904,19 +18091,19 @@
         <v>95</v>
       </c>
       <c r="D16" s="95" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E16" s="95" t="s">
+        <v>614</v>
+      </c>
+      <c r="F16" s="95" t="s">
         <v>615</v>
       </c>
-      <c r="F16" s="95" t="s">
-        <v>616</v>
-      </c>
       <c r="G16" s="95" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H16" s="95" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I16" s="95"/>
       <c r="J16" s="95"/>
@@ -17946,19 +18133,19 @@
         <v>96</v>
       </c>
       <c r="D17" s="95" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E17" s="95" t="s">
+        <v>614</v>
+      </c>
+      <c r="F17" s="95" t="s">
         <v>615</v>
       </c>
-      <c r="F17" s="95" t="s">
-        <v>616</v>
-      </c>
       <c r="G17" s="95" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H17" s="95" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I17" s="95"/>
       <c r="J17" s="95"/>
@@ -18017,7 +18204,7 @@
     </row>
     <row r="19" spans="1:24" s="97" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B19" s="42" t="s">
         <v>83</v>
@@ -18240,13 +18427,13 @@
     </row>
     <row r="24" spans="1:24" s="202" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C24" s="206" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D24" s="209"/>
       <c r="E24" s="209"/>
@@ -18272,13 +18459,13 @@
     </row>
     <row r="25" spans="1:24" s="203" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C25" s="207" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D25" s="210"/>
       <c r="E25" s="210"/>
@@ -18304,7 +18491,7 @@
     </row>
     <row r="26" spans="1:24" s="205" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B26" s="220"/>
       <c r="C26" s="128"/>
@@ -18332,13 +18519,13 @@
     </row>
     <row r="27" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C27" s="208" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D27" s="211"/>
       <c r="E27" s="211"/>
@@ -18364,13 +18551,13 @@
     </row>
     <row r="28" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="B28" s="38" t="s">
-        <v>655</v>
-      </c>
       <c r="C28" s="208" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D28" s="211"/>
       <c r="E28" s="211"/>
@@ -18396,13 +18583,13 @@
     </row>
     <row r="29" spans="1:24" s="203" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C29" s="207" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D29" s="210"/>
       <c r="E29" s="210"/>
@@ -18506,10 +18693,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="183" t="s">
+        <v>677</v>
+      </c>
+      <c r="C2" s="183" t="s">
         <v>678</v>
-      </c>
-      <c r="C2" s="183" t="s">
-        <v>679</v>
       </c>
       <c r="D2" s="183"/>
       <c r="E2" s="183"/>
@@ -18562,7 +18749,7 @@
     </row>
     <row r="5" spans="1:13" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="179" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5" s="125"/>
       <c r="C5" s="125"/>
@@ -18582,10 +18769,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D6" s="92"/>
       <c r="E6" s="92"/>
@@ -18603,10 +18790,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D7" s="91"/>
       <c r="E7" s="91"/>
@@ -18621,7 +18808,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="182" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B8" s="187">
         <v>0.30299999999999999</v>
@@ -18642,7 +18829,7 @@
     </row>
     <row r="9" spans="1:13" s="17" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B9" s="186">
         <v>50.9</v>
@@ -18666,10 +18853,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D10" s="92"/>
       <c r="E10" s="92"/>
@@ -18687,10 +18874,10 @@
         <v>66</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D11" s="91"/>
       <c r="E11" s="91"/>
@@ -18705,7 +18892,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="182" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B12" s="187">
         <v>0.60199999999999998</v>
@@ -18726,7 +18913,7 @@
     </row>
     <row r="13" spans="1:13" s="17" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B13" s="186">
         <v>117</v>
@@ -18750,10 +18937,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D14" s="92"/>
       <c r="E14" s="92"/>
@@ -18771,10 +18958,10 @@
         <v>66</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D15" s="91"/>
       <c r="E15" s="91"/>
@@ -18789,7 +18976,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="182" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B16" s="187">
         <v>0.69899999999999995</v>
@@ -18810,7 +18997,7 @@
     </row>
     <row r="17" spans="1:13" s="17" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B17" s="186">
         <v>206</v>
@@ -18888,806 +19075,806 @@
       <c r="B1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="310">
+      <c r="C1" s="327">
         <v>1</v>
       </c>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="311"/>
-      <c r="I1" s="311"/>
-      <c r="J1" s="311"/>
-      <c r="K1" s="311"/>
-      <c r="L1" s="311"/>
-      <c r="M1" s="311"/>
-      <c r="N1" s="311"/>
-      <c r="O1" s="311"/>
-      <c r="P1" s="311"/>
-      <c r="Q1" s="311"/>
-      <c r="R1" s="311"/>
-      <c r="S1" s="311"/>
-      <c r="T1" s="311"/>
-      <c r="U1" s="311"/>
-      <c r="V1" s="311"/>
-      <c r="W1" s="311"/>
-      <c r="X1" s="311"/>
-      <c r="Y1" s="311"/>
-      <c r="Z1" s="311"/>
-      <c r="AA1" s="311"/>
-      <c r="AB1" s="312"/>
-      <c r="AC1" s="313">
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="328"/>
+      <c r="L1" s="328"/>
+      <c r="M1" s="328"/>
+      <c r="N1" s="328"/>
+      <c r="O1" s="328"/>
+      <c r="P1" s="328"/>
+      <c r="Q1" s="328"/>
+      <c r="R1" s="328"/>
+      <c r="S1" s="328"/>
+      <c r="T1" s="328"/>
+      <c r="U1" s="328"/>
+      <c r="V1" s="328"/>
+      <c r="W1" s="328"/>
+      <c r="X1" s="328"/>
+      <c r="Y1" s="328"/>
+      <c r="Z1" s="328"/>
+      <c r="AA1" s="328"/>
+      <c r="AB1" s="329"/>
+      <c r="AC1" s="330">
         <v>2</v>
       </c>
-      <c r="AD1" s="311"/>
-      <c r="AE1" s="311"/>
-      <c r="AF1" s="311"/>
-      <c r="AG1" s="311"/>
-      <c r="AH1" s="311"/>
-      <c r="AI1" s="311"/>
-      <c r="AJ1" s="311"/>
-      <c r="AK1" s="311"/>
-      <c r="AL1" s="311"/>
-      <c r="AM1" s="311"/>
-      <c r="AN1" s="311"/>
-      <c r="AO1" s="311"/>
-      <c r="AP1" s="311"/>
-      <c r="AQ1" s="311"/>
-      <c r="AR1" s="311"/>
-      <c r="AS1" s="311"/>
-      <c r="AT1" s="311"/>
-      <c r="AU1" s="311"/>
-      <c r="AV1" s="311"/>
-      <c r="AW1" s="311"/>
-      <c r="AX1" s="311"/>
-      <c r="AY1" s="311"/>
-      <c r="AZ1" s="311"/>
-      <c r="BA1" s="311"/>
-      <c r="BB1" s="312"/>
-      <c r="BC1" s="313">
+      <c r="AD1" s="328"/>
+      <c r="AE1" s="328"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="328"/>
+      <c r="AH1" s="328"/>
+      <c r="AI1" s="328"/>
+      <c r="AJ1" s="328"/>
+      <c r="AK1" s="328"/>
+      <c r="AL1" s="328"/>
+      <c r="AM1" s="328"/>
+      <c r="AN1" s="328"/>
+      <c r="AO1" s="328"/>
+      <c r="AP1" s="328"/>
+      <c r="AQ1" s="328"/>
+      <c r="AR1" s="328"/>
+      <c r="AS1" s="328"/>
+      <c r="AT1" s="328"/>
+      <c r="AU1" s="328"/>
+      <c r="AV1" s="328"/>
+      <c r="AW1" s="328"/>
+      <c r="AX1" s="328"/>
+      <c r="AY1" s="328"/>
+      <c r="AZ1" s="328"/>
+      <c r="BA1" s="328"/>
+      <c r="BB1" s="329"/>
+      <c r="BC1" s="330">
         <v>3</v>
       </c>
-      <c r="BD1" s="311"/>
-      <c r="BE1" s="311"/>
-      <c r="BF1" s="311"/>
-      <c r="BG1" s="311"/>
-      <c r="BH1" s="311"/>
-      <c r="BI1" s="311"/>
-      <c r="BJ1" s="311"/>
-      <c r="BK1" s="311"/>
-      <c r="BL1" s="311"/>
-      <c r="BM1" s="311"/>
-      <c r="BN1" s="311"/>
-      <c r="BO1" s="311"/>
-      <c r="BP1" s="311"/>
-      <c r="BQ1" s="311"/>
-      <c r="BR1" s="311"/>
-      <c r="BS1" s="311"/>
-      <c r="BT1" s="311"/>
-      <c r="BU1" s="311"/>
-      <c r="BV1" s="311"/>
-      <c r="BW1" s="311"/>
-      <c r="BX1" s="311"/>
-      <c r="BY1" s="311"/>
-      <c r="BZ1" s="311"/>
-      <c r="CA1" s="311"/>
-      <c r="CB1" s="312"/>
-      <c r="CC1" s="313">
+      <c r="BD1" s="328"/>
+      <c r="BE1" s="328"/>
+      <c r="BF1" s="328"/>
+      <c r="BG1" s="328"/>
+      <c r="BH1" s="328"/>
+      <c r="BI1" s="328"/>
+      <c r="BJ1" s="328"/>
+      <c r="BK1" s="328"/>
+      <c r="BL1" s="328"/>
+      <c r="BM1" s="328"/>
+      <c r="BN1" s="328"/>
+      <c r="BO1" s="328"/>
+      <c r="BP1" s="328"/>
+      <c r="BQ1" s="328"/>
+      <c r="BR1" s="328"/>
+      <c r="BS1" s="328"/>
+      <c r="BT1" s="328"/>
+      <c r="BU1" s="328"/>
+      <c r="BV1" s="328"/>
+      <c r="BW1" s="328"/>
+      <c r="BX1" s="328"/>
+      <c r="BY1" s="328"/>
+      <c r="BZ1" s="328"/>
+      <c r="CA1" s="328"/>
+      <c r="CB1" s="329"/>
+      <c r="CC1" s="330">
         <v>4</v>
       </c>
-      <c r="CD1" s="311"/>
-      <c r="CE1" s="311"/>
-      <c r="CF1" s="311"/>
-      <c r="CG1" s="311"/>
-      <c r="CH1" s="311"/>
-      <c r="CI1" s="311"/>
-      <c r="CJ1" s="311"/>
-      <c r="CK1" s="311"/>
-      <c r="CL1" s="311"/>
-      <c r="CM1" s="311"/>
-      <c r="CN1" s="311"/>
-      <c r="CO1" s="311"/>
-      <c r="CP1" s="311"/>
-      <c r="CQ1" s="311"/>
-      <c r="CR1" s="311"/>
-      <c r="CS1" s="311"/>
-      <c r="CT1" s="311"/>
-      <c r="CU1" s="311"/>
-      <c r="CV1" s="311"/>
-      <c r="CW1" s="311"/>
-      <c r="CX1" s="311"/>
-      <c r="CY1" s="311"/>
-      <c r="CZ1" s="311"/>
-      <c r="DA1" s="311"/>
-      <c r="DB1" s="312"/>
+      <c r="CD1" s="328"/>
+      <c r="CE1" s="328"/>
+      <c r="CF1" s="328"/>
+      <c r="CG1" s="328"/>
+      <c r="CH1" s="328"/>
+      <c r="CI1" s="328"/>
+      <c r="CJ1" s="328"/>
+      <c r="CK1" s="328"/>
+      <c r="CL1" s="328"/>
+      <c r="CM1" s="328"/>
+      <c r="CN1" s="328"/>
+      <c r="CO1" s="328"/>
+      <c r="CP1" s="328"/>
+      <c r="CQ1" s="328"/>
+      <c r="CR1" s="328"/>
+      <c r="CS1" s="328"/>
+      <c r="CT1" s="328"/>
+      <c r="CU1" s="328"/>
+      <c r="CV1" s="328"/>
+      <c r="CW1" s="328"/>
+      <c r="CX1" s="328"/>
+      <c r="CY1" s="328"/>
+      <c r="CZ1" s="328"/>
+      <c r="DA1" s="328"/>
+      <c r="DB1" s="329"/>
     </row>
     <row r="2" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="314" t="s">
+      <c r="C2" s="331" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="315"/>
-      <c r="E2" s="315"/>
-      <c r="F2" s="315"/>
-      <c r="G2" s="315"/>
-      <c r="H2" s="315"/>
-      <c r="I2" s="315"/>
-      <c r="J2" s="315"/>
-      <c r="K2" s="315"/>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="315"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="315"/>
-      <c r="S2" s="315"/>
-      <c r="T2" s="315"/>
-      <c r="U2" s="315"/>
-      <c r="V2" s="315"/>
-      <c r="W2" s="315"/>
-      <c r="X2" s="315"/>
-      <c r="Y2" s="315"/>
-      <c r="Z2" s="315"/>
-      <c r="AA2" s="315"/>
-      <c r="AB2" s="316"/>
-      <c r="AC2" s="317"/>
-      <c r="AD2" s="315"/>
-      <c r="AE2" s="315"/>
-      <c r="AF2" s="315"/>
-      <c r="AG2" s="315"/>
-      <c r="AH2" s="315"/>
-      <c r="AI2" s="315"/>
-      <c r="AJ2" s="315"/>
-      <c r="AK2" s="315"/>
-      <c r="AL2" s="315"/>
-      <c r="AM2" s="315"/>
-      <c r="AN2" s="315"/>
-      <c r="AO2" s="315"/>
-      <c r="AP2" s="315"/>
-      <c r="AQ2" s="315"/>
-      <c r="AR2" s="315"/>
-      <c r="AS2" s="315"/>
-      <c r="AT2" s="315"/>
-      <c r="AU2" s="315"/>
-      <c r="AV2" s="315"/>
-      <c r="AW2" s="315"/>
-      <c r="AX2" s="315"/>
-      <c r="AY2" s="315"/>
-      <c r="AZ2" s="315"/>
-      <c r="BA2" s="315"/>
-      <c r="BB2" s="316"/>
-      <c r="BC2" s="317"/>
-      <c r="BD2" s="315"/>
-      <c r="BE2" s="315"/>
-      <c r="BF2" s="315"/>
-      <c r="BG2" s="315"/>
-      <c r="BH2" s="315"/>
-      <c r="BI2" s="315"/>
-      <c r="BJ2" s="315"/>
-      <c r="BK2" s="315"/>
-      <c r="BL2" s="315"/>
-      <c r="BM2" s="315"/>
-      <c r="BN2" s="315"/>
-      <c r="BO2" s="315"/>
-      <c r="BP2" s="315"/>
-      <c r="BQ2" s="315"/>
-      <c r="BR2" s="315"/>
-      <c r="BS2" s="315"/>
-      <c r="BT2" s="315"/>
-      <c r="BU2" s="315"/>
-      <c r="BV2" s="315"/>
-      <c r="BW2" s="315"/>
-      <c r="BX2" s="315"/>
-      <c r="BY2" s="315"/>
-      <c r="BZ2" s="315"/>
-      <c r="CA2" s="315"/>
-      <c r="CB2" s="316"/>
-      <c r="CC2" s="317"/>
-      <c r="CD2" s="315"/>
-      <c r="CE2" s="315"/>
-      <c r="CF2" s="315"/>
-      <c r="CG2" s="315"/>
-      <c r="CH2" s="315"/>
-      <c r="CI2" s="315"/>
-      <c r="CJ2" s="315"/>
-      <c r="CK2" s="315"/>
-      <c r="CL2" s="315"/>
-      <c r="CM2" s="315"/>
-      <c r="CN2" s="315"/>
-      <c r="CO2" s="315"/>
-      <c r="CP2" s="315"/>
-      <c r="CQ2" s="315"/>
-      <c r="CR2" s="315"/>
-      <c r="CS2" s="315"/>
-      <c r="CT2" s="315"/>
-      <c r="CU2" s="315"/>
-      <c r="CV2" s="315"/>
-      <c r="CW2" s="315"/>
-      <c r="CX2" s="315"/>
-      <c r="CY2" s="315"/>
-      <c r="CZ2" s="315"/>
-      <c r="DA2" s="315"/>
-      <c r="DB2" s="316"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
+      <c r="K2" s="307"/>
+      <c r="L2" s="307"/>
+      <c r="M2" s="307"/>
+      <c r="N2" s="307"/>
+      <c r="O2" s="307"/>
+      <c r="P2" s="307"/>
+      <c r="Q2" s="307"/>
+      <c r="R2" s="307"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="307"/>
+      <c r="U2" s="307"/>
+      <c r="V2" s="307"/>
+      <c r="W2" s="307"/>
+      <c r="X2" s="307"/>
+      <c r="Y2" s="307"/>
+      <c r="Z2" s="307"/>
+      <c r="AA2" s="307"/>
+      <c r="AB2" s="309"/>
+      <c r="AC2" s="332"/>
+      <c r="AD2" s="307"/>
+      <c r="AE2" s="307"/>
+      <c r="AF2" s="307"/>
+      <c r="AG2" s="307"/>
+      <c r="AH2" s="307"/>
+      <c r="AI2" s="307"/>
+      <c r="AJ2" s="307"/>
+      <c r="AK2" s="307"/>
+      <c r="AL2" s="307"/>
+      <c r="AM2" s="307"/>
+      <c r="AN2" s="307"/>
+      <c r="AO2" s="307"/>
+      <c r="AP2" s="307"/>
+      <c r="AQ2" s="307"/>
+      <c r="AR2" s="307"/>
+      <c r="AS2" s="307"/>
+      <c r="AT2" s="307"/>
+      <c r="AU2" s="307"/>
+      <c r="AV2" s="307"/>
+      <c r="AW2" s="307"/>
+      <c r="AX2" s="307"/>
+      <c r="AY2" s="307"/>
+      <c r="AZ2" s="307"/>
+      <c r="BA2" s="307"/>
+      <c r="BB2" s="309"/>
+      <c r="BC2" s="332"/>
+      <c r="BD2" s="307"/>
+      <c r="BE2" s="307"/>
+      <c r="BF2" s="307"/>
+      <c r="BG2" s="307"/>
+      <c r="BH2" s="307"/>
+      <c r="BI2" s="307"/>
+      <c r="BJ2" s="307"/>
+      <c r="BK2" s="307"/>
+      <c r="BL2" s="307"/>
+      <c r="BM2" s="307"/>
+      <c r="BN2" s="307"/>
+      <c r="BO2" s="307"/>
+      <c r="BP2" s="307"/>
+      <c r="BQ2" s="307"/>
+      <c r="BR2" s="307"/>
+      <c r="BS2" s="307"/>
+      <c r="BT2" s="307"/>
+      <c r="BU2" s="307"/>
+      <c r="BV2" s="307"/>
+      <c r="BW2" s="307"/>
+      <c r="BX2" s="307"/>
+      <c r="BY2" s="307"/>
+      <c r="BZ2" s="307"/>
+      <c r="CA2" s="307"/>
+      <c r="CB2" s="309"/>
+      <c r="CC2" s="332"/>
+      <c r="CD2" s="307"/>
+      <c r="CE2" s="307"/>
+      <c r="CF2" s="307"/>
+      <c r="CG2" s="307"/>
+      <c r="CH2" s="307"/>
+      <c r="CI2" s="307"/>
+      <c r="CJ2" s="307"/>
+      <c r="CK2" s="307"/>
+      <c r="CL2" s="307"/>
+      <c r="CM2" s="307"/>
+      <c r="CN2" s="307"/>
+      <c r="CO2" s="307"/>
+      <c r="CP2" s="307"/>
+      <c r="CQ2" s="307"/>
+      <c r="CR2" s="307"/>
+      <c r="CS2" s="307"/>
+      <c r="CT2" s="307"/>
+      <c r="CU2" s="307"/>
+      <c r="CV2" s="307"/>
+      <c r="CW2" s="307"/>
+      <c r="CX2" s="307"/>
+      <c r="CY2" s="307"/>
+      <c r="CZ2" s="307"/>
+      <c r="DA2" s="307"/>
+      <c r="DB2" s="309"/>
     </row>
     <row r="3" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9"/>
       <c r="C3" s="25"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="318">
+      <c r="E3" s="324">
         <v>1</v>
       </c>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318">
+      <c r="F3" s="324"/>
+      <c r="G3" s="324">
         <v>2</v>
       </c>
-      <c r="H3" s="319"/>
-      <c r="I3" s="318">
+      <c r="H3" s="325"/>
+      <c r="I3" s="324">
         <v>3</v>
       </c>
-      <c r="J3" s="319"/>
-      <c r="K3" s="318">
+      <c r="J3" s="325"/>
+      <c r="K3" s="324">
         <v>4</v>
       </c>
-      <c r="L3" s="319"/>
-      <c r="M3" s="318">
+      <c r="L3" s="325"/>
+      <c r="M3" s="324">
         <v>5</v>
       </c>
-      <c r="N3" s="319"/>
-      <c r="O3" s="318">
+      <c r="N3" s="325"/>
+      <c r="O3" s="324">
         <v>6</v>
       </c>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="318">
+      <c r="P3" s="325"/>
+      <c r="Q3" s="324">
         <v>7</v>
       </c>
-      <c r="R3" s="319"/>
-      <c r="S3" s="318">
+      <c r="R3" s="325"/>
+      <c r="S3" s="324">
         <v>8</v>
       </c>
-      <c r="T3" s="319"/>
-      <c r="U3" s="318">
+      <c r="T3" s="325"/>
+      <c r="U3" s="324">
         <v>9</v>
       </c>
-      <c r="V3" s="319"/>
-      <c r="W3" s="318">
+      <c r="V3" s="325"/>
+      <c r="W3" s="324">
         <v>10</v>
       </c>
-      <c r="X3" s="319"/>
-      <c r="Y3" s="318">
+      <c r="X3" s="325"/>
+      <c r="Y3" s="324">
         <v>11</v>
       </c>
-      <c r="Z3" s="319"/>
-      <c r="AA3" s="318">
+      <c r="Z3" s="325"/>
+      <c r="AA3" s="324">
         <v>12</v>
       </c>
-      <c r="AB3" s="320"/>
+      <c r="AB3" s="326"/>
       <c r="AC3" s="106"/>
       <c r="AD3" s="46"/>
-      <c r="AE3" s="318">
+      <c r="AE3" s="324">
         <v>1</v>
       </c>
-      <c r="AF3" s="318"/>
-      <c r="AG3" s="318">
+      <c r="AF3" s="324"/>
+      <c r="AG3" s="324">
         <v>2</v>
       </c>
-      <c r="AH3" s="319"/>
-      <c r="AI3" s="318">
+      <c r="AH3" s="325"/>
+      <c r="AI3" s="324">
         <v>3</v>
       </c>
-      <c r="AJ3" s="319"/>
-      <c r="AK3" s="318">
+      <c r="AJ3" s="325"/>
+      <c r="AK3" s="324">
         <v>4</v>
       </c>
-      <c r="AL3" s="319"/>
-      <c r="AM3" s="318">
+      <c r="AL3" s="325"/>
+      <c r="AM3" s="324">
         <v>5</v>
       </c>
-      <c r="AN3" s="319"/>
-      <c r="AO3" s="318">
+      <c r="AN3" s="325"/>
+      <c r="AO3" s="324">
         <v>6</v>
       </c>
-      <c r="AP3" s="319"/>
-      <c r="AQ3" s="318">
+      <c r="AP3" s="325"/>
+      <c r="AQ3" s="324">
         <v>7</v>
       </c>
-      <c r="AR3" s="319"/>
-      <c r="AS3" s="318">
+      <c r="AR3" s="325"/>
+      <c r="AS3" s="324">
         <v>8</v>
       </c>
-      <c r="AT3" s="319"/>
-      <c r="AU3" s="318">
+      <c r="AT3" s="325"/>
+      <c r="AU3" s="324">
         <v>9</v>
       </c>
-      <c r="AV3" s="319"/>
-      <c r="AW3" s="318">
+      <c r="AV3" s="325"/>
+      <c r="AW3" s="324">
         <v>10</v>
       </c>
-      <c r="AX3" s="319"/>
-      <c r="AY3" s="318">
+      <c r="AX3" s="325"/>
+      <c r="AY3" s="324">
         <v>11</v>
       </c>
-      <c r="AZ3" s="319"/>
-      <c r="BA3" s="318">
+      <c r="AZ3" s="325"/>
+      <c r="BA3" s="324">
         <v>12</v>
       </c>
-      <c r="BB3" s="320"/>
+      <c r="BB3" s="326"/>
       <c r="BC3" s="106"/>
       <c r="BD3" s="46"/>
-      <c r="BE3" s="318">
+      <c r="BE3" s="324">
         <v>1</v>
       </c>
-      <c r="BF3" s="318"/>
-      <c r="BG3" s="318">
+      <c r="BF3" s="324"/>
+      <c r="BG3" s="324">
         <v>2</v>
       </c>
-      <c r="BH3" s="319"/>
-      <c r="BI3" s="318">
+      <c r="BH3" s="325"/>
+      <c r="BI3" s="324">
         <v>3</v>
       </c>
-      <c r="BJ3" s="319"/>
-      <c r="BK3" s="318">
+      <c r="BJ3" s="325"/>
+      <c r="BK3" s="324">
         <v>4</v>
       </c>
-      <c r="BL3" s="319"/>
-      <c r="BM3" s="318">
+      <c r="BL3" s="325"/>
+      <c r="BM3" s="324">
         <v>5</v>
       </c>
-      <c r="BN3" s="319"/>
-      <c r="BO3" s="318">
+      <c r="BN3" s="325"/>
+      <c r="BO3" s="324">
         <v>6</v>
       </c>
-      <c r="BP3" s="319"/>
-      <c r="BQ3" s="318">
+      <c r="BP3" s="325"/>
+      <c r="BQ3" s="324">
         <v>7</v>
       </c>
-      <c r="BR3" s="319"/>
-      <c r="BS3" s="318">
+      <c r="BR3" s="325"/>
+      <c r="BS3" s="324">
         <v>8</v>
       </c>
-      <c r="BT3" s="319"/>
-      <c r="BU3" s="318">
+      <c r="BT3" s="325"/>
+      <c r="BU3" s="324">
         <v>9</v>
       </c>
-      <c r="BV3" s="319"/>
-      <c r="BW3" s="318">
+      <c r="BV3" s="325"/>
+      <c r="BW3" s="324">
         <v>10</v>
       </c>
-      <c r="BX3" s="319"/>
-      <c r="BY3" s="318">
+      <c r="BX3" s="325"/>
+      <c r="BY3" s="324">
         <v>11</v>
       </c>
-      <c r="BZ3" s="319"/>
-      <c r="CA3" s="318">
+      <c r="BZ3" s="325"/>
+      <c r="CA3" s="324">
         <v>12</v>
       </c>
-      <c r="CB3" s="320"/>
+      <c r="CB3" s="326"/>
       <c r="CC3" s="106"/>
       <c r="CD3" s="46"/>
-      <c r="CE3" s="318">
+      <c r="CE3" s="324">
         <v>1</v>
       </c>
-      <c r="CF3" s="318"/>
-      <c r="CG3" s="318">
+      <c r="CF3" s="324"/>
+      <c r="CG3" s="324">
         <v>2</v>
       </c>
-      <c r="CH3" s="318"/>
-      <c r="CI3" s="318">
+      <c r="CH3" s="324"/>
+      <c r="CI3" s="324">
         <v>3</v>
       </c>
-      <c r="CJ3" s="318"/>
-      <c r="CK3" s="318">
+      <c r="CJ3" s="324"/>
+      <c r="CK3" s="324">
         <v>4</v>
       </c>
-      <c r="CL3" s="318"/>
-      <c r="CM3" s="318">
+      <c r="CL3" s="324"/>
+      <c r="CM3" s="324">
         <v>5</v>
       </c>
-      <c r="CN3" s="318"/>
-      <c r="CO3" s="318">
+      <c r="CN3" s="324"/>
+      <c r="CO3" s="324">
         <v>6</v>
       </c>
-      <c r="CP3" s="318"/>
-      <c r="CQ3" s="318">
+      <c r="CP3" s="324"/>
+      <c r="CQ3" s="324">
         <v>7</v>
       </c>
-      <c r="CR3" s="318"/>
-      <c r="CS3" s="318">
+      <c r="CR3" s="324"/>
+      <c r="CS3" s="324">
         <v>8</v>
       </c>
-      <c r="CT3" s="318"/>
-      <c r="CU3" s="318">
+      <c r="CT3" s="324"/>
+      <c r="CU3" s="324">
         <v>9</v>
       </c>
-      <c r="CV3" s="318"/>
-      <c r="CW3" s="318">
+      <c r="CV3" s="324"/>
+      <c r="CW3" s="324">
         <v>10</v>
       </c>
-      <c r="CX3" s="318"/>
-      <c r="CY3" s="318">
+      <c r="CX3" s="324"/>
+      <c r="CY3" s="324">
         <v>11</v>
       </c>
-      <c r="CZ3" s="318"/>
-      <c r="DA3" s="318">
+      <c r="CZ3" s="324"/>
+      <c r="DA3" s="324">
         <v>12</v>
       </c>
-      <c r="DB3" s="318"/>
+      <c r="DB3" s="324"/>
     </row>
     <row r="4" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="184" t="s">
-        <v>567</v>
-      </c>
-      <c r="C4" s="323" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="320" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="324"/>
-      <c r="E4" s="327" t="str" cm="1">
+      <c r="D4" s="314"/>
+      <c r="E4" s="310" t="str" cm="1">
         <f t="array" ref="E4">IF(COUNTA(INDEX(Buildings, E3))&gt;0,INDEX(Buildings, E3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="F4" s="328"/>
-      <c r="G4" s="329" t="str" cm="1">
+      <c r="F4" s="311"/>
+      <c r="G4" s="322" t="str" cm="1">
         <f t="array" ref="G4">IF(COUNTA(INDEX(Buildings, G3))&gt;0,INDEX(Buildings, G3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="H4" s="328"/>
-      <c r="I4" s="330" t="str" cm="1">
+      <c r="H4" s="311"/>
+      <c r="I4" s="323" t="str" cm="1">
         <f t="array" ref="I4">IF(COUNTA(INDEX(Buildings, I3))&gt;0,INDEX(Buildings, I3),"")</f>
         <v/>
       </c>
-      <c r="J4" s="322"/>
-      <c r="K4" s="321" t="str" cm="1">
+      <c r="J4" s="319"/>
+      <c r="K4" s="317" t="str" cm="1">
         <f t="array" ref="K4">IF(COUNTA(INDEX(Buildings, K3))&gt;0,INDEX(Buildings, K3),"")</f>
         <v/>
       </c>
-      <c r="L4" s="322"/>
-      <c r="M4" s="321" t="str" cm="1">
+      <c r="L4" s="319"/>
+      <c r="M4" s="317" t="str" cm="1">
         <f t="array" ref="M4">IF(COUNTA(INDEX(Buildings, M3))&gt;0,INDEX(Buildings, M3),"")</f>
         <v/>
       </c>
-      <c r="N4" s="322"/>
-      <c r="O4" s="321" t="str" cm="1">
+      <c r="N4" s="319"/>
+      <c r="O4" s="317" t="str" cm="1">
         <f t="array" ref="O4">IF(COUNTA(INDEX(Buildings, O3))&gt;0,INDEX(Buildings, O3),"")</f>
         <v/>
       </c>
-      <c r="P4" s="322"/>
-      <c r="Q4" s="321" t="str" cm="1">
+      <c r="P4" s="319"/>
+      <c r="Q4" s="317" t="str" cm="1">
         <f t="array" ref="Q4">IF(COUNTA(INDEX(Buildings, Q3))&gt;0,INDEX(Buildings, Q3),"")</f>
         <v/>
       </c>
-      <c r="R4" s="322"/>
-      <c r="S4" s="321" t="str" cm="1">
+      <c r="R4" s="319"/>
+      <c r="S4" s="317" t="str" cm="1">
         <f t="array" ref="S4">IF(COUNTA(INDEX(Buildings, S3))&gt;0,INDEX(Buildings, S3),"")</f>
         <v/>
       </c>
-      <c r="T4" s="322"/>
-      <c r="U4" s="321" t="str" cm="1">
+      <c r="T4" s="319"/>
+      <c r="U4" s="317" t="str" cm="1">
         <f t="array" ref="U4">IF(COUNTA(INDEX(Buildings, U3))&gt;0,INDEX(Buildings, U3),"")</f>
         <v/>
       </c>
-      <c r="V4" s="322"/>
-      <c r="W4" s="321" t="str" cm="1">
+      <c r="V4" s="319"/>
+      <c r="W4" s="317" t="str" cm="1">
         <f t="array" ref="W4">IF(COUNTA(INDEX(Buildings, W3))&gt;0,INDEX(Buildings, W3),"")</f>
         <v/>
       </c>
-      <c r="X4" s="322"/>
-      <c r="Y4" s="321" t="str" cm="1">
+      <c r="X4" s="319"/>
+      <c r="Y4" s="317" t="str" cm="1">
         <f t="array" ref="Y4">IF(COUNTA(INDEX(Buildings, Y3))&gt;0,INDEX(Buildings, Y3),"")</f>
         <v/>
       </c>
-      <c r="Z4" s="322"/>
-      <c r="AA4" s="321" t="str" cm="1">
+      <c r="Z4" s="319"/>
+      <c r="AA4" s="317" t="str" cm="1">
         <f t="array" ref="AA4">IF(COUNTA(INDEX(Buildings, AA3))&gt;0,INDEX(Buildings, AA3),"")</f>
         <v/>
       </c>
-      <c r="AB4" s="332"/>
-      <c r="AC4" s="333" t="s">
+      <c r="AB4" s="318"/>
+      <c r="AC4" s="313" t="s">
         <v>119</v>
       </c>
-      <c r="AD4" s="324"/>
-      <c r="AE4" s="327" t="str" cm="1">
+      <c r="AD4" s="314"/>
+      <c r="AE4" s="310" t="str" cm="1">
         <f t="array" ref="AE4">IF(COUNTA(INDEX(Buildings, AE3))&gt;0,INDEX(Buildings, AE3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="AF4" s="328"/>
-      <c r="AG4" s="327" t="str" cm="1">
+      <c r="AF4" s="311"/>
+      <c r="AG4" s="310" t="str" cm="1">
         <f t="array" ref="AG4">IF(COUNTA(INDEX(Buildings, AG3))&gt;0,INDEX(Buildings, AG3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="AH4" s="328"/>
-      <c r="AI4" s="327" t="str" cm="1">
+      <c r="AH4" s="311"/>
+      <c r="AI4" s="310" t="str" cm="1">
         <f t="array" ref="AI4">IF(COUNTA(INDEX(Buildings, AI3))&gt;0,INDEX(Buildings, AI3),"")</f>
         <v/>
       </c>
-      <c r="AJ4" s="328"/>
-      <c r="AK4" s="327" t="str" cm="1">
+      <c r="AJ4" s="311"/>
+      <c r="AK4" s="310" t="str" cm="1">
         <f t="array" ref="AK4">IF(COUNTA(INDEX(Buildings, AK3))&gt;0,INDEX(Buildings, AK3),"")</f>
         <v/>
       </c>
-      <c r="AL4" s="328"/>
-      <c r="AM4" s="327" t="str" cm="1">
+      <c r="AL4" s="311"/>
+      <c r="AM4" s="310" t="str" cm="1">
         <f t="array" ref="AM4">IF(COUNTA(INDEX(Buildings, AM3))&gt;0,INDEX(Buildings, AM3),"")</f>
         <v/>
       </c>
-      <c r="AN4" s="328"/>
-      <c r="AO4" s="327" t="str" cm="1">
+      <c r="AN4" s="311"/>
+      <c r="AO4" s="310" t="str" cm="1">
         <f t="array" ref="AO4">IF(COUNTA(INDEX(Buildings, AO3))&gt;0,INDEX(Buildings, AO3),"")</f>
         <v/>
       </c>
-      <c r="AP4" s="328"/>
-      <c r="AQ4" s="327" t="str" cm="1">
+      <c r="AP4" s="311"/>
+      <c r="AQ4" s="310" t="str" cm="1">
         <f t="array" ref="AQ4">IF(COUNTA(INDEX(Buildings, AQ3))&gt;0,INDEX(Buildings, AQ3),"")</f>
         <v/>
       </c>
-      <c r="AR4" s="328"/>
-      <c r="AS4" s="327" t="str" cm="1">
+      <c r="AR4" s="311"/>
+      <c r="AS4" s="310" t="str" cm="1">
         <f t="array" ref="AS4">IF(COUNTA(INDEX(Buildings, AS3))&gt;0,INDEX(Buildings, AS3),"")</f>
         <v/>
       </c>
-      <c r="AT4" s="328"/>
-      <c r="AU4" s="327" t="str" cm="1">
+      <c r="AT4" s="311"/>
+      <c r="AU4" s="310" t="str" cm="1">
         <f t="array" ref="AU4">IF(COUNTA(INDEX(Buildings, AU3))&gt;0,INDEX(Buildings, AU3),"")</f>
         <v/>
       </c>
-      <c r="AV4" s="328"/>
-      <c r="AW4" s="327" t="str" cm="1">
+      <c r="AV4" s="311"/>
+      <c r="AW4" s="310" t="str" cm="1">
         <f t="array" ref="AW4">IF(COUNTA(INDEX(Buildings, AW3))&gt;0,INDEX(Buildings, AW3),"")</f>
         <v/>
       </c>
-      <c r="AX4" s="328"/>
-      <c r="AY4" s="327" t="str" cm="1">
+      <c r="AX4" s="311"/>
+      <c r="AY4" s="310" t="str" cm="1">
         <f t="array" ref="AY4">IF(COUNTA(INDEX(Buildings, AY3))&gt;0,INDEX(Buildings, AY3),"")</f>
         <v/>
       </c>
-      <c r="AZ4" s="328"/>
-      <c r="BA4" s="327" t="str" cm="1">
+      <c r="AZ4" s="311"/>
+      <c r="BA4" s="310" t="str" cm="1">
         <f t="array" ref="BA4">IF(COUNTA(INDEX(Buildings, BA3))&gt;0,INDEX(Buildings, BA3),"")</f>
         <v/>
       </c>
-      <c r="BB4" s="335"/>
-      <c r="BC4" s="333" t="s">
+      <c r="BB4" s="312"/>
+      <c r="BC4" s="313" t="s">
         <v>119</v>
       </c>
-      <c r="BD4" s="324"/>
-      <c r="BE4" s="327" t="str" cm="1">
+      <c r="BD4" s="314"/>
+      <c r="BE4" s="310" t="str" cm="1">
         <f t="array" ref="BE4">IF(COUNTA(INDEX(Buildings, BE3))&gt;0,INDEX(Buildings, BE3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="BF4" s="328"/>
-      <c r="BG4" s="327" t="str" cm="1">
+      <c r="BF4" s="311"/>
+      <c r="BG4" s="310" t="str" cm="1">
         <f t="array" ref="BG4">IF(COUNTA(INDEX(Buildings, BG3))&gt;0,INDEX(Buildings, BG3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="BH4" s="328"/>
-      <c r="BI4" s="327" t="str" cm="1">
+      <c r="BH4" s="311"/>
+      <c r="BI4" s="310" t="str" cm="1">
         <f t="array" ref="BI4">IF(COUNTA(INDEX(Buildings, BI3))&gt;0,INDEX(Buildings, BI3),"")</f>
         <v/>
       </c>
-      <c r="BJ4" s="328"/>
-      <c r="BK4" s="327" t="str" cm="1">
+      <c r="BJ4" s="311"/>
+      <c r="BK4" s="310" t="str" cm="1">
         <f t="array" ref="BK4">IF(COUNTA(INDEX(Buildings, BK3))&gt;0,INDEX(Buildings, BK3),"")</f>
         <v/>
       </c>
-      <c r="BL4" s="328"/>
-      <c r="BM4" s="327" t="str" cm="1">
+      <c r="BL4" s="311"/>
+      <c r="BM4" s="310" t="str" cm="1">
         <f t="array" ref="BM4">IF(COUNTA(INDEX(Buildings, BM3))&gt;0,INDEX(Buildings, BM3),"")</f>
         <v/>
       </c>
-      <c r="BN4" s="328"/>
-      <c r="BO4" s="327" t="str" cm="1">
+      <c r="BN4" s="311"/>
+      <c r="BO4" s="310" t="str" cm="1">
         <f t="array" ref="BO4">IF(COUNTA(INDEX(Buildings, BO3))&gt;0,INDEX(Buildings, BO3),"")</f>
         <v/>
       </c>
-      <c r="BP4" s="328"/>
-      <c r="BQ4" s="327" t="str" cm="1">
+      <c r="BP4" s="311"/>
+      <c r="BQ4" s="310" t="str" cm="1">
         <f t="array" ref="BQ4">IF(COUNTA(INDEX(Buildings, BQ3))&gt;0,INDEX(Buildings, BQ3),"")</f>
         <v/>
       </c>
-      <c r="BR4" s="328"/>
-      <c r="BS4" s="327" t="str" cm="1">
+      <c r="BR4" s="311"/>
+      <c r="BS4" s="310" t="str" cm="1">
         <f t="array" ref="BS4">IF(COUNTA(INDEX(Buildings, BS3))&gt;0,INDEX(Buildings, BS3),"")</f>
         <v/>
       </c>
-      <c r="BT4" s="328"/>
-      <c r="BU4" s="327" t="str" cm="1">
+      <c r="BT4" s="311"/>
+      <c r="BU4" s="310" t="str" cm="1">
         <f t="array" ref="BU4">IF(COUNTA(INDEX(Buildings, BU3))&gt;0,INDEX(Buildings, BU3),"")</f>
         <v/>
       </c>
-      <c r="BV4" s="328"/>
-      <c r="BW4" s="327" t="str" cm="1">
+      <c r="BV4" s="311"/>
+      <c r="BW4" s="310" t="str" cm="1">
         <f t="array" ref="BW4">IF(COUNTA(INDEX(Buildings, BW3))&gt;0,INDEX(Buildings, BW3),"")</f>
         <v/>
       </c>
-      <c r="BX4" s="328"/>
-      <c r="BY4" s="327" t="str" cm="1">
+      <c r="BX4" s="311"/>
+      <c r="BY4" s="310" t="str" cm="1">
         <f t="array" ref="BY4">IF(COUNTA(INDEX(Buildings, BY3))&gt;0,INDEX(Buildings, BY3),"")</f>
         <v/>
       </c>
-      <c r="BZ4" s="328"/>
-      <c r="CA4" s="327" t="str" cm="1">
+      <c r="BZ4" s="311"/>
+      <c r="CA4" s="310" t="str" cm="1">
         <f t="array" ref="CA4">IF(COUNTA(INDEX(Buildings, CA3))&gt;0,INDEX(Buildings, CA3),"")</f>
         <v/>
       </c>
-      <c r="CB4" s="335"/>
-      <c r="CC4" s="333" t="s">
+      <c r="CB4" s="312"/>
+      <c r="CC4" s="313" t="s">
         <v>119</v>
       </c>
-      <c r="CD4" s="324"/>
-      <c r="CE4" s="327" t="str" cm="1">
+      <c r="CD4" s="314"/>
+      <c r="CE4" s="310" t="str" cm="1">
         <f t="array" ref="CE4">IF(COUNTA(INDEX(Buildings, CE3))&gt;0,INDEX(Buildings, CE3),"")</f>
         <v>SFH</v>
       </c>
-      <c r="CF4" s="328"/>
-      <c r="CG4" s="327" t="str" cm="1">
+      <c r="CF4" s="311"/>
+      <c r="CG4" s="310" t="str" cm="1">
         <f t="array" ref="CG4">IF(COUNTA(INDEX(Buildings, CG3))&gt;0,INDEX(Buildings, CG3),"")</f>
         <v>MFH</v>
       </c>
-      <c r="CH4" s="328"/>
-      <c r="CI4" s="327" t="str" cm="1">
+      <c r="CH4" s="311"/>
+      <c r="CI4" s="310" t="str" cm="1">
         <f t="array" ref="CI4">IF(COUNTA(INDEX(Buildings, CI3))&gt;0,INDEX(Buildings, CI3),"")</f>
         <v/>
       </c>
-      <c r="CJ4" s="328"/>
-      <c r="CK4" s="327" t="str" cm="1">
+      <c r="CJ4" s="311"/>
+      <c r="CK4" s="310" t="str" cm="1">
         <f t="array" ref="CK4">IF(COUNTA(INDEX(Buildings, CK3))&gt;0,INDEX(Buildings, CK3),"")</f>
         <v/>
       </c>
-      <c r="CL4" s="328"/>
-      <c r="CM4" s="327" t="str" cm="1">
+      <c r="CL4" s="311"/>
+      <c r="CM4" s="310" t="str" cm="1">
         <f t="array" ref="CM4">IF(COUNTA(INDEX(Buildings, CM3))&gt;0,INDEX(Buildings, CM3),"")</f>
         <v/>
       </c>
-      <c r="CN4" s="328"/>
-      <c r="CO4" s="327" t="str" cm="1">
+      <c r="CN4" s="311"/>
+      <c r="CO4" s="310" t="str" cm="1">
         <f t="array" ref="CO4">IF(COUNTA(INDEX(Buildings, CO3))&gt;0,INDEX(Buildings, CO3),"")</f>
         <v/>
       </c>
-      <c r="CP4" s="328"/>
-      <c r="CQ4" s="327" t="str" cm="1">
+      <c r="CP4" s="311"/>
+      <c r="CQ4" s="310" t="str" cm="1">
         <f t="array" ref="CQ4">IF(COUNTA(INDEX(Buildings, CQ3))&gt;0,INDEX(Buildings, CQ3),"")</f>
         <v/>
       </c>
-      <c r="CR4" s="328"/>
-      <c r="CS4" s="327" t="str" cm="1">
+      <c r="CR4" s="311"/>
+      <c r="CS4" s="310" t="str" cm="1">
         <f t="array" ref="CS4">IF(COUNTA(INDEX(Buildings, CS3))&gt;0,INDEX(Buildings, CS3),"")</f>
         <v/>
       </c>
-      <c r="CT4" s="328"/>
-      <c r="CU4" s="327" t="str" cm="1">
+      <c r="CT4" s="311"/>
+      <c r="CU4" s="310" t="str" cm="1">
         <f t="array" ref="CU4">IF(COUNTA(INDEX(Buildings, CU3))&gt;0,INDEX(Buildings, CU3),"")</f>
         <v/>
       </c>
-      <c r="CV4" s="328"/>
-      <c r="CW4" s="327" t="str" cm="1">
+      <c r="CV4" s="311"/>
+      <c r="CW4" s="310" t="str" cm="1">
         <f t="array" ref="CW4">IF(COUNTA(INDEX(Buildings, CW3))&gt;0,INDEX(Buildings, CW3),"")</f>
         <v/>
       </c>
-      <c r="CX4" s="328"/>
-      <c r="CY4" s="327" t="str" cm="1">
+      <c r="CX4" s="311"/>
+      <c r="CY4" s="310" t="str" cm="1">
         <f t="array" ref="CY4">IF(COUNTA(INDEX(Buildings, CY3))&gt;0,INDEX(Buildings, CY3),"")</f>
         <v/>
       </c>
-      <c r="CZ4" s="328"/>
-      <c r="DA4" s="327" t="str" cm="1">
+      <c r="CZ4" s="311"/>
+      <c r="DA4" s="310" t="str" cm="1">
         <f t="array" ref="DA4">IF(COUNTA(INDEX(Buildings, DA3))&gt;0,INDEX(Buildings, DA3),"")</f>
         <v/>
       </c>
-      <c r="DB4" s="335"/>
+      <c r="DB4" s="312"/>
     </row>
     <row r="5" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="184" t="s">
-        <v>568</v>
-      </c>
-      <c r="C5" s="325"/>
-      <c r="D5" s="326"/>
-      <c r="E5" s="315">
+        <v>567</v>
+      </c>
+      <c r="C5" s="321"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="307">
         <v>594</v>
       </c>
-      <c r="F5" s="331"/>
-      <c r="G5" s="315">
+      <c r="F5" s="308"/>
+      <c r="G5" s="307">
         <v>212</v>
       </c>
-      <c r="H5" s="331"/>
-      <c r="I5" s="315"/>
-      <c r="J5" s="331"/>
-      <c r="K5" s="315"/>
-      <c r="L5" s="331"/>
-      <c r="M5" s="315"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="315"/>
-      <c r="P5" s="331"/>
-      <c r="Q5" s="315"/>
-      <c r="R5" s="331"/>
-      <c r="S5" s="315"/>
-      <c r="T5" s="331"/>
-      <c r="U5" s="315"/>
-      <c r="V5" s="331"/>
-      <c r="W5" s="315"/>
-      <c r="X5" s="331"/>
-      <c r="Y5" s="315"/>
-      <c r="Z5" s="331"/>
-      <c r="AA5" s="315"/>
-      <c r="AB5" s="316"/>
-      <c r="AC5" s="334"/>
-      <c r="AD5" s="326"/>
-      <c r="AE5" s="315"/>
-      <c r="AF5" s="331"/>
-      <c r="AG5" s="315"/>
-      <c r="AH5" s="331"/>
-      <c r="AI5" s="315"/>
-      <c r="AJ5" s="331"/>
-      <c r="AK5" s="315"/>
-      <c r="AL5" s="331"/>
-      <c r="AM5" s="315"/>
-      <c r="AN5" s="331"/>
-      <c r="AO5" s="315"/>
-      <c r="AP5" s="331"/>
-      <c r="AQ5" s="315"/>
-      <c r="AR5" s="331"/>
-      <c r="AS5" s="315"/>
-      <c r="AT5" s="331"/>
-      <c r="AU5" s="315"/>
-      <c r="AV5" s="331"/>
-      <c r="AW5" s="315"/>
-      <c r="AX5" s="331"/>
-      <c r="AY5" s="315"/>
-      <c r="AZ5" s="331"/>
-      <c r="BA5" s="315"/>
-      <c r="BB5" s="316"/>
-      <c r="BC5" s="334"/>
-      <c r="BD5" s="326"/>
-      <c r="BE5" s="315"/>
-      <c r="BF5" s="331"/>
-      <c r="BG5" s="315"/>
-      <c r="BH5" s="331"/>
-      <c r="BI5" s="315"/>
-      <c r="BJ5" s="331"/>
-      <c r="BK5" s="315"/>
-      <c r="BL5" s="331"/>
-      <c r="BM5" s="315"/>
-      <c r="BN5" s="331"/>
-      <c r="BO5" s="315"/>
-      <c r="BP5" s="331"/>
-      <c r="BQ5" s="315"/>
-      <c r="BR5" s="331"/>
-      <c r="BS5" s="315"/>
-      <c r="BT5" s="331"/>
-      <c r="BU5" s="315"/>
-      <c r="BV5" s="331"/>
-      <c r="BW5" s="315"/>
-      <c r="BX5" s="331"/>
-      <c r="BY5" s="315"/>
-      <c r="BZ5" s="331"/>
-      <c r="CA5" s="315"/>
-      <c r="CB5" s="316"/>
-      <c r="CC5" s="334"/>
-      <c r="CD5" s="326"/>
-      <c r="CE5" s="315"/>
-      <c r="CF5" s="331"/>
-      <c r="CG5" s="315"/>
-      <c r="CH5" s="331"/>
-      <c r="CI5" s="315"/>
-      <c r="CJ5" s="331"/>
-      <c r="CK5" s="315"/>
-      <c r="CL5" s="331"/>
-      <c r="CM5" s="315"/>
-      <c r="CN5" s="331"/>
-      <c r="CO5" s="315"/>
-      <c r="CP5" s="331"/>
-      <c r="CQ5" s="315"/>
-      <c r="CR5" s="331"/>
-      <c r="CS5" s="315"/>
-      <c r="CT5" s="331"/>
-      <c r="CU5" s="315"/>
-      <c r="CV5" s="331"/>
-      <c r="CW5" s="315"/>
-      <c r="CX5" s="331"/>
-      <c r="CY5" s="315"/>
-      <c r="CZ5" s="331"/>
-      <c r="DA5" s="315"/>
-      <c r="DB5" s="316"/>
+      <c r="H5" s="308"/>
+      <c r="I5" s="307"/>
+      <c r="J5" s="308"/>
+      <c r="K5" s="307"/>
+      <c r="L5" s="308"/>
+      <c r="M5" s="307"/>
+      <c r="N5" s="308"/>
+      <c r="O5" s="307"/>
+      <c r="P5" s="308"/>
+      <c r="Q5" s="307"/>
+      <c r="R5" s="308"/>
+      <c r="S5" s="307"/>
+      <c r="T5" s="308"/>
+      <c r="U5" s="307"/>
+      <c r="V5" s="308"/>
+      <c r="W5" s="307"/>
+      <c r="X5" s="308"/>
+      <c r="Y5" s="307"/>
+      <c r="Z5" s="308"/>
+      <c r="AA5" s="307"/>
+      <c r="AB5" s="309"/>
+      <c r="AC5" s="315"/>
+      <c r="AD5" s="316"/>
+      <c r="AE5" s="307"/>
+      <c r="AF5" s="308"/>
+      <c r="AG5" s="307"/>
+      <c r="AH5" s="308"/>
+      <c r="AI5" s="307"/>
+      <c r="AJ5" s="308"/>
+      <c r="AK5" s="307"/>
+      <c r="AL5" s="308"/>
+      <c r="AM5" s="307"/>
+      <c r="AN5" s="308"/>
+      <c r="AO5" s="307"/>
+      <c r="AP5" s="308"/>
+      <c r="AQ5" s="307"/>
+      <c r="AR5" s="308"/>
+      <c r="AS5" s="307"/>
+      <c r="AT5" s="308"/>
+      <c r="AU5" s="307"/>
+      <c r="AV5" s="308"/>
+      <c r="AW5" s="307"/>
+      <c r="AX5" s="308"/>
+      <c r="AY5" s="307"/>
+      <c r="AZ5" s="308"/>
+      <c r="BA5" s="307"/>
+      <c r="BB5" s="309"/>
+      <c r="BC5" s="315"/>
+      <c r="BD5" s="316"/>
+      <c r="BE5" s="307"/>
+      <c r="BF5" s="308"/>
+      <c r="BG5" s="307"/>
+      <c r="BH5" s="308"/>
+      <c r="BI5" s="307"/>
+      <c r="BJ5" s="308"/>
+      <c r="BK5" s="307"/>
+      <c r="BL5" s="308"/>
+      <c r="BM5" s="307"/>
+      <c r="BN5" s="308"/>
+      <c r="BO5" s="307"/>
+      <c r="BP5" s="308"/>
+      <c r="BQ5" s="307"/>
+      <c r="BR5" s="308"/>
+      <c r="BS5" s="307"/>
+      <c r="BT5" s="308"/>
+      <c r="BU5" s="307"/>
+      <c r="BV5" s="308"/>
+      <c r="BW5" s="307"/>
+      <c r="BX5" s="308"/>
+      <c r="BY5" s="307"/>
+      <c r="BZ5" s="308"/>
+      <c r="CA5" s="307"/>
+      <c r="CB5" s="309"/>
+      <c r="CC5" s="315"/>
+      <c r="CD5" s="316"/>
+      <c r="CE5" s="307"/>
+      <c r="CF5" s="308"/>
+      <c r="CG5" s="307"/>
+      <c r="CH5" s="308"/>
+      <c r="CI5" s="307"/>
+      <c r="CJ5" s="308"/>
+      <c r="CK5" s="307"/>
+      <c r="CL5" s="308"/>
+      <c r="CM5" s="307"/>
+      <c r="CN5" s="308"/>
+      <c r="CO5" s="307"/>
+      <c r="CP5" s="308"/>
+      <c r="CQ5" s="307"/>
+      <c r="CR5" s="308"/>
+      <c r="CS5" s="307"/>
+      <c r="CT5" s="308"/>
+      <c r="CU5" s="307"/>
+      <c r="CV5" s="308"/>
+      <c r="CW5" s="307"/>
+      <c r="CX5" s="308"/>
+      <c r="CY5" s="307"/>
+      <c r="CZ5" s="308"/>
+      <c r="DA5" s="307"/>
+      <c r="DB5" s="309"/>
     </row>
     <row r="6" spans="1:106" s="117" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="112"/>
@@ -33994,7 +34181,7 @@
     <row r="128" spans="1:106" s="117" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="112"/>
       <c r="B128" s="113" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C128" s="114" t="s">
         <v>122</v>
@@ -41098,7 +41285,7 @@
     <row r="189" spans="1:106" s="117" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A189" s="112"/>
       <c r="B189" s="113" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C189" s="114" t="s">
         <v>86</v>
@@ -48314,27 +48501,117 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CW5:CX5"/>
-    <mergeCell ref="CY5:CZ5"/>
-    <mergeCell ref="DA5:DB5"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CK5:CL5"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CQ5:CR5"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="C1:AB1"/>
+    <mergeCell ref="AC1:BB1"/>
+    <mergeCell ref="BC1:CB1"/>
+    <mergeCell ref="CC1:DB1"/>
+    <mergeCell ref="C2:AB2"/>
+    <mergeCell ref="AC2:BB2"/>
+    <mergeCell ref="BC2:CB2"/>
+    <mergeCell ref="CC2:DB2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CS3:CT3"/>
+    <mergeCell ref="CU3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DA3:DB3"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CK3:CL3"/>
+    <mergeCell ref="CM3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD5"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD5"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BU5:BV5"/>
     <mergeCell ref="CU4:CV4"/>
     <mergeCell ref="CW4:CX4"/>
     <mergeCell ref="CY4:CZ4"/>
@@ -48359,117 +48636,27 @@
     <mergeCell ref="CG4:CH4"/>
     <mergeCell ref="BK4:BL4"/>
     <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD5"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD5"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CS3:CT3"/>
-    <mergeCell ref="CU3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DA3:DB3"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CK3:CL3"/>
-    <mergeCell ref="CM3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BW3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="C1:AB1"/>
-    <mergeCell ref="AC1:BB1"/>
-    <mergeCell ref="BC1:CB1"/>
-    <mergeCell ref="CC1:DB1"/>
-    <mergeCell ref="C2:AB2"/>
-    <mergeCell ref="AC2:BB2"/>
-    <mergeCell ref="BC2:CB2"/>
-    <mergeCell ref="CC2:DB2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CW5:CX5"/>
+    <mergeCell ref="CY5:CZ5"/>
+    <mergeCell ref="DA5:DB5"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CK5:CL5"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CQ5:CR5"/>
+    <mergeCell ref="CS5:CT5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -48521,13 +48708,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="333" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="338"/>
+      <c r="B3" s="334"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="335"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
@@ -48606,13 +48793,13 @@
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="336" t="s">
+      <c r="A10" s="333" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="337"/>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="338"/>
+      <c r="B10" s="334"/>
+      <c r="C10" s="334"/>
+      <c r="D10" s="334"/>
+      <c r="E10" s="335"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="60"/>
@@ -48691,13 +48878,13 @@
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="336" t="s">
+      <c r="A17" s="333" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="337"/>
-      <c r="C17" s="337"/>
-      <c r="D17" s="337"/>
-      <c r="E17" s="338"/>
+      <c r="B17" s="334"/>
+      <c r="C17" s="334"/>
+      <c r="D17" s="334"/>
+      <c r="E17" s="335"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="60"/>
@@ -48774,13 +48961,13 @@
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="336" t="s">
+      <c r="A24" s="333" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="337"/>
-      <c r="C24" s="337"/>
-      <c r="D24" s="337"/>
-      <c r="E24" s="338"/>
+      <c r="B24" s="334"/>
+      <c r="C24" s="334"/>
+      <c r="D24" s="334"/>
+      <c r="E24" s="335"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="60"/>
@@ -48849,13 +49036,13 @@
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="336" t="s">
+      <c r="A31" s="333" t="s">
         <v>239</v>
       </c>
-      <c r="B31" s="337"/>
-      <c r="C31" s="337"/>
-      <c r="D31" s="337"/>
-      <c r="E31" s="338"/>
+      <c r="B31" s="334"/>
+      <c r="C31" s="334"/>
+      <c r="D31" s="334"/>
+      <c r="E31" s="335"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="60"/>
@@ -48924,13 +49111,13 @@
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="336" t="s">
+      <c r="A38" s="333" t="s">
         <v>240</v>
       </c>
-      <c r="B38" s="337"/>
-      <c r="C38" s="337"/>
-      <c r="D38" s="337"/>
-      <c r="E38" s="338"/>
+      <c r="B38" s="334"/>
+      <c r="C38" s="334"/>
+      <c r="D38" s="334"/>
+      <c r="E38" s="335"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="60"/>
@@ -48999,13 +49186,13 @@
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="336" t="s">
+      <c r="A45" s="333" t="s">
         <v>243</v>
       </c>
-      <c r="B45" s="337"/>
-      <c r="C45" s="337"/>
-      <c r="D45" s="337"/>
-      <c r="E45" s="338"/>
+      <c r="B45" s="334"/>
+      <c r="C45" s="334"/>
+      <c r="D45" s="334"/>
+      <c r="E45" s="335"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="60"/>
@@ -49074,13 +49261,13 @@
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="336" t="s">
+      <c r="A52" s="333" t="s">
         <v>244</v>
       </c>
-      <c r="B52" s="337"/>
-      <c r="C52" s="337"/>
-      <c r="D52" s="337"/>
-      <c r="E52" s="338"/>
+      <c r="B52" s="334"/>
+      <c r="C52" s="334"/>
+      <c r="D52" s="334"/>
+      <c r="E52" s="335"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="60"/>
@@ -49149,13 +49336,13 @@
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="59" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="336" t="s">
+      <c r="A59" s="333" t="s">
         <v>245</v>
       </c>
-      <c r="B59" s="337"/>
-      <c r="C59" s="337"/>
-      <c r="D59" s="337"/>
-      <c r="E59" s="338"/>
+      <c r="B59" s="334"/>
+      <c r="C59" s="334"/>
+      <c r="D59" s="334"/>
+      <c r="E59" s="335"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="60"/>
@@ -49224,13 +49411,13 @@
     </row>
     <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="336" t="s">
+      <c r="A66" s="333" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="337"/>
-      <c r="C66" s="337"/>
-      <c r="D66" s="337"/>
-      <c r="E66" s="338"/>
+      <c r="B66" s="334"/>
+      <c r="C66" s="334"/>
+      <c r="D66" s="334"/>
+      <c r="E66" s="335"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="60"/>
@@ -49299,13 +49486,13 @@
     </row>
     <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="336" t="s">
+      <c r="A73" s="333" t="s">
         <v>247</v>
       </c>
-      <c r="B73" s="337"/>
-      <c r="C73" s="337"/>
-      <c r="D73" s="337"/>
-      <c r="E73" s="338"/>
+      <c r="B73" s="334"/>
+      <c r="C73" s="334"/>
+      <c r="D73" s="334"/>
+      <c r="E73" s="335"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="60"/>
@@ -49374,13 +49561,13 @@
     </row>
     <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="80" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="336" t="s">
+      <c r="A80" s="333" t="s">
         <v>248</v>
       </c>
-      <c r="B80" s="337"/>
-      <c r="C80" s="337"/>
-      <c r="D80" s="337"/>
-      <c r="E80" s="338"/>
+      <c r="B80" s="334"/>
+      <c r="C80" s="334"/>
+      <c r="D80" s="334"/>
+      <c r="E80" s="335"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="60"/>
@@ -49449,13 +49636,13 @@
     </row>
     <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="87" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="336" t="s">
+      <c r="A87" s="333" t="s">
         <v>249</v>
       </c>
-      <c r="B87" s="337"/>
-      <c r="C87" s="337"/>
-      <c r="D87" s="337"/>
-      <c r="E87" s="338"/>
+      <c r="B87" s="334"/>
+      <c r="C87" s="334"/>
+      <c r="D87" s="334"/>
+      <c r="E87" s="335"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="60"/>
@@ -49524,13 +49711,13 @@
     </row>
     <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="94" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="336" t="s">
+      <c r="A94" s="333" t="s">
         <v>250</v>
       </c>
-      <c r="B94" s="337"/>
-      <c r="C94" s="337"/>
-      <c r="D94" s="337"/>
-      <c r="E94" s="338"/>
+      <c r="B94" s="334"/>
+      <c r="C94" s="334"/>
+      <c r="D94" s="334"/>
+      <c r="E94" s="335"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="60"/>
@@ -49599,13 +49786,13 @@
     </row>
     <row r="100" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="101" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="336" t="s">
+      <c r="A101" s="333" t="s">
         <v>251</v>
       </c>
-      <c r="B101" s="337"/>
-      <c r="C101" s="337"/>
-      <c r="D101" s="337"/>
-      <c r="E101" s="338"/>
+      <c r="B101" s="334"/>
+      <c r="C101" s="334"/>
+      <c r="D101" s="334"/>
+      <c r="E101" s="335"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="60"/>
@@ -49674,13 +49861,13 @@
     </row>
     <row r="107" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="108" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="336" t="s">
+      <c r="A108" s="333" t="s">
         <v>252</v>
       </c>
-      <c r="B108" s="337"/>
-      <c r="C108" s="337"/>
-      <c r="D108" s="337"/>
-      <c r="E108" s="338"/>
+      <c r="B108" s="334"/>
+      <c r="C108" s="334"/>
+      <c r="D108" s="334"/>
+      <c r="E108" s="335"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="60"/>
@@ -49749,13 +49936,13 @@
     </row>
     <row r="114" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="115" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="336" t="s">
+      <c r="A115" s="333" t="s">
         <v>253</v>
       </c>
-      <c r="B115" s="337"/>
-      <c r="C115" s="337"/>
-      <c r="D115" s="337"/>
-      <c r="E115" s="338"/>
+      <c r="B115" s="334"/>
+      <c r="C115" s="334"/>
+      <c r="D115" s="334"/>
+      <c r="E115" s="335"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="60"/>
@@ -49824,13 +50011,13 @@
     </row>
     <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="122" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="336" t="s">
+      <c r="A122" s="333" t="s">
         <v>254</v>
       </c>
-      <c r="B122" s="337"/>
-      <c r="C122" s="337"/>
-      <c r="D122" s="337"/>
-      <c r="E122" s="338"/>
+      <c r="B122" s="334"/>
+      <c r="C122" s="334"/>
+      <c r="D122" s="334"/>
+      <c r="E122" s="335"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="60"/>
@@ -49899,13 +50086,13 @@
     </row>
     <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="336" t="s">
+      <c r="A129" s="333" t="s">
         <v>255</v>
       </c>
-      <c r="B129" s="337"/>
-      <c r="C129" s="337"/>
-      <c r="D129" s="337"/>
-      <c r="E129" s="338"/>
+      <c r="B129" s="334"/>
+      <c r="C129" s="334"/>
+      <c r="D129" s="334"/>
+      <c r="E129" s="335"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="60"/>
@@ -49974,13 +50161,13 @@
     </row>
     <row r="135" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="136" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="336" t="s">
+      <c r="A136" s="333" t="s">
         <v>256</v>
       </c>
-      <c r="B136" s="337"/>
-      <c r="C136" s="337"/>
-      <c r="D136" s="337"/>
-      <c r="E136" s="338"/>
+      <c r="B136" s="334"/>
+      <c r="C136" s="334"/>
+      <c r="D136" s="334"/>
+      <c r="E136" s="335"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="60"/>
@@ -50049,13 +50236,13 @@
     </row>
     <row r="142" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="143" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="336" t="s">
+      <c r="A143" s="333" t="s">
         <v>257</v>
       </c>
-      <c r="B143" s="337"/>
-      <c r="C143" s="337"/>
-      <c r="D143" s="337"/>
-      <c r="E143" s="338"/>
+      <c r="B143" s="334"/>
+      <c r="C143" s="334"/>
+      <c r="D143" s="334"/>
+      <c r="E143" s="335"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="60"/>
@@ -50124,13 +50311,13 @@
     </row>
     <row r="149" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="150" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="336" t="s">
+      <c r="A150" s="333" t="s">
         <v>258</v>
       </c>
-      <c r="B150" s="337"/>
-      <c r="C150" s="337"/>
-      <c r="D150" s="337"/>
-      <c r="E150" s="338"/>
+      <c r="B150" s="334"/>
+      <c r="C150" s="334"/>
+      <c r="D150" s="334"/>
+      <c r="E150" s="335"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="60"/>
@@ -50199,13 +50386,13 @@
     </row>
     <row r="156" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="157" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="336" t="s">
+      <c r="A157" s="333" t="s">
         <v>259</v>
       </c>
-      <c r="B157" s="337"/>
-      <c r="C157" s="337"/>
-      <c r="D157" s="337"/>
-      <c r="E157" s="338"/>
+      <c r="B157" s="334"/>
+      <c r="C157" s="334"/>
+      <c r="D157" s="334"/>
+      <c r="E157" s="335"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="60"/>
@@ -50274,13 +50461,13 @@
     </row>
     <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="164" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="336" t="s">
+      <c r="A164" s="333" t="s">
         <v>260</v>
       </c>
-      <c r="B164" s="337"/>
-      <c r="C164" s="337"/>
-      <c r="D164" s="337"/>
-      <c r="E164" s="338"/>
+      <c r="B164" s="334"/>
+      <c r="C164" s="334"/>
+      <c r="D164" s="334"/>
+      <c r="E164" s="335"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="60"/>
@@ -50349,13 +50536,13 @@
     </row>
     <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="171" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="336" t="s">
+      <c r="A171" s="333" t="s">
         <v>261</v>
       </c>
-      <c r="B171" s="337"/>
-      <c r="C171" s="337"/>
-      <c r="D171" s="337"/>
-      <c r="E171" s="338"/>
+      <c r="B171" s="334"/>
+      <c r="C171" s="334"/>
+      <c r="D171" s="334"/>
+      <c r="E171" s="335"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="60"/>
@@ -50424,13 +50611,13 @@
     </row>
     <row r="177" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="178" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="336" t="s">
+      <c r="A178" s="333" t="s">
         <v>262</v>
       </c>
-      <c r="B178" s="337"/>
-      <c r="C178" s="337"/>
-      <c r="D178" s="337"/>
-      <c r="E178" s="338"/>
+      <c r="B178" s="334"/>
+      <c r="C178" s="334"/>
+      <c r="D178" s="334"/>
+      <c r="E178" s="335"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="60"/>
@@ -50499,13 +50686,13 @@
     </row>
     <row r="184" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="185" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="336" t="s">
+      <c r="A185" s="333" t="s">
         <v>263</v>
       </c>
-      <c r="B185" s="337"/>
-      <c r="C185" s="337"/>
-      <c r="D185" s="337"/>
-      <c r="E185" s="338"/>
+      <c r="B185" s="334"/>
+      <c r="C185" s="334"/>
+      <c r="D185" s="334"/>
+      <c r="E185" s="335"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="60"/>
@@ -50574,13 +50761,13 @@
     </row>
     <row r="191" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="192" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="336" t="s">
+      <c r="A192" s="333" t="s">
         <v>264</v>
       </c>
-      <c r="B192" s="337"/>
-      <c r="C192" s="337"/>
-      <c r="D192" s="337"/>
-      <c r="E192" s="338"/>
+      <c r="B192" s="334"/>
+      <c r="C192" s="334"/>
+      <c r="D192" s="334"/>
+      <c r="E192" s="335"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="60"/>
@@ -50649,13 +50836,13 @@
     </row>
     <row r="198" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="199" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="336" t="s">
+      <c r="A199" s="333" t="s">
         <v>265</v>
       </c>
-      <c r="B199" s="337"/>
-      <c r="C199" s="337"/>
-      <c r="D199" s="337"/>
-      <c r="E199" s="338"/>
+      <c r="B199" s="334"/>
+      <c r="C199" s="334"/>
+      <c r="D199" s="334"/>
+      <c r="E199" s="335"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="60"/>
@@ -50724,13 +50911,13 @@
     </row>
     <row r="205" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="206" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="336" t="s">
+      <c r="A206" s="333" t="s">
         <v>266</v>
       </c>
-      <c r="B206" s="337"/>
-      <c r="C206" s="337"/>
-      <c r="D206" s="337"/>
-      <c r="E206" s="338"/>
+      <c r="B206" s="334"/>
+      <c r="C206" s="334"/>
+      <c r="D206" s="334"/>
+      <c r="E206" s="335"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="60"/>
@@ -50799,13 +50986,13 @@
     </row>
     <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="213" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="336" t="s">
+      <c r="A213" s="333" t="s">
         <v>267</v>
       </c>
-      <c r="B213" s="337"/>
-      <c r="C213" s="337"/>
-      <c r="D213" s="337"/>
-      <c r="E213" s="338"/>
+      <c r="B213" s="334"/>
+      <c r="C213" s="334"/>
+      <c r="D213" s="334"/>
+      <c r="E213" s="335"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="60"/>
@@ -50874,13 +51061,13 @@
     </row>
     <row r="219" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="220" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="336" t="s">
+      <c r="A220" s="333" t="s">
         <v>268</v>
       </c>
-      <c r="B220" s="337"/>
-      <c r="C220" s="337"/>
-      <c r="D220" s="337"/>
-      <c r="E220" s="338"/>
+      <c r="B220" s="334"/>
+      <c r="C220" s="334"/>
+      <c r="D220" s="334"/>
+      <c r="E220" s="335"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="60"/>
@@ -50949,13 +51136,13 @@
     </row>
     <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="227" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="336" t="s">
+      <c r="A227" s="333" t="s">
         <v>269</v>
       </c>
-      <c r="B227" s="337"/>
-      <c r="C227" s="337"/>
-      <c r="D227" s="337"/>
-      <c r="E227" s="338"/>
+      <c r="B227" s="334"/>
+      <c r="C227" s="334"/>
+      <c r="D227" s="334"/>
+      <c r="E227" s="335"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="60"/>
@@ -51024,13 +51211,13 @@
     </row>
     <row r="233" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="234" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="336" t="s">
+      <c r="A234" s="333" t="s">
         <v>270</v>
       </c>
-      <c r="B234" s="337"/>
-      <c r="C234" s="337"/>
-      <c r="D234" s="337"/>
-      <c r="E234" s="338"/>
+      <c r="B234" s="334"/>
+      <c r="C234" s="334"/>
+      <c r="D234" s="334"/>
+      <c r="E234" s="335"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="60"/>
@@ -51099,13 +51286,13 @@
     </row>
     <row r="240" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="241" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="336" t="s">
+      <c r="A241" s="333" t="s">
         <v>271</v>
       </c>
-      <c r="B241" s="337"/>
-      <c r="C241" s="337"/>
-      <c r="D241" s="337"/>
-      <c r="E241" s="338"/>
+      <c r="B241" s="334"/>
+      <c r="C241" s="334"/>
+      <c r="D241" s="334"/>
+      <c r="E241" s="335"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="60"/>
@@ -51174,13 +51361,13 @@
     </row>
     <row r="247" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="248" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="336" t="s">
+      <c r="A248" s="333" t="s">
         <v>272</v>
       </c>
-      <c r="B248" s="337"/>
-      <c r="C248" s="337"/>
-      <c r="D248" s="337"/>
-      <c r="E248" s="338"/>
+      <c r="B248" s="334"/>
+      <c r="C248" s="334"/>
+      <c r="D248" s="334"/>
+      <c r="E248" s="335"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="60"/>
@@ -51249,13 +51436,13 @@
     </row>
     <row r="254" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="255" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="336" t="s">
+      <c r="A255" s="333" t="s">
         <v>273</v>
       </c>
-      <c r="B255" s="337"/>
-      <c r="C255" s="337"/>
-      <c r="D255" s="337"/>
-      <c r="E255" s="338"/>
+      <c r="B255" s="334"/>
+      <c r="C255" s="334"/>
+      <c r="D255" s="334"/>
+      <c r="E255" s="335"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="60"/>
@@ -51324,13 +51511,13 @@
     </row>
     <row r="261" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="262" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="336" t="s">
+      <c r="A262" s="333" t="s">
         <v>274</v>
       </c>
-      <c r="B262" s="337"/>
-      <c r="C262" s="337"/>
-      <c r="D262" s="337"/>
-      <c r="E262" s="338"/>
+      <c r="B262" s="334"/>
+      <c r="C262" s="334"/>
+      <c r="D262" s="334"/>
+      <c r="E262" s="335"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="60"/>
@@ -51399,13 +51586,13 @@
     </row>
     <row r="268" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="269" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="336" t="s">
+      <c r="A269" s="333" t="s">
         <v>275</v>
       </c>
-      <c r="B269" s="337"/>
-      <c r="C269" s="337"/>
-      <c r="D269" s="337"/>
-      <c r="E269" s="338"/>
+      <c r="B269" s="334"/>
+      <c r="C269" s="334"/>
+      <c r="D269" s="334"/>
+      <c r="E269" s="335"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="60"/>
@@ -51474,13 +51661,13 @@
     </row>
     <row r="275" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="276" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="336" t="s">
+      <c r="A276" s="333" t="s">
         <v>276</v>
       </c>
-      <c r="B276" s="337"/>
-      <c r="C276" s="337"/>
-      <c r="D276" s="337"/>
-      <c r="E276" s="338"/>
+      <c r="B276" s="334"/>
+      <c r="C276" s="334"/>
+      <c r="D276" s="334"/>
+      <c r="E276" s="335"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="60"/>
@@ -51549,13 +51736,13 @@
     </row>
     <row r="282" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="283" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="336" t="s">
+      <c r="A283" s="333" t="s">
         <v>277</v>
       </c>
-      <c r="B283" s="337"/>
-      <c r="C283" s="337"/>
-      <c r="D283" s="337"/>
-      <c r="E283" s="338"/>
+      <c r="B283" s="334"/>
+      <c r="C283" s="334"/>
+      <c r="D283" s="334"/>
+      <c r="E283" s="335"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="60"/>
@@ -51624,13 +51811,13 @@
     </row>
     <row r="289" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="290" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="336" t="s">
+      <c r="A290" s="333" t="s">
         <v>278</v>
       </c>
-      <c r="B290" s="337"/>
-      <c r="C290" s="337"/>
-      <c r="D290" s="337"/>
-      <c r="E290" s="338"/>
+      <c r="B290" s="334"/>
+      <c r="C290" s="334"/>
+      <c r="D290" s="334"/>
+      <c r="E290" s="335"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="60"/>
@@ -51699,13 +51886,13 @@
     </row>
     <row r="296" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="297" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="336" t="s">
+      <c r="A297" s="333" t="s">
         <v>279</v>
       </c>
-      <c r="B297" s="337"/>
-      <c r="C297" s="337"/>
-      <c r="D297" s="337"/>
-      <c r="E297" s="338"/>
+      <c r="B297" s="334"/>
+      <c r="C297" s="334"/>
+      <c r="D297" s="334"/>
+      <c r="E297" s="335"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="60"/>
@@ -51774,13 +51961,13 @@
     </row>
     <row r="303" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="304" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="336" t="s">
+      <c r="A304" s="333" t="s">
         <v>280</v>
       </c>
-      <c r="B304" s="337"/>
-      <c r="C304" s="337"/>
-      <c r="D304" s="337"/>
-      <c r="E304" s="338"/>
+      <c r="B304" s="334"/>
+      <c r="C304" s="334"/>
+      <c r="D304" s="334"/>
+      <c r="E304" s="335"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="60"/>
@@ -51849,13 +52036,13 @@
     </row>
     <row r="310" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="311" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="336" t="s">
+      <c r="A311" s="333" t="s">
         <v>281</v>
       </c>
-      <c r="B311" s="337"/>
-      <c r="C311" s="337"/>
-      <c r="D311" s="337"/>
-      <c r="E311" s="338"/>
+      <c r="B311" s="334"/>
+      <c r="C311" s="334"/>
+      <c r="D311" s="334"/>
+      <c r="E311" s="335"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="60"/>
@@ -51924,13 +52111,13 @@
     </row>
     <row r="317" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="318" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="336" t="s">
+      <c r="A318" s="333" t="s">
         <v>282</v>
       </c>
-      <c r="B318" s="337"/>
-      <c r="C318" s="337"/>
-      <c r="D318" s="337"/>
-      <c r="E318" s="338"/>
+      <c r="B318" s="334"/>
+      <c r="C318" s="334"/>
+      <c r="D318" s="334"/>
+      <c r="E318" s="335"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="60"/>
@@ -51999,13 +52186,13 @@
     </row>
     <row r="324" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="325" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="336" t="s">
+      <c r="A325" s="333" t="s">
         <v>283</v>
       </c>
-      <c r="B325" s="337"/>
-      <c r="C325" s="337"/>
-      <c r="D325" s="337"/>
-      <c r="E325" s="338"/>
+      <c r="B325" s="334"/>
+      <c r="C325" s="334"/>
+      <c r="D325" s="334"/>
+      <c r="E325" s="335"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="60"/>
@@ -52074,13 +52261,13 @@
     </row>
     <row r="331" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="332" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A332" s="336" t="s">
+      <c r="A332" s="333" t="s">
         <v>284</v>
       </c>
-      <c r="B332" s="337"/>
-      <c r="C332" s="337"/>
-      <c r="D332" s="337"/>
-      <c r="E332" s="338"/>
+      <c r="B332" s="334"/>
+      <c r="C332" s="334"/>
+      <c r="D332" s="334"/>
+      <c r="E332" s="335"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="60"/>
@@ -52149,13 +52336,13 @@
     </row>
     <row r="338" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="339" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="336" t="s">
+      <c r="A339" s="333" t="s">
         <v>285</v>
       </c>
-      <c r="B339" s="337"/>
-      <c r="C339" s="337"/>
-      <c r="D339" s="337"/>
-      <c r="E339" s="338"/>
+      <c r="B339" s="334"/>
+      <c r="C339" s="334"/>
+      <c r="D339" s="334"/>
+      <c r="E339" s="335"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="60"/>
@@ -52224,13 +52411,13 @@
     </row>
     <row r="345" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="346" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="336" t="s">
+      <c r="A346" s="333" t="s">
         <v>286</v>
       </c>
-      <c r="B346" s="337"/>
-      <c r="C346" s="337"/>
-      <c r="D346" s="337"/>
-      <c r="E346" s="338"/>
+      <c r="B346" s="334"/>
+      <c r="C346" s="334"/>
+      <c r="D346" s="334"/>
+      <c r="E346" s="335"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="60"/>
@@ -52299,13 +52486,13 @@
     </row>
     <row r="352" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="353" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="336" t="s">
+      <c r="A353" s="333" t="s">
         <v>287</v>
       </c>
-      <c r="B353" s="337"/>
-      <c r="C353" s="337"/>
-      <c r="D353" s="337"/>
-      <c r="E353" s="338"/>
+      <c r="B353" s="334"/>
+      <c r="C353" s="334"/>
+      <c r="D353" s="334"/>
+      <c r="E353" s="335"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="60"/>
@@ -52374,13 +52561,13 @@
     </row>
     <row r="359" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="360" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="336" t="s">
+      <c r="A360" s="333" t="s">
         <v>288</v>
       </c>
-      <c r="B360" s="337"/>
-      <c r="C360" s="337"/>
-      <c r="D360" s="337"/>
-      <c r="E360" s="338"/>
+      <c r="B360" s="334"/>
+      <c r="C360" s="334"/>
+      <c r="D360" s="334"/>
+      <c r="E360" s="335"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="60"/>
@@ -52449,13 +52636,13 @@
     </row>
     <row r="366" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="367" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A367" s="336" t="s">
+      <c r="A367" s="333" t="s">
         <v>289</v>
       </c>
-      <c r="B367" s="337"/>
-      <c r="C367" s="337"/>
-      <c r="D367" s="337"/>
-      <c r="E367" s="338"/>
+      <c r="B367" s="334"/>
+      <c r="C367" s="334"/>
+      <c r="D367" s="334"/>
+      <c r="E367" s="335"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="60"/>
@@ -52524,13 +52711,13 @@
     </row>
     <row r="373" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="374" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A374" s="336" t="s">
+      <c r="A374" s="333" t="s">
         <v>290</v>
       </c>
-      <c r="B374" s="337"/>
-      <c r="C374" s="337"/>
-      <c r="D374" s="337"/>
-      <c r="E374" s="338"/>
+      <c r="B374" s="334"/>
+      <c r="C374" s="334"/>
+      <c r="D374" s="334"/>
+      <c r="E374" s="335"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="60"/>
@@ -52599,13 +52786,13 @@
     </row>
     <row r="380" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="381" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="336" t="s">
+      <c r="A381" s="333" t="s">
         <v>291</v>
       </c>
-      <c r="B381" s="337"/>
-      <c r="C381" s="337"/>
-      <c r="D381" s="337"/>
-      <c r="E381" s="338"/>
+      <c r="B381" s="334"/>
+      <c r="C381" s="334"/>
+      <c r="D381" s="334"/>
+      <c r="E381" s="335"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="60"/>
@@ -52674,13 +52861,13 @@
     </row>
     <row r="387" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="388" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A388" s="336" t="s">
+      <c r="A388" s="333" t="s">
         <v>292</v>
       </c>
-      <c r="B388" s="337"/>
-      <c r="C388" s="337"/>
-      <c r="D388" s="337"/>
-      <c r="E388" s="338"/>
+      <c r="B388" s="334"/>
+      <c r="C388" s="334"/>
+      <c r="D388" s="334"/>
+      <c r="E388" s="335"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="60"/>
@@ -52749,13 +52936,13 @@
     </row>
     <row r="394" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="395" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A395" s="336" t="s">
+      <c r="A395" s="333" t="s">
         <v>293</v>
       </c>
-      <c r="B395" s="337"/>
-      <c r="C395" s="337"/>
-      <c r="D395" s="337"/>
-      <c r="E395" s="338"/>
+      <c r="B395" s="334"/>
+      <c r="C395" s="334"/>
+      <c r="D395" s="334"/>
+      <c r="E395" s="335"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="60"/>
@@ -52824,13 +53011,13 @@
     </row>
     <row r="401" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="402" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A402" s="336" t="s">
+      <c r="A402" s="333" t="s">
         <v>294</v>
       </c>
-      <c r="B402" s="337"/>
-      <c r="C402" s="337"/>
-      <c r="D402" s="337"/>
-      <c r="E402" s="338"/>
+      <c r="B402" s="334"/>
+      <c r="C402" s="334"/>
+      <c r="D402" s="334"/>
+      <c r="E402" s="335"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="60"/>
@@ -52899,13 +53086,13 @@
     </row>
     <row r="408" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="409" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A409" s="336" t="s">
+      <c r="A409" s="333" t="s">
         <v>295</v>
       </c>
-      <c r="B409" s="337"/>
-      <c r="C409" s="337"/>
-      <c r="D409" s="337"/>
-      <c r="E409" s="338"/>
+      <c r="B409" s="334"/>
+      <c r="C409" s="334"/>
+      <c r="D409" s="334"/>
+      <c r="E409" s="335"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="60"/>
@@ -52974,13 +53161,13 @@
     </row>
     <row r="415" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="416" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A416" s="336" t="s">
+      <c r="A416" s="333" t="s">
         <v>296</v>
       </c>
-      <c r="B416" s="337"/>
-      <c r="C416" s="337"/>
-      <c r="D416" s="337"/>
-      <c r="E416" s="338"/>
+      <c r="B416" s="334"/>
+      <c r="C416" s="334"/>
+      <c r="D416" s="334"/>
+      <c r="E416" s="335"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="60"/>
@@ -53049,13 +53236,13 @@
     </row>
     <row r="422" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="423" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A423" s="336" t="s">
+      <c r="A423" s="333" t="s">
         <v>297</v>
       </c>
-      <c r="B423" s="337"/>
-      <c r="C423" s="337"/>
-      <c r="D423" s="337"/>
-      <c r="E423" s="338"/>
+      <c r="B423" s="334"/>
+      <c r="C423" s="334"/>
+      <c r="D423" s="334"/>
+      <c r="E423" s="335"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="60"/>
@@ -53124,13 +53311,13 @@
     </row>
     <row r="429" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="430" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A430" s="336" t="s">
+      <c r="A430" s="333" t="s">
         <v>298</v>
       </c>
-      <c r="B430" s="337"/>
-      <c r="C430" s="337"/>
-      <c r="D430" s="337"/>
-      <c r="E430" s="338"/>
+      <c r="B430" s="334"/>
+      <c r="C430" s="334"/>
+      <c r="D430" s="334"/>
+      <c r="E430" s="335"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="60"/>
@@ -53199,12 +53386,50 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A423:E423"/>
+    <mergeCell ref="A430:E430"/>
+    <mergeCell ref="A381:E381"/>
+    <mergeCell ref="A388:E388"/>
+    <mergeCell ref="A395:E395"/>
+    <mergeCell ref="A402:E402"/>
+    <mergeCell ref="A409:E409"/>
+    <mergeCell ref="A416:E416"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A297:E297"/>
+    <mergeCell ref="A304:E304"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A318:E318"/>
+    <mergeCell ref="A325:E325"/>
+    <mergeCell ref="A332:E332"/>
+    <mergeCell ref="A339:E339"/>
+    <mergeCell ref="A346:E346"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="A360:E360"/>
+    <mergeCell ref="A367:E367"/>
+    <mergeCell ref="A290:E290"/>
+    <mergeCell ref="A213:E213"/>
+    <mergeCell ref="A220:E220"/>
+    <mergeCell ref="A227:E227"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A241:E241"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A262:E262"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A276:E276"/>
+    <mergeCell ref="A283:E283"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A199:E199"/>
     <mergeCell ref="A122:E122"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A52:E52"/>
@@ -53217,50 +53442,12 @@
     <mergeCell ref="A101:E101"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="A290:E290"/>
-    <mergeCell ref="A213:E213"/>
-    <mergeCell ref="A220:E220"/>
-    <mergeCell ref="A227:E227"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A241:E241"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A262:E262"/>
-    <mergeCell ref="A269:E269"/>
-    <mergeCell ref="A276:E276"/>
-    <mergeCell ref="A283:E283"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A297:E297"/>
-    <mergeCell ref="A304:E304"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A318:E318"/>
-    <mergeCell ref="A325:E325"/>
-    <mergeCell ref="A332:E332"/>
-    <mergeCell ref="A339:E339"/>
-    <mergeCell ref="A346:E346"/>
-    <mergeCell ref="A353:E353"/>
-    <mergeCell ref="A360:E360"/>
-    <mergeCell ref="A367:E367"/>
-    <mergeCell ref="A423:E423"/>
-    <mergeCell ref="A430:E430"/>
-    <mergeCell ref="A381:E381"/>
-    <mergeCell ref="A388:E388"/>
-    <mergeCell ref="A395:E395"/>
-    <mergeCell ref="A402:E402"/>
-    <mergeCell ref="A409:E409"/>
-    <mergeCell ref="A416:E416"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53296,16 +53483,16 @@
         <v>152</v>
       </c>
       <c r="D1" s="296" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E1" s="296" t="s">
         <v>65</v>
       </c>
       <c r="F1" s="296" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G1" s="296" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1" s="297"/>
       <c r="I1" s="297"/>
@@ -53328,7 +53515,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
@@ -53401,7 +53588,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
@@ -53474,7 +53661,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
@@ -53547,7 +53734,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
@@ -53620,7 +53807,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
@@ -53693,7 +53880,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
@@ -53766,7 +53953,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
@@ -53839,7 +54026,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
@@ -53912,7 +54099,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
@@ -53985,7 +54172,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
@@ -54058,7 +54245,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
@@ -54131,7 +54318,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
@@ -54204,7 +54391,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
@@ -54277,7 +54464,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
@@ -54350,7 +54537,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
@@ -54423,7 +54610,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
@@ -54496,7 +54683,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
@@ -54569,7 +54756,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
@@ -54642,7 +54829,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
@@ -54715,7 +54902,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
@@ -54788,7 +54975,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
@@ -54861,7 +55048,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
@@ -54934,7 +55121,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
@@ -55007,7 +55194,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
@@ -55080,7 +55267,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
@@ -55153,7 +55340,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
@@ -55226,7 +55413,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
@@ -55299,7 +55486,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
@@ -55372,7 +55559,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
@@ -55445,7 +55632,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
@@ -55518,7 +55705,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
@@ -55591,7 +55778,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
@@ -55664,7 +55851,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
@@ -55737,7 +55924,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
@@ -55810,7 +55997,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
@@ -55883,7 +56070,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
@@ -55956,7 +56143,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
@@ -56029,7 +56216,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
@@ -56102,7 +56289,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
@@ -56175,7 +56362,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
@@ -56248,7 +56435,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
@@ -56321,7 +56508,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
@@ -56394,7 +56581,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
@@ -56467,7 +56654,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
@@ -56540,7 +56727,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
@@ -56613,7 +56800,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
@@ -56686,7 +56873,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
@@ -56759,7 +56946,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
@@ -56832,7 +57019,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
@@ -56905,7 +57092,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
@@ -56978,7 +57165,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
@@ -57051,7 +57238,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
@@ -57124,7 +57311,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
@@ -57197,7 +57384,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
@@ -57270,7 +57457,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
@@ -57343,7 +57530,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
@@ -57416,7 +57603,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
@@ -57489,7 +57676,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
@@ -57562,7 +57749,7 @@
     </row>
     <row r="60" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B60" s="34"/>
       <c r="C60" s="34" t="s">
